--- a/api/ConstraintModel/formatted_schedule.xlsx
+++ b/api/ConstraintModel/formatted_schedule.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="306">
   <si>
     <t>FIRST</t>
   </si>
@@ -125,8 +125,11 @@
   </si>
   <si>
     <t xml:space="preserve">(0, 'theory of computation', 'small_lec', '5 csen ii', 53)
-(0, 'graphics', 'lab', '5 csen ii 23', 63)
-(0, 'data bases', 'lab', '5 csen ii 22', 62)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'graphics', 'lab', '5 dmet 23', 63)
+(0, 'data bases', 'lab', '5 dmet 22', 62)
 </t>
   </si>
   <si>
@@ -190,8 +193,11 @@
 (1, 'comm ne', 'tut', '5 csen ii 19', 36)
 (1, 'math', 'tut', '5 csen ii 20', 35)
 (1, 'data bases', 'lab', '5 csen ii 21', 63)
-(1, 'math', 'tut', '5 csen ii 23', 34)
-(1, 'data bases', 'tut', '5 csen ii 22', 33)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'math', 'tut', '5 dmet 23', 34)
+(1, 'data bases', 'tut', '5 dmet 22', 33)
 </t>
   </si>
   <si>
@@ -259,7 +265,10 @@
     <t xml:space="preserve">(2, 'theory of computation', 'tut', '5 csen ii 21', 31)
 (2, 'medi', 'tut', '5 csen ii 19', 30)
 (2, 'math', 'tut', '5 csen ii 16', 29)
-(2, 'computer graphics', 'small_lec', '5 csen ii', 52)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'computer graphics', 'small_lec', '5 dmet', 52)
 </t>
   </si>
   <si>
@@ -328,7 +337,10 @@
 (3, 'comm ne', 'tut', '5 csen ii 21', 35)
 (3, 'medi', 'tut', '5 csen ii 16', 34)
 (3, 'dsd', 'tut', '5 csen ii 20', 33)
-(3, 'graphics', 'tut', '5 csen ii 23', 32)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'graphics', 'tut', '5 dmet 23', 32)
 </t>
   </si>
   <si>
@@ -425,8 +437,11 @@
 (5, 'data bases', 'lab', '5 csen ii 19', 60)
 (5, 'dsd', 'tut', '5 csen ii 21', 34)
 (5, 'theory of computation', 'tut', '5 csen ii 16', 33)
-(5, 'comm ne', 'tut', '5 csen ii 23', 32)
-(5, 'graphics', 'lab', '5 csen ii 22', 59)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'comm ne', 'tut', '5 dmet 23', 32)
+(5, 'graphics', 'lab', '5 dmet 22', 59)
 </t>
   </si>
   <si>
@@ -627,8 +642,11 @@
 (8, 'comm ne', 'tut', '5 csen ii 18', 34)
 (8, 'theory of computation', 'tut', '5 csen ii 19', 33)
 (8, 'comm ne', 'tut', '5 csen ii 16', 32)
-(8, 'medi', 'tut', '5 csen ii 23', 31)
-(8, 'dsd', 'tut', '5 csen ii 22', 30)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'medi', 'tut', '5 dmet 23', 31)
+(8, 'dsd', 'tut', '5 dmet 22', 30)
 </t>
   </si>
   <si>
@@ -705,8 +723,11 @@
   </si>
   <si>
     <t xml:space="preserve">(10, 'theory of computation', 'small_lec', '5 csen ii', 52)
-(10, 'data bases', 'tut', '5 csen ii 23', 36)
-(10, 'math', 'tut', '5 csen ii 22', 35)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'data bases', 'tut', '5 dmet 23', 36)
+(10, 'math', 'tut', '5 dmet 22', 35)
 </t>
   </si>
   <si>
@@ -816,8 +837,11 @@
 (12, 'math', 'tut', '5 csen ii 17', 30)
 (12, 'math', 'tut', '5 csen ii 19', 29)
 (12, 'data bases', 'lab', '5 csen ii 18', 59)
-(12, 'dsd', 'tut', '5 csen ii 23', 28)
-(12, 'medi', 'tut', '5 csen ii 22', 27)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'dsd', 'tut', '5 dmet 23', 28)
+(12, 'medi', 'tut', '5 dmet 22', 27)
 </t>
   </si>
   <si>
@@ -878,8 +902,11 @@
 (13, 'medi', 'tut', '5 csen ii 21', 25)
 (13, 'math', 'tut', '5 csen ii 18', 24)
 (13, 'data bases', 'tut', '5 csen ii 17', 23)
-(13, 'data bases', 'lab', '5 csen ii 23', 56)
-(13, 'comm ne', 'tut', '5 csen ii 22', 22)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'data bases', 'lab', '5 dmet 23', 56)
+(13, 'comm ne', 'tut', '5 dmet 22', 22)
 </t>
   </si>
   <si>
@@ -2132,13 +2159,13 @@
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2146,10 +2173,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2160,16 +2187,16 @@
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2177,16 +2204,16 @@
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2194,10 +2221,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2208,13 +2235,13 @@
         <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2225,7 +2252,7 @@
         <v>27</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2233,10 +2260,10 @@
         <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2254,16 +2281,16 @@
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2274,13 +2301,13 @@
         <v>28</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2291,38 +2318,50 @@
         <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2330,19 +2369,19 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2350,16 +2389,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2404,16 +2443,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2421,7 +2460,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2439,16 +2478,16 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2456,19 +2495,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2476,13 +2515,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2490,16 +2529,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2507,10 +2546,10 @@
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2518,13 +2557,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2532,19 +2571,19 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2552,16 +2591,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2569,16 +2608,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2586,19 +2625,19 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F15" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2606,34 +2645,40 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -2680,16 +2725,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2697,13 +2742,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2711,16 +2756,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2728,10 +2773,10 @@
         <v>8</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2769,16 +2814,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2786,16 +2831,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2803,16 +2848,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2820,16 +2865,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2837,34 +2882,43 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:5">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -2911,19 +2965,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2931,13 +2985,13 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2945,19 +2999,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2965,13 +3019,13 @@
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3009,16 +3063,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3026,16 +3080,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3043,16 +3097,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3075,16 +3129,16 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3092,16 +3146,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3109,13 +3163,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -3170,19 +3224,19 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="F4" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3190,7 +3244,7 @@
         <v>8</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3198,16 +3252,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3215,19 +3269,19 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>231</v>
+        <v>240</v>
       </c>
       <c r="F7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3235,10 +3289,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3246,19 +3300,19 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3266,10 +3320,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3277,7 +3331,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3285,19 +3339,19 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="F12" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3305,16 +3359,16 @@
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="F13" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3322,16 +3376,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3354,19 +3408,19 @@
         <v>21</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="F18" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3374,19 +3428,19 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="F19" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3394,13 +3448,13 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -3445,19 +3499,19 @@
         <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3465,7 +3519,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3483,19 +3537,19 @@
         <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3503,16 +3557,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3520,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3528,16 +3582,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3545,10 +3599,10 @@
         <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3556,10 +3610,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3567,16 +3621,16 @@
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="F12" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3584,16 +3638,16 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3606,13 +3660,13 @@
         <v>18</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3620,13 +3674,13 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3634,7 +3688,7 @@
         <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3642,16 +3696,16 @@
         <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3659,16 +3713,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3676,16 +3730,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/api/ConstraintModel/formatted_schedule.xlsx
+++ b/api/ConstraintModel/formatted_schedule.xlsx
@@ -93,295 +93,295 @@
     <t>7 dmet</t>
   </si>
   <si>
-    <t xml:space="preserve">(0, 'math', 'small_lec', '1engineering ix', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'pro', 'tut', '1engineering vii 28', 49, 'andrew faried')
-(0, 'csen', 'tut', '1engineering vii 30', 48, 'ali saudi')
-(0, 'csen', 'tut', '1engineering vii 31', 47, 'hadwa pasha')
-(0, 'csen', 'tut', '1engineering vii 32', 46, 'noha abdellatif')
-(0, 'chemistry', 'tut', '1engineering vii 29', 45, 'mariam azab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'math', 'tut', '1engineering viii 33', 44, 'lina helal')
-(0, 'math', 'tut', '1engineering viii 34', 43, 'karim elghazawy')
-(0, 'math', 'tut', '1engineering viii 35', 42, 'mohamed hafez')
-(0, 'engd', 'tut', '1engineering viii 36', 41, 'alia badawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'dsd', 'tut', '5 csen i 13', 40, 'hadeel mostafa')
+    <t xml:space="preserve">(0, 'math ', 'small_lec', '1engineering ix', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'prot ', 'tut', '1engineering vii 28', 49, 'andrew faried')
+(0, 'csen tut ', 'tut', '1engineering vii 30', 48, 'ali saudi')
+(0, 'csen tut ', 'tut', '1engineering vii 31', 47, 'hadwa pasha')
+(0, 'csen tut ', 'tut', '1engineering vii 32', 46, 'noha abdellatif')
+(0, 'chemistry ', 'tut', '1engineering vii 29', 45, 'mariam azab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'math ', 'tut', '1engineering viii 33', 44, 'lina helal')
+(0, 'math ', 'tut', '1engineering viii 34', 43, 'karim elghazawy')
+(0, 'math ', 'tut', '1engineering viii 35', 42, 'mohamed hafez')
+(0, 'engd ', 'tut', '1engineering viii 36', 41, 'alia badawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'dsd ', 'tut', '5 csen i 13', 40, 'hadeel mostafa')
 (0, 'theory of computation', 'tut', '5 csen i 14', 39, 'youssef amin')
-(0, 'math', 'tut', '5 csen i 11', 38, 'naglaa ahmed')
-(0, 'data bases', 'tut', '5 csen i 10', 37, 'merna shafie')
-(0, 'medi', 'tut', '5 csen i 15', 36, 'menrit moawad')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'theory of computation', 'small_lec', '5 csen ii', 53, 'haytham ismail')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'graphics', 'lab', '5 dmet 23', 63, 'merna mikhael')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'advanced computer', 'lab', '7 csen i 8', 62, 'reham hassan')
-(0, 'advanced computer', 'lab', '7 csen i 9', 61, 'mark gergis')
-(0, 'graphics', 'lab', '7 csen i 10', 60, 'mohammed kapiel')
-(0, 'algorithms', 'tut', '7 csen i 11', 35, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'graphics', 'tut', '7 csen ii 16', 34, 'salma mohamed')
-(0, 'microprocessors', 'tut', '7 csen ii 18', 33, 'dina mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'visualization &amp; animation', 'small_lec', '7 dmet', 52, 'rimon elias')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'physics', 'small_lec', '1engineering iii', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'physics', 'small_lec', '1engineering iv', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'csen', 'tut', '1engineering v 20', 49, 'ali saudi')
-(1, 'csen', 'tut', '1engineering v 21', 48, 'fatema gabr')
-(1, 'chemistry', 'tut', '1engineering v 19', 47, 'sherif aref')
-(1, 'chemistry', 'tut', '1engineering v 22', 46, 'mariam azab')
-(1, 'physics', 'tut', '1engineering v 23', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'math', 'tut', '1engineering vi 24', 44, 'lina helal')
-(1, 'math', 'tut', '1engineering vi 25', 43, 'karim ahmed')
-(1, 'math', 'tut', '1engineering vi 26', 42, 'mohamed hafez')
-(1, 'engd', 'tut', '1engineering vi 27', 41, 'hebatullah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'math', 'small_lec', '1engineering vii', 52, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'theory of computation', 'small_lec', '5 csen i', 51, 'haytham ismail')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'medi', 'tut', '5 csen ii 18', 40, 'menrit moawad')
-(1, 'dsd', 'tut', '5 csen ii 17', 39, 't2')
-(1, 'comm ne', 'tut', '5 csen ii 19', 38, 't3')
-(1, 'math', 'tut', '5 csen ii 20', 37, 'salma eljaki')
-(1, 'data bases', 'lab', '5 csen ii 21', 63, 'naglaa ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'math', 'tut', '5 dmet 23', 36, 'merna shafie')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'graphics', 'lab', '7 csen i 11', 62, 'gehad ismail')
-(1, 'microprocessors', 'tut', '7 csen i 12', 35, 'dina mohamed')
-(1, 'graphics', 'tut', '7 csen i 13', 34, 'salma mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'microprocessors', 'small_lec', '7 csen ii', 50, 'ahmed moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'advanced medi', 'lab', '7 dmet 19', 61, 'hesham elhattab')
-(1, 'multimedi', 'tut', '7 dmet 20', 33, 'mohammed kapiel')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'math', 'tut', '1engineering iii 10', 49, 'karim elghazawy')
-(2, 'csen', 'tut', '1engineering iii 11', 48, 'ali saudi')
-(2, 'csen', 'tut', '1engineering iii 12', 47, 'nardeen khela')
-(2, 'chemistry', 'tut', '1engineering iii 13', 46, 'sherif aref')
-(2, 'physics', 'tut', '1engineering iii 14', 45, 'mustafa mustafa hanafi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'math', 'tut', '1engineering iv 15', 44, 'nourhan ali')
-(2, 'math', 'tut', '1engineering iv 16', 43, 'lina helal')
-(2, 'math', 'tut', '1engineering iv 17', 42, 'mohamed hafez')
-(2, 'engd', 'tut', '1engineering iv 18', 41, 'hebatullah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'physics', 'small_lec', '1engineering v', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'physics', 'small_lec', '1engineering vi', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'csen', 'tut', '3 iet/met iii 19', 40, 'mohamed elgamal')
-(2, 'csen', 'tut', '3 iet/met iii 20', 39, 'mohamed agamia')
-(2, 'elc', 'lab', '3 iet/met iii 21', 63, 'esraa ragab')
-(2, 'math', 'tut', '3 iet/met iii 22', 38, 'mohamed hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'dsd', 'tut', '5 csen i 10', 37, 'ahmed elghobashy')
-(2, 'data bases', 'lab', '5 csen i 11', 62, 'merna mikhael')
-(2, 'dsd', 'tut', '5 csen i 12', 36, 'hadeel mostafa')
-(2, 'theory of computation', 'tut', '5 csen i 13', 35, 'mark gergis')
-(2, 'comm ne', 'tut', '5 csen i 15', 34, 'salma eljaki')
+(0, 'math ', 'tut', '5 csen i 11', 38, 'naglaa ahmed')
+(0, 'data bases t ', 'tut', '5 csen i 10', 37, 'merna shafie')
+(0, 'media ', 'tut', '5 csen i 15', 36, 'menrit moawad')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'theory of computation ', 'small_lec', '5 csen ii', 53, 'haytham ismail')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'graphics ', 'lab', '5 dmet 23', 63, 'merna mikhael')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'advanced computer ', 'lab', '7 csen i 8', 62, 'reham hassan')
+(0, 'advanced computer ', 'lab', '7 csen i 9', 61, 'mark gergis')
+(0, 'graphics  ', 'lab', '7 csen i 10', 60, 'mohammed kapiel')
+(0, 'algorithms ', 'tut', '7 csen i 11', 35, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'graphics t ', 'tut', '7 csen ii 16', 34, 'salma mohamed')
+(0, 'microprocessors ', 'tut', '7 csen ii 18', 33, 'dina mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'visualization &amp; animation   ', 'small_lec', '7 dmet', 52, 'rimon elias')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'physics ', 'small_lec', '1engineering iii', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'physics ', 'small_lec', '1engineering iv', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'csen tut ', 'tut', '1engineering v 20', 49, 'ali saudi')
+(1, 'csen tut ', 'tut', '1engineering v 21', 48, 'fatema gabr')
+(1, 'chemistry ', 'tut', '1engineering v 19', 47, 'sherif aref')
+(1, 'chemistry ', 'tut', '1engineering v 22', 46, 'mariam azab')
+(1, 'physics ', 'tut', '1engineering v 23', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'math ', 'tut', '1engineering vi 24', 44, 'lina helal')
+(1, 'math ', 'tut', '1engineering vi 25', 43, 'karim ahmed')
+(1, 'math ', 'tut', '1engineering vi 26', 42, 'mohamed hafez')
+(1, 'engd ', 'tut', '1engineering vi 27', 41, 'hebatullah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'math ', 'small_lec', '1engineering vii', 52, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'theory of computation ', 'small_lec', '5 csen i', 51, 'haytham ismail')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'media ', 'tut', '5 csen ii 18', 40, 'menrit moawad')
+(1, 'dsd  ', 'tut', '5 csen ii 17', 39, 't2')
+(1, 'comm net t', 'tut', '5 csen ii 19', 38, 't3')
+(1, 'math ', 'tut', '5 csen ii 20', 37, 'salma eljaki')
+(1, 'data bases ', 'lab', '5 csen ii 21', 63, 'naglaa ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'math ', 'tut', '5 dmet 23', 36, 'merna shafie')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'graphics  ', 'lab', '7 csen i 11', 62, 'gehad ismail')
+(1, 'microprocessors ', 'tut', '7 csen i 12', 35, 'dina mohamed')
+(1, 'graphics t ', 'tut', '7 csen i 13', 34, 'salma mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'microprocessors ', 'small_lec', '7 csen ii', 50, 'ahmed moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'advanced media ', 'lab', '7 dmet 19', 61, 'hesham elhattab')
+(1, 'multimedia  ', 'tut', '7 dmet 20', 33, 'mohammed kapiel')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'math ', 'tut', '1engineering iii 10', 49, 'karim elghazawy')
+(2, 'csen tut ', 'tut', '1engineering iii 11', 48, 'ali saudi')
+(2, 'csen tut ', 'tut', '1engineering iii 12', 47, 'nardeen khela')
+(2, 'chemistry ', 'tut', '1engineering iii 13', 46, 'sherif aref')
+(2, 'physics ', 'tut', '1engineering iii 14', 45, 'mustafa mustafa hanafi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'math ', 'tut', '1engineering iv 15', 44, 'nourhan ali')
+(2, 'math ', 'tut', '1engineering iv 16', 43, 'lina helal')
+(2, 'math ', 'tut', '1engineering iv 17', 42, 'mohamed hafez')
+(2, 'engd ', 'tut', '1engineering iv 18', 41, 'hebatullah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'physics ', 'small_lec', '1engineering v', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'physics ', 'small_lec', '1engineering vi', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'csen t ', 'tut', '3 iet/met iii 19', 40, 'mohamed elgamal')
+(2, 'csen t ', 'tut', '3 iet/met iii 20', 39, 'mohamed agamia')
+(2, 'elct ', 'lab', '3 iet/met iii 21', 63, 'esraa ragab')
+(2, 'math ', 'tut', '3 iet/met iii 22', 38, 'mohamed hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'dsd ', 'tut', '5 csen i 10', 37, 'ahmed elghobashy')
+(2, 'data bases ', 'lab', '5 csen i 11', 62, 'merna mikhael')
+(2, 'dsd ', 'tut', '5 csen i 12', 36, 'hadeel mostafa')
+(2, 'theory of computation ', 'tut', '5 csen i 13', 35, 'mark gergis')
+(2, 'comm net t', 'tut', '5 csen i 15', 34, 'salma eljaki')
 </t>
   </si>
   <si>
     <t xml:space="preserve">(2, 'theory of computation', 'tut', '5 csen ii 21', 33, 't4')
-(2, 'medi', 'tut', '5 csen ii 19', 32, 'yehia hatab')
-(2, 'math', 'tut', '5 csen ii 16', 31, 'menrit moawad')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'computer graphics', 'small_lec', '5 dmet', 52, 't6')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'computer graphics', 'small_lec', '7 csen i', 51, 'rimon elias')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'advanced computer', 'lab', '7 csen ii 14', 61, 'reham hassan')
-(2, 'advanced computer', 'lab', '7 csen ii 15', 60, 'youssef amin')
-(2, 'graphics', 'lab', '7 csen ii 18', 59, 'mohammed kapiel')
-(2, 'algorithms', 'tut', '7 csen ii 17', 30, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'visualization', 'tut', '7 dmet 20', 29, 'omar fathy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'physics', 'small_lec', '1engineering ix', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'math', 'small_lec', '1engineering v', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'csen', 'lab', '1engineering vii 30', 63, 'ali saudi')
-(3, 'csen', 'lab', '1engineering vii 31', 62, 'hadwa pasha')
-(3, 'csen', 'lab', '1engineering vii 32', 61, 'noha abdellatif')
-(3, 'physics', 'tut', '1engineering vii 28', 49, 'hazem abdelhafiz')
-(3, 'physics', 'tut', '1engineering vii 29', 48, 'mustafa mustafa hanafi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'chemistry', 'tut', '1engineering viii 34', 47, 'sherif aref')
-(3, 'chemistry', 'tut', '1engineering viii 35', 46, 'mariam azab')
-(3, 'engd', 'tut', '1engineering viii 33', 45, 'hebatullah mohamed')
-(3, 'math', 'tut', '1engineering viii 36', 44, 'nourhan ali')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'physics', 'small_lec', '1engineering x', 52, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'physics', 'lab', '3 iet/met iii 19', 60, 'maha hamdy')
-(3, 'physics', 'lab', '3 iet/met iii 20', 59, 'noha hassan')
-(3, 'elc', 'lab', '3 iet/met iii 22', 58, 'esraa ragab')
-(3, 'dld', 'tut', '3 iet/met iii 21', 43, 'ahmed abdelkader')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'data bases', 'tut', '5 csen i 12', 42, 'merna shafie')
-(3, 'math', 'tut', '5 csen i 14', 41, 'naglaa ahmed')
-(3, 'math', 'tut', '5 csen i 15', 40, 'fatma mahmoud')
+(2, 'media ', 'tut', '5 csen ii 19', 32, 'yehia hatab')
+(2, 'math ', 'tut', '5 csen ii 16', 31, 'menrit moawad')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'computer graphics ', 'small_lec', '5 dmet', 52, 't6')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'computer graphics ', 'small_lec', '7 csen i', 51, 'rimon elias')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'advanced computer ', 'lab', '7 csen ii 14', 61, 'reham hassan')
+(2, 'advanced computer ', 'lab', '7 csen ii 15', 60, 'youssef amin')
+(2, 'graphics  ', 'lab', '7 csen ii 18', 59, 'mohammed kapiel')
+(2, 'algorithms ', 'tut', '7 csen ii 17', 30, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'visualization  t', 'tut', '7 dmet 20', 29, 'omar fathy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'physics ', 'small_lec', '1engineering ix', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'math ', 'small_lec', '1engineering v', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'csen ', 'lab', '1engineering vii 30', 63, 'ali saudi')
+(3, 'csen ', 'lab', '1engineering vii 31', 62, 'hadwa pasha')
+(3, 'csen ', 'lab', '1engineering vii 32', 61, 'noha abdellatif')
+(3, 'physics ', 'tut', '1engineering vii 28', 49, 'hazem abdelhafiz')
+(3, 'physics ', 'tut', '1engineering vii 29', 48, 'mustafa mustafa hanafi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'chemistry ', 'tut', '1engineering viii 34', 47, 'sherif aref')
+(3, 'chemistry ', 'tut', '1engineering viii 35', 46, 'mariam azab')
+(3, 'engd ', 'tut', '1engineering viii 33', 45, 'hebatullah mohamed')
+(3, 'math ', 'tut', '1engineering viii 36', 44, 'nourhan ali')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'physics ', 'small_lec', '1engineering x', 52, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'physics ', 'lab', '3 iet/met iii 19', 60, 'maha hamdy')
+(3, 'physics ', 'lab', '3 iet/met iii 20', 59, 'noha hassan')
+(3, 'elct ', 'lab', '3 iet/met iii 22', 58, 'esraa ragab')
+(3, 'dld ', 'tut', '3 iet/met iii 21', 43, 'ahmed abdelkader')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'data bases t ', 'tut', '5 csen i 12', 42, 'merna shafie')
+(3, 'math ', 'tut', '5 csen i 14', 41, 'naglaa ahmed')
+(3, 'math ', 'tut', '5 csen i 15', 40, 'fatma mahmoud')
 </t>
   </si>
   <si>
     <t xml:space="preserve">(3, 'theory of computation', 'tut', '5 csen ii 17', 39, 'yehia hatab')
 (3, 'theory of computation', 'tut', '5 csen ii 18', 38, 't5')
-(3, 'dsd', 'tut', '5 csen ii 19', 37, 'mark gergis')
-(3, 'comm ne', 'tut', '5 csen ii 21', 36, 'hadeel mostafa')
-(3, 'medi', 'tut', '5 csen ii 16', 35, 'salma eljaki')
-(3, 'dsd', 'tut', '5 csen ii 20', 34, 'menrit moawad')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'graphics', 'tut', '5 dmet 23', 33, 't7')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'microprocessors', 'small_lec', '7 csen i', 51, 'ahmed moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'microprocessors', 'tut', '7 csen ii 17', 32, 'dina mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'visualization', 'tut', '7 dmet 21', 31, 'omar fathy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'pro', 'tut', '1engineering ix 37', 49, 't1')
-(4, 'csen', 'tut', '1engineering ix 38', 47, 'fatema gabr')
-(4, 'csen', 'tut', '1engineering ix 39', 46, 'ali saudi')
-(4, 'physics', 'tut', '1engineering ix 41', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'math', 'tut', '1engineering x 42', 44, 'lina helal')
-(4, 'math', 'tut', '1engineering x 43', 43, 'mohamed hafez')
-(4, 'math', 'tut', '1engineering x 44', 42, 'karim ahmed')
-(4, 'engd', 'tut', '1engineering x 45', 41, 'hebatullah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'dld', 'tut', '3 iet/met iii 22', 40, 'ahmed abdelkader')
-(4, 'math', 'tut', '3 iet/met iii 21', 39, 'mohamed awad')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'graphics', 'lab', '7 csen i 13', 63, 'omar fathy')
-(4, 'algorithms', 'tut', '7 csen i 12', 38, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'computer graphics', 'small_lec', '7 csen ii', 54, 'rimon elias')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'pro', 'tut', '1engineering v 20', 49, 'paula tanaghy')
-(5, 'csen', 'tut', '1engineering v 19', 48, 't8')
-(5, 'chemistry', 'tut', '1engineering v 21', 45, 't9')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'math', 'tut', '1engineering vi 27', 44, 'hesham hussein')
-(5, 'csen', 'tut', '1engineering vi 26', 43, 't11')
-(5, 'physics', 'tut', '1engineering vi 24', 42, 't12')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'chemistry', 'small_lec', '1engineering vii', 54, 't15')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'dld', 'small_lec', '3 iet/met ii', 53, 'wassim alexan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'cs', 'lab', '3 iet/met iii 19', 63, 'mohamed agamia')
-(5, 'cs', 'lab', '3 iet/met iii 20', 62, 'mohamed elgamal')
-(5, 'csen', 'tut', '3 iet/met iii 21', 40, 'sama elbaroudy')
-(5, 'csen', 'tut', '3 iet/met iii 22', 39, 'nada ramadan')
+(3, 'dsd ', 'tut', '5 csen ii 19', 37, 'mark gergis')
+(3, 'comm net t', 'tut', '5 csen ii 21', 36, 'hadeel mostafa')
+(3, 'media ', 'tut', '5 csen ii 16', 35, 'salma eljaki')
+(3, 'dsd  ', 'tut', '5 csen ii 20', 34, 'menrit moawad')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'graphics t ', 'tut', '5 dmet 23', 33, 't7')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'microprocessors ', 'small_lec', '7 csen i', 51, 'ahmed moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'microprocessors ', 'tut', '7 csen ii 17', 32, 'dina mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'visualization  t', 'tut', '7 dmet 21', 31, 'omar fathy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'prot ', 'tut', '1engineering ix 37', 49, 't1')
+(4, 'csen tut ', 'tut', '1engineering ix 38', 47, 'fatema gabr')
+(4, 'csen tut ', 'tut', '1engineering ix 39', 46, 'ali saudi')
+(4, 'physics ', 'tut', '1engineering ix 41', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'math ', 'tut', '1engineering x 42', 44, 'lina helal')
+(4, 'math ', 'tut', '1engineering x 43', 43, 'mohamed hafez')
+(4, 'math ', 'tut', '1engineering x 44', 42, 'karim ahmed')
+(4, 'engd ', 'tut', '1engineering x 45', 41, 'hebatullah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'dld ', 'tut', '3 iet/met iii 22', 40, 'ahmed abdelkader')
+(4, 'math ', 'tut', '3 iet/met iii 21', 39, 'mohamed awad')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'graphics  ', 'lab', '7 csen i 13', 63, 'omar fathy')
+(4, 'algorithms ', 'tut', '7 csen i 12', 38, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'computer graphics ', 'small_lec', '7 csen ii', 54, 'rimon elias')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'prot ', 'tut', '1engineering v 20', 49, 'paula tanaghy')
+(5, 'csen tut ', 'tut', '1engineering v 19', 48, 't8')
+(5, 'chemistry ', 'tut', '1engineering v 21', 45, 't9')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'math ', 'tut', '1engineering vi 27', 44, 'hesham hussein')
+(5, 'csen tut ', 'tut', '1engineering vi 26', 43, 't11')
+(5, 'physics ', 'tut', '1engineering vi 24', 42, 't12')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'chemistry ', 'small_lec', '1engineering vii', 54, 't15')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'dld ', 'small_lec', '3 iet/met ii', 53, 'wassim alexan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'cs ', 'lab', '3 iet/met iii 19', 63, 'mohamed agamia')
+(5, 'cs ', 'lab', '3 iet/met iii 20', 62, 'mohamed elgamal')
+(5, 'csen t ', 'tut', '3 iet/met iii 21', 40, 'sama elbaroudy')
+(5, 'csen t ', 'tut', '3 iet/met iii 22', 39, 'nada ramadan')
 </t>
   </si>
   <si>
@@ -389,1041 +389,1041 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(5, 'medi', 'tut', '5 csen ii 17', 38, 'menrit moawad')
-(5, 'data bases', 'lab', '5 csen ii 20', 61, 'merna mikhael')
-(5, 'data bases', 'tut', '5 csen ii 18', 37, 'ahmed ahmed')
-(5, 'data bases', 'lab', '5 csen ii 19', 60, 'hana sharabash')
-(5, 'dsd', 'tut', '5 csen ii 21', 36, 't25')
+    <t xml:space="preserve">(5, 'media ', 'tut', '5 csen ii 17', 38, 'menrit moawad')
+(5, 'data bases ', 'lab', '5 csen ii 20', 61, 'merna mikhael')
+(5, 'data basest ', 'tut', '5 csen ii 18', 37, 'ahmed ahmed')
+(5, 'data bases ', 'lab', '5 csen ii 19', 60, 'hana sharabash')
+(5, 'dsd  ', 'tut', '5 csen ii 21', 36, 't25')
 (5, 'theory of computation', 'tut', '5 csen ii 16', 35, 'hadeel mostafa')
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(5, 'comm ne', 'tut', '5 dmet 23', 34, 'salma eljaki')
-(5, 'graphics', 'lab', '5 dmet 22', 59, 'salma mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'math', 'tut', '1engineering ix 38', 42, 'mohamed hafez')
-(6, 'math', 'tut', '1engineering ix 39', 41, 'walaa saad mahmoud')
-(6, 'math', 'tut', '1engineering ix 40', 40, 'hesham hussein')
-(6, 'math', 'tut', '1engineering ix 41', 39, 'abeer khalifa')
-(6, 'csen', 'tut', '1engineering ix 37', 38, 't18')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'math', 'tut', '1engineering v 19', 49, 'amgad amin')
-(6, 'math', 'tut', '1engineering v 20', 48, 'khaled alagha')
-(6, 'math', 'tut', '1engineering v 21', 47, 'lina helal')
-(6, 'csen', 'lab', '1engineering v 23', 63, 'yehia hatab')
-(6, 'physics', 'tut', '1engineering v 22', 46, 'mostafa elwaily')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'chemistry', 'tut', '1engineering vi 24', 45, 'islam eddiasty')
-(6, 'chemistry', 'tut', '1engineering vi 25', 44, 'yasmine mandour')
-(6, 'csen', 'lab', '1engineering vi 26', 62, 't13')
-(6, 'csen', 'tut', '1engineering vi 27', 43, 't14')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics', 'small_lec', '1engineering vii', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics', 'small_lec', '1engineering viii', 53, 't16')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics', 'tut', '1engineering x 43', 37, 't21')
-(6, 'engd', 'tut', '1engineering x 42', 36, 'alia badawy')
-(6, 'csen', 'tut', '1engineering x 44', 35, 'sahar soussa')
-(6, 'csen', 'tut', '1engineering x 45', 34, 'rana ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'dld', 'small_lec', '3 iet/met i', 52, 'haitham ahmed omran')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics', 'lab', '3 iet/met ii 11', 61, 'heba qenawy')
-(6, 'physics', 'lab', '3 iet/met ii 18', 60, 'raghda abdelaziz')
-(6, 'math', 'tut', '3 iet/met ii 12', 33, 'adel naeim')
-(6, 'csen', 'tut', '3 iet/met ii 13', 32, 'mina abdallah')
-(6, 'csen', 'tut', '3 iet/met ii 14', 31, 'carol doos')
-(6, 'elc', 'tut', '3 iet/met ii 17', 30, 'sara imam')
-(6, 'physics', 'tut', '3 iet/met ii 15', 29, 'noha hassan')
-(6, 'physics', 'tut', '3 iet/met ii 16', 28, 'bassant salah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics', 'small_lec', '3 iet/met iii', 51, 't24')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'math', 'small_lec', '5 csen i', 50, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'introduction to communication networks', 'small_lec', '5 csen ii', 55, 'amr elmougy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics', 'small_lec', '1engineering i', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics', 'small_lec', '1engineering ii', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'chemistry', 'tut', '1engineering ix 38', 45, 'liza botros')
-(7, 'chemistry', 'tut', '1engineering ix 40', 44, 'yasmine mandour')
-(7, 'csen', 'tut', '1engineering ix 41', 43, 'reem moursy')
-(7, 'csen', 'lab', '1engineering ix 37', 63, 'noha abdellatif')
+    <t xml:space="preserve">(5, 'comm net t', 'tut', '5 dmet 23', 34, 'salma eljaki')
+(5, 'graphics ', 'lab', '5 dmet 22', 59, 'salma mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'math ', 'tut', '1engineering ix 38', 42, 'mohamed hafez')
+(6, 'math ', 'tut', '1engineering ix 39', 41, 'walaa saad mahmoud')
+(6, 'math ', 'tut', '1engineering ix 40', 40, 'hesham hussein')
+(6, 'math ', 'tut', '1engineering ix 41', 39, 'abeer khalifa')
+(6, 'csen tut ', 'tut', '1engineering ix 37', 38, 't18')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'math ', 'tut', '1engineering v 19', 49, 'amgad amin')
+(6, 'math ', 'tut', '1engineering v 20', 48, 'khaled alagha')
+(6, 'math ', 'tut', '1engineering v 21', 47, 'lina helal')
+(6, 'csen ', 'lab', '1engineering v 23', 63, 'yehia hatab')
+(6, 'physics ', 'tut', '1engineering v 22', 46, 'mostafa elwaily')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'chemistry ', 'tut', '1engineering vi 24', 45, 'islam eddiasty')
+(6, 'chemistry ', 'tut', '1engineering vi 25', 44, 'yasmine mandour')
+(6, 'csen ', 'lab', '1engineering vi 26', 62, 't13')
+(6, 'csen tut ', 'tut', '1engineering vi 27', 43, 't14')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics ', 'small_lec', '1engineering vii', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics ', 'small_lec', '1engineering viii', 53, 't16')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics ', 'tut', '1engineering x 43', 37, 't21')
+(6, 'engd ', 'tut', '1engineering x 42', 36, 'alia badawy')
+(6, 'csen tut ', 'tut', '1engineering x 44', 35, 'sahar soussa')
+(6, 'csen tut ', 'tut', '1engineering x 45', 34, 'rana ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'dld ', 'small_lec', '3 iet/met i', 52, 'haitham ahmed omran')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics ', 'lab', '3 iet/met ii 11', 61, 'heba qenawy')
+(6, 'physics ', 'lab', '3 iet/met ii 18', 60, 'raghda abdelaziz')
+(6, 'math ', 'tut', '3 iet/met ii 12', 33, 'adel naeim')
+(6, 'csen t ', 'tut', '3 iet/met ii 13', 32, 'mina abdallah')
+(6, 'csen t ', 'tut', '3 iet/met ii 14', 31, 'carol doos')
+(6, 'elct t', 'tut', '3 iet/met ii 17', 30, 'sara imam')
+(6, 'physics ', 'tut', '3 iet/met ii 15', 29, 'noha hassan')
+(6, 'physics ', 'tut', '3 iet/met ii 16', 28, 'bassant salah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics ', 'small_lec', '3 iet/met iii', 51, 't24')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'math ', 'small_lec', '5 csen i', 50, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, ' introduction to communication networks  ', 'small_lec', '5 csen ii', 55, 'amr elmougy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics ', 'small_lec', '1engineering i', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics ', 'small_lec', '1engineering ii', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'chemistry ', 'tut', '1engineering ix 38', 45, 'liza botros')
+(7, 'chemistry ', 'tut', '1engineering ix 40', 44, 'yasmine mandour')
+(7, 'csen tut ', 'tut', '1engineering ix 41', 43, 'reem moursy')
+(7, 'csen ', 'lab', '1engineering ix 37', 63, 'noha abdellatif')
 (7, 'physics', 'tut', '1engineering ix 39', 42, 'rasha emara')
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(7, 'math', 'tut', '1engineering vii 31', 49, 'mostafa elwaily')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics', 'tut', '1engineering viii 33', 47, 't17')
-(7, 'engd', 'tut', '1engineering viii 34', 46, 'youmna elghandoor')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics', 'tut', '1engineering x 44', 41, 'mustafa mustafa hanafi')
-(7, 'chemistry', 'tut', '1engineering x 42', 40, 'youssef abou shady')
-(7, 'chemistry', 'tut', '1engineering x 43', 39, 'islam eddiasty')
-(7, 'csen', 'lab', '1engineering x 45', 62, 'rana ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics', 'small_lec', '3 iet/met i', 52, 'amr abou shousha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'math', 'tut', '3 iet/met ii 16', 38, 'hisham ibrahim')
-(7, 'math', 'tut', '3 iet/met ii 17', 37, 'abdallah mohamed')
-(7, 'cs', 'lab', '3 iet/met ii 13', 61, 'mina abdallah')
-(7, 'cs', 'lab', '3 iet/met ii 14', 60, 'carol doos')
-(7, 'csen', 'tut', '3 iet/met ii 15', 36, 'nourhan ramadan')
-(7, 'physics', 'tut', '3 iet/met ii 12', 35, 'bassant salah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'math iii', 'small_lec', '3 iet/met iii', 51, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'data bases', 'tut', '5 csen i 11', 34, 'ahmed ahmed')
+    <t xml:space="preserve">(7, 'math ', 'tut', '1engineering vii 31', 49, 'mostafa elwaily')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics ', 'tut', '1engineering viii 33', 47, 't17')
+(7, 'engd ', 'tut', '1engineering viii 34', 46, 'youmna elghandoor')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics ', 'tut', '1engineering x 44', 41, 'mustafa mustafa hanafi')
+(7, 'chemistry ', 'tut', '1engineering x 42', 40, 'youssef abou shady')
+(7, 'chemistry ', 'tut', '1engineering x 43', 39, 'islam eddiasty')
+(7, 'csen ', 'lab', '1engineering x 45', 62, 'rana ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics ', 'small_lec', '3 iet/met i', 52, 'amr abou shousha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'math ', 'tut', '3 iet/met ii 16', 38, 'hisham ibrahim')
+(7, 'math ', 'tut', '3 iet/met ii 17', 37, 'abdallah mohamed')
+(7, 'cs ', 'lab', '3 iet/met ii 13', 61, 'mina abdallah')
+(7, 'cs ', 'lab', '3 iet/met ii 14', 60, 'carol doos')
+(7, 'csen t ', 'tut', '3 iet/met ii 15', 36, 'nourhan ramadan')
+(7, 'physics ', 'tut', '3 iet/met ii 12', 35, 'bassant salah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'math iii ', 'small_lec', '3 iet/met iii', 51, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'data basest ', 'tut', '5 csen i 11', 34, 'ahmed ahmed')
 (7, 'theory of computation', 'tut', '5 csen i 12', 33, 'mark gergis')
-(7, 'data bases', 'lab', '5 csen i 14', 59, 'hana sharabash')
-(7, 'comm ne', 'tut', '5 csen i 13', 32, 'ahmed helmy')
-(7, 'medi', 'tut', '5 csen i 10', 31, 'ethar elhinamy')
+(7, 'data bases ', 'lab', '5 csen i 14', 59, 'hana sharabash')
+(7, 'comm net t', 'tut', '5 csen i 13', 32, 'ahmed helmy')
+(7, 'media ', 'tut', '5 csen i 10', 31, 'ethar elhinamy')
 (7, 'theory of computation', 'tut', '5 csen i 15', 30, 'youssef amin')
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(7, 'math', 'small_lec', '5 csen ii', 50, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'csen', 'small_lec', '1engineering i', 54, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'pro', 'tut', '1engineering ix 38', 49, 'paula tanaghy')
-(8, 'pro', 'tut', '1engineering ix 39', 48, 'andrew faried')
-(8, 'math', 'tut', '1engineering ix 37', 47, 't19')
-(8, 'csen', 'lab', '1engineering ix 41', 63, 'noha abdellatif')
-(8, 'csen', 'tut', '1engineering ix 40', 46, 'ali saudi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'chemistry', 'small_lec', '1engineering v', 53, 't10')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'physics', 'tut', '1engineering x 42', 45, 'mustafa mustafa hanafi')
-(8, 'csen', 'lab', '1engineering x 44', 62, 'sahar soussa')
-(8, 'engd', 'tut', '1engineering x 43', 44, 't22')
-(8, 'math', 'tut', '1engineering x 45', 43, 't23')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'physics', 'lab', '3 iet/met i 1', 61, 'maha hamdy')
-(8, 'physics', 'lab', '3 iet/met i 2', 60, 'raghda abdelaziz')
-(8, 'dld', 'tut', '3 iet/met i 4', 42, 'sara mobarak')
-(8, 'elc', 'lab', '3 iet/met i 5', 59, 'maha elfeshawy')
-(8, 'elc', 'lab', '3 iet/met i 10', 58, 'omar fahmy el kharbotly')
-(8, 'csen', 'tut', '3 iet/met i 3', 41, 'nada ramadan')
-(8, 'csen', 'tut', '3 iet/met i 9', 40, 'mina abdallah')
-(8, 'elc', 'tut', '3 iet/met i 8', 39, 'nouran arafat')
-(8, 'physics', 'tut', '3 iet/met i 6', 38, 'noha hassan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'physics', 'small_lec', '3 iet/met ii', 52, 'amr abou shousha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'digital system design', 'small_lec', '5 csen i', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'data bases', 'lab', '5 csen ii 17', 57, 'hana sharabash')
+    <t xml:space="preserve">(7, 'math ', 'small_lec', '5 csen ii', 50, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'csen ', 'small_lec', '1engineering i', 54, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'prot ', 'tut', '1engineering ix 38', 49, 'paula tanaghy')
+(8, 'prot ', 'tut', '1engineering ix 39', 48, 'andrew faried')
+(8, 'math ', 'tut', '1engineering ix 37', 47, 't19')
+(8, 'csen ', 'lab', '1engineering ix 41', 63, 'noha abdellatif')
+(8, 'csen tut ', 'tut', '1engineering ix 40', 46, 'ali saudi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'chemistry ', 'small_lec', '1engineering v', 53, 't10')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'physics ', 'tut', '1engineering x 42', 45, 'mustafa mustafa hanafi')
+(8, 'csen ', 'lab', '1engineering x 44', 62, 'sahar soussa')
+(8, 'engd ', 'tut', '1engineering x 43', 44, 't22')
+(8, 'math ', 'tut', '1engineering x 45', 43, 't23')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'physics ', 'lab', '3 iet/met i 1', 61, 'maha hamdy')
+(8, 'physics ', 'lab', '3 iet/met i 2', 60, 'raghda abdelaziz')
+(8, 'dld ', 'tut', '3 iet/met i 4', 42, 'sara mobarak')
+(8, 'elct ', 'lab', '3 iet/met i 5', 59, 'maha elfeshawy')
+(8, 'elct ', 'lab', '3 iet/met i 10', 58, 'omar fahmy el kharbotly')
+(8, 'csen t ', 'tut', '3 iet/met i 3', 41, 'nada ramadan')
+(8, 'csen t ', 'tut', '3 iet/met i 9', 40, 'mina abdallah')
+(8, 'elct ', 'tut', '3 iet/met i 8', 39, 'nouran arafat')
+(8, 'physics ', 'tut', '3 iet/met i 6', 38, 'noha hassan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'physics ', 'small_lec', '3 iet/met ii', 52, 'amr abou shousha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'digital system design ', 'small_lec', '5 csen i', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'data bases ', 'lab', '5 csen ii 17', 57, 'hana sharabash')
 (8, 'theory of computation', 'tut', '5 csen ii 20', 37, 'youssef amin')
-(8, 'comm ne', 'tut', '5 csen ii 18', 36, 'ahmed helmy')
+(8, 'comm net t', 'tut', '5 csen ii 18', 36, 'ahmed helmy')
 (8, 'theory of computation', 'tut', '5 csen ii 19', 35, 'mark gergis')
-(8, 'comm ne', 'tut', '5 csen ii 16', 34, 't26')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'medi', 'tut', '5 dmet 23', 33, 'menrit moawad')
-(8, 'dsd', 'tut', '5 dmet 22', 32, 'hadeel mostafa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(9, 'csen', 'small_lec', '1engineering ix', 54, 't20')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(9, 'pro', 'tut', '1engineering v 19', 49, 'paula tanaghy')
-(9, 'pro', 'tut', '1engineering v 21', 48, 'andrew faried')
-(9, 'math', 'tut', '1engineering v 22', 47, 'abeer khalifa')
-(9, 'math', 'tut', '1engineering v 23', 46, 'hesham hussein')
-(9, 'chemistry', 'tut', '1engineering v 20', 45, 'yasmine mandour')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(9, 'engd', 'tut', '1engineering vi 24', 44, 'hebatullah mohamed')
-(9, 'engd', 'tut', '1engineering vi 25', 43, 'heba moussa')
-(9, 'physics', 'tut', '1engineering vi 26', 42, 'mohamed zamzam')
-(9, 'csen', 'lab', '1engineering vi 27', 63, 'yehia hatab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(9, 'math', 'tut', '3 iet/met i 8', 41, 'mohamed awad')
-(9, 'math', 'tut', '3 iet/met i 9', 40, 'ahmed tawfik')
-(9, 'elc', 'lab', '3 iet/met i 6', 62, 'maha elfeshawy')
-(9, 'csen', 'tut', '3 iet/met i 4', 39, 'mohamed agamia')
-(9, 'csen', 'tut', '3 iet/met i 5', 38, 'mina abdallah')
-(9, 'csen', 'tut', '3 iet/met i 10', 37, 'nourhan ramadan')
-(9, 'physics', 'tut', '3 iet/met i 3', 36, 'noha hassan')
-(9, 'physics', 'tut', '3 iet/met i 7', 35, 'bassant salah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'math', 'tut', '1engineering i 3', 49, 'khaled alagha')
-(10, 'math', 'tut', '1engineering i 4', 48, 'hesham hussein')
-(10, 'math', 'tut', '1engineering i 5', 47, 'amgad amin')
-(10, 'csen', 'tut', '1engineering i 2', 46, 'rana ahmed')
-(10, 'physics', 'tut', '1engineering i 1', 45, 'rasha emara')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'physics', 'tut', '1engineering ii 6', 44, 'mostafa elwaily')
-(10, 'csen', 'tut', '1engineering ii 7', 43, 'ali saudi')
-(10, 'csen', 'tut', '1engineering ii 8', 42, 'sahar soussa')
-(10, 'csen', 'tut', '1engineering ii 9', 41, 'reem moursy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'math iii', 'small_lec', '3 iet/met ii', 54, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'physics', 'lab', '3 iet/met iii 21', 63, 'raghda abdelaziz')
-(10, 'physics', 'lab', '3 iet/met iii 22', 62, 'heba qenawy')
-(10, 'elc', 'tut', '3 iet/met iii 19', 40, 'sara imam')
-(10, 'elc', 'tut', '3 iet/met iii 20', 39, 'nouran arafat')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'databases', 'small_lec', '5 csen i', 53, 'nada hamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'theory of computation', 'small_lec', '5 csen ii', 52, 'haythem ismail')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'data bases', 'tut', '5 dmet 23', 38, 'gina younes')
-(10, 'math', 'tut', '5 dmet 22', 37, 'naglaa ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'pro', 'tut', '1engineering i 1', 49, 'andrew faried')
-(11, 'pro', 'tut', '1engineering i 2', 48, 'paula tanaghy')
-(11, 'physics', 'tut', '1engineering i 3', 47, 'rasha emara')
-(11, 'csen', 'tut', '1engineering i 4', 46, 'rana ahmed')
-(11, 'chemistry', 'tut', '1engineering i 5', 45, 'islam eddiasty')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math', 'tut', '1engineering ii 6', 44, 'khaled alagha')
-(11, 'math', 'tut', '1engineering ii 7', 43, 'hesham hussein')
-(11, 'csen', 'lab', '1engineering ii 8', 63, 'ali saudi')
-(11, 'csen', 'lab', '1engineering ii 9', 62, 'sahar soussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math', 'tut', '1engineering iii 10', 42, 'abeer khalifa')
-(11, 'math', 'tut', '1engineering iii 11', 41, 'amgad amin')
-(11, 'math', 'tut', '1engineering iii 12', 40, 'karim elghazawy')
-(11, 'chemistry', 'tut', '1engineering iii 14', 39, 'sherif aref')
-(11, 'physics', 'tut', '1engineering iii 13', 38, 'mustafa mustafa hanafi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'chemistry', 'tut', '1engineering iv 17', 37, 'yasmine mandour')
-(11, 'chemistry', 'tut', '1engineering iv ', 36, 'mostafa elwaily')
-(11, 'csen', 'tut', '1engineering iv 15', 35, 'reem moursy')
-(11, 'engd', 'tut', '1engineering iv 16', 34, 'hebatullah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math iii', 'small_lec', '3 iet/met i', 54, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math', 'tut', '3 iet/met iii 19', 33, 'ahmed tawfik')
-(11, 'math', 'tut', '3 iet/met iii 20', 32, 'mohamed hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math', 'tut', '5 csen i 10', 31, 'fatma mahmoud')
-(11, 'math', 'tut', '5 csen i 12', 30, 'naglaa ahmed')
-(11, 'medi', 'tut', '5 csen i 11', 29, 'ethar elhinamy')
-(11, 'dsd', 'tut', '5 csen i 15', 28, 'hadeel mostafa')
-(11, 'data bases', 'lab', '5 csen i 13', 61, 'hana sharabash')
-(11, 'comm ne', 'tut', '5 csen i 14', 27, 't27')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'databases', 'small_lec', '5 csen ii', 53, 'nada hamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'pro', 'tut', '1engineering i 3', 49, 'andrew faried')
-(12, 'math', 'tut', '1engineering i 1', 48, 'walaa saad mahmoud')
-(12, 'math', 'tut', '1engineering i 2', 47, 'nourhan ali')
-(12, 'csen', 'tut', '1engineering i 5', 46, 'sahar soussa')
-(12, 'chemistry', 'tut', '1engineering i 4', 45, 'islam eddiasty')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'csen', 'tut', '1engineering ii 6', 44, 'rana ahmed')
-(12, 'physics', 'tut', '1engineering ii 7', 43, 'mostafa elwaily')
-(12, 'math', 'tut', '1engineering ii 8', 42, 'amgad amin')
-(12, 'math', 'tut', '1engineering ii 9', 41, 'abeer khalifa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'math', 'small_lec', '1engineering iii', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'physics', 'lab', '3 iet/met i 3', 63, 'maha hamdy')
-(12, 'physics', 'lab', '3 iet/met i 4', 62, 'bassant salah')
-(12, 'physics', 'tut', '3 iet/met i 2', 40, 'heba qenawy')
-(12, 'elc', 'tut', '3 iet/met i 1', 39, 'noha shouman')
-(12, 'elc', 'tut', '3 iet/met i 6', 38, 'ghadir dogim')
-(12, 'elc', 'tut', '3 iet/met i 7', 37, 'monica sary')
-(12, 'dld', 'tut', '3 iet/met i 10', 36, 'mennatallah hassabelnaby')
-(12, 'csen', 'tut', '3 iet/met i 8', 35, 'mohamed ashry')
-(12, 'cs', 'lab', '3 iet/met i 5', 61, 'mohamed agamia')
-(12, 'cs', 'lab', '3 iet/met i 9', 60, 'mina abdallah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'elc', 'small_lec', '3 iet/met iii', 53, 'yasser hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'theory of computation', 'small_lec', '5 csen i', 52, 'haythem ismail')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'comm ne', 'tut', '5 csen ii 20', 34, 't29')
-(12, 'data bases', 'tut', '5 csen ii 16', 33, 'merna shafie')
-(12, 'data bases', 'tut', '5 csen ii 21', 32, 'gina younes')
-(12, 'math', 'tut', '5 csen ii 17', 31, 'naglaa ahmed')
-(12, 'math', 'tut', '5 csen ii 19', 30, 'fatma mahmoud')
-(12, 'data bases', 'lab', '5 csen ii 18', 59, 'hana sharabash')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'dsd', 'tut', '5 dmet 23', 29, 'hadeel mostafa')
-(12, 'medi', 'tut', '5 dmet 22', 28, 'ethar elhinamy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'math', 'small_lec', '1engineering i', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'math', 'tut', '1engineering iii 13', 49, 'abeer khalifa')
-(13, 'math', 'tut', '1engineering iii 14', 48, 'nourhan ali')
-(13, 'csen', 'lab', '1engineering iii 11', 63, 'ali saudi')
-(13, 'csen', 'lab', '1engineering iii 12', 62, 'sahar soussa')
-(13, 'physics', 'tut', '1engineering iii 10', 47, 'rasha emara')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'math', 'tut', '1engineering iv 18', 46, 'hesham hussein')
-(13, 'csen', 'lab', '1engineering iv 15', 61, 'nardeen khela')
-(13, 'chemistry', 'tut', '1engineering iv 16', 45, 'yasmine mandour')
-(13, 'chemistry', 'tut', '1engineering iv ', 44, 'heba moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'dld', 'tut', '3 iet/met i 7', 43, 'sara mobarak')
-(13, 'dld', 'tut', '3 iet/met i 8', 42, 'hadeer abdelkader')
-(13, 'math', 'tut', '3 iet/met i 1', 41, 'hisham ibrahim')
-(13, 'math', 'tut', '3 iet/met i 2', 40, 'shady nagy')
-(13, 'math', 'tut', '3 iet/met i 6', 39, 'ahmed tawfik')
-(13, 'math', 'tut', '3 iet/met i 10', 38, 'abdallah mohamed')
-(13, 'elc', 'tut', '3 iet/met i 5', 37, 'noha shouman')
-(13, 'elc', 'tut', '3 iet/met i 9', 36, 'monica sary')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'dld', 'tut', '3 iet/met ii 13', 35, 'mennatallah hassabelnaby')
-(13, 'dld', 'tut', '3 iet/met ii 16', 34, 'fadwa foda')
-(13, 'elc', 'lab', '3 iet/met ii 11', 60, 'yasmin hanafy')
-(13, 'elc', 'lab', '3 iet/met ii 12', 59, 'mohamed ibrahim')
-(13, 'math', 'tut', '3 iet/met ii 18', 33, 'mohamed hussein')
-(13, 'physics', 'tut', '3 iet/met ii 17 ', 32, 'heba qenawy')
-(13, 'physics', 'tut', '3 iet/met ii 14', 31, 'anke klingner')
-(13, 'csen', 'lab', '3 iet/met ii 15', 58, 'nourhan ramadan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'csen', 'small_lec', '3 iet/met iii', 53, 'wael abulsadat')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'comm ne', 'tut', '5 csen i 10', 30, 't28')
+(8, 'comm net t', 'tut', '5 csen ii 16', 34, 't26')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'media ', 'tut', '5 dmet 23', 33, 'menrit moawad')
+(8, 'dsd  ', 'tut', '5 dmet 22', 32, 'hadeel mostafa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9, 'csen ', 'small_lec', '1engineering ix', 54, 't20')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9, 'prot ', 'tut', '1engineering v 19', 49, 'paula tanaghy')
+(9, 'prot ', 'tut', '1engineering v 21', 48, 'andrew faried')
+(9, 'math ', 'tut', '1engineering v 22', 47, 'abeer khalifa')
+(9, 'math ', 'tut', '1engineering v 23', 46, 'hesham hussein')
+(9, 'chemistry ', 'tut', '1engineering v 20', 45, 'yasmine mandour')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9, 'engd ', 'tut', '1engineering vi 24', 44, 'hebatullah mohamed')
+(9, 'engd ', 'tut', '1engineering vi 25', 43, 'heba moussa')
+(9, 'physics ', 'tut', '1engineering vi 26', 42, 'mohamed zamzam')
+(9, 'csen ', 'lab', '1engineering vi 27', 63, 'yehia hatab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9, 'math ', 'tut', '3 iet/met i 8', 41, 'mohamed awad')
+(9, 'math ', 'tut', '3 iet/met i 9', 40, 'ahmed tawfik')
+(9, 'elct ', 'lab', '3 iet/met i 6', 62, 'maha elfeshawy')
+(9, 'csen t ', 'tut', '3 iet/met i 4', 39, 'mohamed agamia')
+(9, 'csen t ', 'tut', '3 iet/met i 5', 38, 'mina abdallah')
+(9, 'csen t ', 'tut', '3 iet/met i 10', 37, 'nourhan ramadan')
+(9, 'physics ', 'tut', '3 iet/met i 3', 36, 'noha hassan')
+(9, 'physics ', 'tut', '3 iet/met i 7', 35, 'bassant salah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'math ', 'tut', '1engineering i 3', 49, 'khaled alagha')
+(10, 'math ', 'tut', '1engineering i 4', 48, 'hesham hussein')
+(10, 'math ', 'tut', '1engineering i 5', 47, 'amgad amin')
+(10, 'csen tut ', 'tut', '1engineering i 2', 46, 'rana ahmed')
+(10, 'physics ', 'tut', '1engineering i 1', 45, 'rasha emara')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'physics ', 'tut', '1engineering ii 6', 44, 'mostafa elwaily')
+(10, 'csen tut ', 'tut', '1engineering ii 7', 43, 'ali saudi')
+(10, 'csen tut ', 'tut', '1engineering ii 8', 42, 'sahar soussa')
+(10, 'csen tut ', 'tut', '1engineering ii 9', 41, 'reem moursy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'math iii ', 'small_lec', '3 iet/met ii', 54, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'physics ', 'lab', '3 iet/met iii 21', 63, 'raghda abdelaziz')
+(10, 'physics ', 'lab', '3 iet/met iii 22', 62, 'heba qenawy')
+(10, 'elct t ', 'tut', '3 iet/met iii 19', 40, 'sara imam')
+(10, 'elct t ', 'tut', '3 iet/met iii 20', 39, 'nouran arafat')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'databases   ', 'small_lec', '5 csen i', 53, 'nada hamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'theory of computation ', 'small_lec', '5 csen ii', 52, 'haythem ismail')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'data basest ', 'tut', '5 dmet 23', 38, 'gina younes')
+(10, 'math ', 'tut', '5 dmet 22', 37, 'naglaa ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'prot ', 'tut', '1engineering i 1', 49, 'andrew faried')
+(11, 'prot ', 'tut', '1engineering i 2', 48, 'paula tanaghy')
+(11, 'physics ', 'tut', '1engineering i 3', 47, 'rasha emara')
+(11, 'csen tut ', 'tut', '1engineering i 4', 46, 'rana ahmed')
+(11, 'chemistry ', 'tut', '1engineering i 5', 45, 'islam eddiasty')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math ', 'tut', '1engineering ii 6', 44, 'khaled alagha')
+(11, 'math ', 'tut', '1engineering ii 7', 43, 'hesham hussein')
+(11, 'csen ', 'lab', '1engineering ii 8', 63, 'ali saudi')
+(11, 'csen ', 'lab', '1engineering ii 9', 62, 'sahar soussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math ', 'tut', '1engineering iii 10', 42, 'abeer khalifa')
+(11, 'math ', 'tut', '1engineering iii 11', 41, 'amgad amin')
+(11, 'math ', 'tut', '1engineering iii 12', 40, 'karim elghazawy')
+(11, 'chemistry ', 'tut', '1engineering iii 14', 39, 'sherif aref')
+(11, 'physics ', 'tut', '1engineering iii 13', 38, 'mustafa mustafa hanafi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'chemistry ', 'tut', '1engineering iv 17', 37, 'yasmine mandour')
+(11, 'chemistry ', 'tut', '1engineering iv ', 36, 'mostafa elwaily')
+(11, 'csen tut ', 'tut', '1engineering iv 15', 35, 'reem moursy')
+(11, 'engd ', 'tut', '1engineering iv 16', 34, 'hebatullah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math iii ', 'small_lec', '3 iet/met i', 54, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math ', 'tut', '3 iet/met iii 19', 33, 'ahmed tawfik')
+(11, 'math ', 'tut', '3 iet/met iii 20', 32, 'mohamed hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math ', 'tut', '5 csen i 10', 31, 'fatma mahmoud')
+(11, 'math ', 'tut', '5 csen i 12', 30, 'naglaa ahmed')
+(11, 'media ', 'tut', '5 csen i 11', 29, 'ethar elhinamy')
+(11, 'dsd ', 'tut', '5 csen i 15', 28, 'hadeel mostafa')
+(11, 'data bases ', 'lab', '5 csen i 13', 61, 'hana sharabash')
+(11, 'comm net t', 'tut', '5 csen i 14', 27, 't27')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'databases ', 'small_lec', '5 csen ii', 53, 'nada hamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'prot ', 'tut', '1engineering i 3', 49, 'andrew faried')
+(12, 'math ', 'tut', '1engineering i 1', 48, 'walaa saad mahmoud')
+(12, 'math ', 'tut', '1engineering i 2', 47, 'nourhan ali')
+(12, 'csen tut ', 'tut', '1engineering i 5', 46, 'sahar soussa')
+(12, 'chemistry ', 'tut', '1engineering i 4', 45, 'islam eddiasty')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'csen tut ', 'tut', '1engineering ii 6', 44, 'rana ahmed')
+(12, 'physics ', 'tut', '1engineering ii 7', 43, 'mostafa elwaily')
+(12, 'math ', 'tut', '1engineering ii 8', 42, 'amgad amin')
+(12, 'math ', 'tut', '1engineering ii 9', 41, 'abeer khalifa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'math ', 'small_lec', '1engineering iii', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'physics ', 'lab', '3 iet/met i 3', 63, 'maha hamdy')
+(12, 'physics ', 'lab', '3 iet/met i 4', 62, 'bassant salah')
+(12, 'physics ', 'tut', '3 iet/met i 2', 40, 'heba qenawy')
+(12, 'elct t ', 'tut', '3 iet/met i 1', 39, 'noha shouman')
+(12, 'elct t ', 'tut', '3 iet/met i 6', 38, 'ghadir dogim')
+(12, 'elct t ', 'tut', '3 iet/met i 7', 37, 'monica sary')
+(12, 'dld ', 'tut', '3 iet/met i 10', 36, 'mennatallah hassabelnaby')
+(12, 'csen t', 'tut', '3 iet/met i 8', 35, 'mohamed ashry')
+(12, 'cs ', 'lab', '3 iet/met i 5', 61, 'mohamed agamia')
+(12, 'cs ', 'lab', '3 iet/met i 9', 60, 'mina abdallah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'elct ', 'small_lec', '3 iet/met iii', 53, 'yasser hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'theory of computation ', 'small_lec', '5 csen i', 52, 'haythem ismail')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'comm net t', 'tut', '5 csen ii 20', 34, 't29')
+(12, 'data basest ', 'tut', '5 csen ii 16', 33, 'merna shafie')
+(12, 'data basest ', 'tut', '5 csen ii 21', 32, 'gina younes')
+(12, 'math ', 'tut', '5 csen ii 17', 31, 'naglaa ahmed')
+(12, 'math ', 'tut', '5 csen ii 19', 30, 'fatma mahmoud')
+(12, 'data bases ', 'lab', '5 csen ii 18', 59, 'hana sharabash')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'dsd ', 'tut', '5 dmet 23', 29, 'hadeel mostafa')
+(12, 'media ', 'tut', '5 dmet 22', 28, 'ethar elhinamy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'math ', 'small_lec', '1engineering i', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'math ', 'tut', '1engineering iii 13', 49, 'abeer khalifa')
+(13, 'math ', 'tut', '1engineering iii 14', 48, 'nourhan ali')
+(13, 'csen ', 'lab', '1engineering iii 11', 63, 'ali saudi')
+(13, 'csen ', 'lab', '1engineering iii 12', 62, 'sahar soussa')
+(13, 'physics ', 'tut', '1engineering iii 10', 47, 'rasha emara')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'math ', 'tut', '1engineering iv 18', 46, 'hesham hussein')
+(13, 'csen ', 'lab', '1engineering iv 15', 61, 'nardeen khela')
+(13, 'chemistry ', 'tut', '1engineering iv 16', 45, 'yasmine mandour')
+(13, 'chemistry ', 'tut', '1engineering iv ', 44, 'heba moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'dld ', 'tut', '3 iet/met i 7', 43, 'sara mobarak')
+(13, 'dld ', 'tut', '3 iet/met i 8', 42, 'hadeer abdelkader')
+(13, 'math ', 'tut', '3 iet/met i 1', 41, 'hisham ibrahim')
+(13, 'math ', 'tut', '3 iet/met i 2', 40, 'shady nagy')
+(13, 'math ', 'tut', '3 iet/met i 6', 39, 'ahmed tawfik')
+(13, 'math ', 'tut', '3 iet/met i 10', 38, 'abdallah mohamed')
+(13, 'elct t ', 'tut', '3 iet/met i 5', 37, 'noha shouman')
+(13, 'elct t ', 'tut', '3 iet/met i 9', 36, 'monica sary')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'dld ', 'tut', '3 iet/met ii 13', 35, 'mennatallah hassabelnaby')
+(13, 'dld ', 'tut', '3 iet/met ii 16', 34, 'fadwa foda')
+(13, 'elct ', 'lab', '3 iet/met ii 11', 60, 'yasmin hanafy')
+(13, 'elct ', 'lab', '3 iet/met ii 12', 59, 'mohamed ibrahim')
+(13, 'math ', 'tut', '3 iet/met ii 18', 33, 'mohamed hussein')
+(13, 'physics ', 'tut', '3 iet/met ii 17 ', 32, 'heba qenawy')
+(13, 'physics ', 'tut', '3 iet/met ii 14', 31, 'anke klingner')
+(13, 'csen ', 'lab', '3 iet/met ii 15', 58, 'nourhan ramadan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'csen  ', 'small_lec', '3 iet/met iii', 53, 'wael abulsadat')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'comm net t', 'tut', '5 csen i 10', 30, 't28')
 (13, 'theory of computation', 'tut', '5 csen i 11', 29, 'mark gergis')
 (13, 'data bases', 'lab', '5 csen i 12', 57, 'hana sharabash')
-(13, 'math', 'tut', '5 csen i 13', 28, 'fatma mahmoud')
-(13, 'medi', 'tut', '5 csen i 14', 27, 'ethar elhinamy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'data bases', 'tut', '5 csen ii 20', 26, 'merna shafie')
-(13, 'dsd', 'tut', '5 csen ii 16', 25, 't30')
-(13, 'medi', 'tut', '5 csen ii 21', 24, 'menrit moawad')
-(13, 'math', 'tut', '5 csen ii 18', 23, 'naglaa ahmed')
-(13, 'data bases', 'tut', '5 csen ii 17', 22, 'ahmed ahmed')
+(13, 'math ', 'tut', '5 csen i 13', 28, 'fatma mahmoud')
+(13, 'media ', 'tut', '5 csen i 14', 27, 'ethar elhinamy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'data basest ', 'tut', '5 csen ii 20', 26, 'merna shafie')
+(13, 'dsd ', 'tut', '5 csen ii 16', 25, 't30')
+(13, 'media ', 'tut', '5 csen ii 21', 24, 'menrit moawad')
+(13, 'math ', 'tut', '5 csen ii 18', 23, 'naglaa ahmed')
+(13, 'data basest ', 'tut', '5 csen ii 17', 22, 'ahmed ahmed')
 </t>
   </si>
   <si>
     <t xml:space="preserve">(13, 'data bases', 'lab', '5 dmet 23', 56, 'sama abel monem')
-(13, 'comm ne', 'tut', '5 dmet 22', 21, 't31')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'csen', 'tut', '1engineering i 1', 49, 'ali saudi')
-(15, 'csen', 'tut', '1engineering i 3', 48, 'reem moursy')
-(15, 'math', 'tut', '1engineering i 4', 47, 'khaled alagha')
-(15, 'math', 'tut', '1engineering i 5', 46, 'hesham hussein')
-(15, 'csen', 'lab', '1engineering i 2', 63, 'rana ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'engd', 'tut', '1engineering ii 6', 45, 'alia badawy')
-(15, 'physics', 'tut', '1engineering ii 9', 44, 'mostafa elwaily')
-(15, 'chemistry', 'tut', '1engineering ii 7', 43, 'liza botros')
-(15, 'chemistry', 'tut', '1engineering ii 8', 42, 'youssef abou shady')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'chemistry', 'small_lec', '1engineering iii', 54, 'eman abdelsayed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'physics', 'lab', '3 iet/met i 5', 62, 'raghda abdelaziz')
-(15, 'physics', 'lab', '3 iet/met i 6', 61, 'noha hassan')
-(15, 'cs', 'lab', '3 iet/met i 10', 60, 'nourhan ramadan')
-(15, 'elc', 'lab', '3 iet/met i 3', 59, 't32')
-(15, 'physics', 'tut', '3 iet/met i 1', 41, 'sarah abouelhasab')
-(15, 'elc', 'tut', '3 iet/met i 2', 40, 'ghadir dogim')
-(15, 'math', 'tut', '3 iet/met i 7', 39, 'alyaa hegazy')
-(15, 'math', 'tut', '3 iet/met i 8', 38, 'mohamed awad')
-(15, 'math', 'tut', '3 iet/met i 9', 37, 'ahmed tawfik')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'math iii', 'small_lec', '3 iet/met ii', 53, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'dld', 'tut', '3 iet/met iii 20', 36, 'yasmin massoud')
-(15, 'physics', 'tut', '3 iet/met iii 19', 35, 'maha hamdy')
-(15, 'physics', 'tut', '3 iet/met iii 22', 34, 'anke klingner')
-(15, 'cs', 'lab', '3 iet/met iii 21', 57, 'nada ramadan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'microprocessors', 'small_lec', '7 csen i', 52, 'ahmed moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'analysis &amp; design of algorithms', 'small_lec', '7 csen ii', 51, 'wael abulsadat')
+(13, 'comm net t', 'tut', '5 dmet 22', 21, 't31')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'csen tut ', 'tut', '1engineering i 1', 49, 'ali saudi')
+(15, 'csen tut ', 'tut', '1engineering i 3', 48, 'reem moursy')
+(15, 'math ', 'tut', '1engineering i 4', 47, 'khaled alagha')
+(15, 'math ', 'tut', '1engineering i 5', 46, 'hesham hussein')
+(15, 'csen ', 'lab', '1engineering i 2', 63, 'rana ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'engd ', 'tut', '1engineering ii 6', 45, 'alia badawy')
+(15, 'physics ', 'tut', '1engineering ii 9', 44, 'mostafa elwaily')
+(15, 'chemistry ', 'tut', '1engineering ii 7', 43, 'liza botros')
+(15, 'chemistry ', 'tut', '1engineering ii 8', 42, 'youssef abou shady')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'chemistry ', 'small_lec', '1engineering iii', 54, 'eman abdelsayed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'physics ', 'lab', '3 iet/met i 5', 62, 'raghda abdelaziz')
+(15, 'physics ', 'lab', '3 iet/met i 6', 61, 'noha hassan')
+(15, 'cs ', 'lab', '3 iet/met i 10', 60, 'nourhan ramadan')
+(15, 'elct ', 'lab', '3 iet/met i 3', 59, 't32')
+(15, 'physics ', 'tut', '3 iet/met i 1', 41, 'sarah abouelhasab')
+(15, 'elct ', 'tut', '3 iet/met i 2', 40, 'ghadir dogim')
+(15, 'math ', 'tut', '3 iet/met i 7', 39, 'alyaa hegazy')
+(15, 'math ', 'tut', '3 iet/met i 8', 38, 'mohamed awad')
+(15, 'math ', 'tut', '3 iet/met i 9', 37, 'ahmed tawfik')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'math iii ', 'small_lec', '3 iet/met ii', 53, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'dld ', 'tut', '3 iet/met iii 20', 36, 'yasmin massoud')
+(15, 'physics ', 'tut', '3 iet/met iii 19', 35, 'maha hamdy')
+(15, 'physics ', 'tut', '3 iet/met iii 22', 34, 'anke klingner')
+(15, 'cs ', 'lab', '3 iet/met iii 21', 57, 'nada ramadan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, ' microprocessors ', 'small_lec', '7 csen i', 52, 'ahmed moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'analysis &amp; design of algorithms ', 'small_lec', '7 csen ii', 51, 'wael abulsadat')
 </t>
   </si>
   <si>
     <t xml:space="preserve">(15, 'video &amp; audio', 'tut', '7 dmet 19', 33, 'hadwa pasha')
-(15, 'advanced medi', 'lab', '7 dmet 20', 56, 'hesham elhattab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'pro', 'tut', '1engineering i 4', 49, 'islam hegazy')
-(16, 'csen', 'lab', '1engineering i 1', 63, 'ali saudi')
-(16, 'csen', 'lab', '1engineering i 3', 62, 'rana ahmed')
-(16, 'chemistry', 'tut', '1engineering i 2', 48, 'mariam azab')
-(16, 'physics', 'tut', '1engineering i 5', 47, 'mohamed zamzam')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'engd', 'tut', '1engineering ii 7', 46, 'heba moussa')
-(16, 'math', 'tut', '1engineering ii 8', 45, 'abeer khalifa')
-(16, 'math', 'tut', '1engineering ii 9', 44, 'amgad amin')
-(16, 'chemistry', 'tut', '1engineering ii 6', 43, 'youssef abou shady')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'physics', 'small_lec', '1engineering iii', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'dld', 'tut', '3 iet/met i 1', 42, 't33')
-(16, 'elc', 'lab', '3 iet/met i 9', 61, 't34')
-(16, 'physics', 'tut', '3 iet/met i 8', 40, 'sarah abouelhasab')
-(16, 'csen', 'tut', '3 iet/met i 7', 39, 'carol doos')
-(16, 'math', 'tut', '3 iet/met i 3', 38, 'hisham ibrahim')
-(16, 'math', 'tut', '3 iet/met i 4', 37, 'abdallah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'physics', 'small_lec', '3 iet/met ii', 53, 'amr abou shousha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'math', 'tut', '3 iet/met iii 19', 36, 'ahmed tawfik')
-(16, 'math', 'tut', '3 iet/met iii 20', 35, 'mohamed hussein')
-(16, 'elc', 'tut', '3 iet/met iii 21', 34, 'nouran arafat')
-(16, 'elc', 'tut', '3 iet/met iii 22', 33, 'ghadir dogim')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'advanced computer', 'lab', '7 csen i 10', 60, 'reham hassan')
-(16, 'graphics', 'tut', '7 csen i 9', 32, 'omnia elsayed')
-(16, 'microprocessors', 'tut', '7 csen i 11', 31, 'ahmed fahmy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'advanced computer', 'lab', '7 csen ii 17', 59, 'youssef amin')
-(16, 'emb. sys', 'tut', '7 csen ii 15', 30, 'loaa elzahar')
-(16, 'emb. sys', 'tut', '7 csen ii 14', 29, 'walid elhefny')
-(16, 'algorithms', 'tut', '7 csen ii 18', 28, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'chemistry', 'tut', '1engineering i 1', 49, 'mariam azab')
-(17, 'chemistry', 'tut', '1engineering i 3', 48, 'sherif aref')
-(17, 'csen', 'lab', '1engineering i 4', 63, 'rana ahmed')
-(17, 'csen', 'lab', '1engineering i 5', 62, 'reem moursy')
-(17, 'physics', 'tut', '1engineering i 2', 47, 'mohamed zamzam')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'physics', 'tut', '1engineering ii 8', 46, 'rasha emara')
-(17, 'chemistry', 'tut', '1engineering ii 9', 45, 'liza botros')
-(17, 'math', 'tut', '1engineering ii 6', 44, 'abeer khalifa')
-(17, 'math', 'tut', '1engineering ii 7', 43, 'khaled alagha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'csen', 'tut', '1engineering iii 14', 42, 'nardeen khela')
-(17, 'physics', 'tut', '1engineering iii 11', 41, 'mostafa elwaily')
-(17, 'math', 'tut', '1engineering iii 12', 40, 'nourhan ali')
-(17, 'math', 'tut', '1engineering iii 13', 39, 'hesham hussein')
-(17, 'chemistry', 'tut', '1engineering iii 10', 38, 'youssef abou shady')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'physics', 'tut', '1engineering iv 15', 37, 'mustafa mustafa hanafi')
-(17, 'physics', 'tut', '1engineering iv 16', 36, 'abdulnaby hussein')
-(17, 'csen', 'tut', '1engineering iv 17', 35, 'ali saudi')
-(17, 'csen', 'tut', '1engineering iv 18', 34, 'noha abdellatif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'math iii', 'small_lec', '3 iet/met i', 54, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'physics', 'lab', '3 iet/met ii 12', 61, 'heba qenawy')
-(17, 'physics', 'lab', '3 iet/met ii 13', 60, 'bassant salah')
-(17, 'dld', 'tut', '3 iet/met ii 14', 33, 't35')
-(17, 'csen', 'tut', '3 iet/met ii 16', 32, 'nada ramadan')
-(17, 'csen', 'tut', '3 iet/met ii 17', 31, 'mina abdallah')
-(17, 'csen', 'tut', '3 iet/met ii 18', 30, 'nourhan ramadan')
-(17, 'math', 'tut', '3 iet/met ii 15', 29, 'abdallah mohamed')
-(17, 'physics', 'tut', '3 iet/met ii 11', 28, 'sarah abouelhasab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'elc', 'lab', '3 iet/met iii 20', 59, 'fadwa foda')
-(17, 'math', 'tut', '3 iet/met iii 21', 27, 'mohamed awad')
-(17, 'math', 'tut', '3 iet/met iii 22', 26, 'mohamed hussein')
-(17, 'dld', 'tut', '3 iet/met iii 19', 25, 'hadeer abdelkader')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'emb. sys', 'tut', '7 csen i 13', 24, 'loaa elzahar')
-(17, 'emb. sys', 'tut', '7 csen i 12', 23, 'walid elhefny')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'graphics', 'lab', '7 csen ii 16', 58, 'omar fathy')
-(17, 'graphics', 'tut', '7 csen ii 18', 22, 'omnia elsayed')
-(17, 'microprocessors', 'tut', '7 csen ii 14', 21, 'ahmed fahmy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'multimedia &amp; networking', 'small_lec', '7 dmet', 53, 'hisham othman')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'physics', 'small_lec', '1engineering i', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'pro', 'tut', '1engineering iii 11', 49, 'andrew faried')
-(18, 'pro', 'tut', '1engineering iii 14', 48, 'islam hegazy')
-(18, 'csen', 'tut', '1engineering iii 10', 47, 'hadwa pasha')
-(18, 'csen', 'tut', '1engineering iii 13', 46, 'rana ahmed')
-(18, 'physics', 'tut', '1engineering iii 12', 45, 'mustafa mustafa hanafi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'math', 'tut', '1engineering iv 15', 44, 'mohamed hafez')
-(18, 'math', 'tut', '1engineering iv 16', 43, 'lina helal')
-(18, 'math', 'tut', '1engineering iv 17', 42, 'nourhan ali')
-(18, 'math', 'tut', '1engineering iv 18', 41, 'hesham hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'physics', 'small_lec', '3 iet/met i', 53, 'amr abou shousha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'dld', 'tut', '3 iet/met ii 15', 40, 'mennatallah hassabelnaby')
-(18, 'dld', 'tut', '3 iet/met ii 18', 39, 'yasmin massoud')
-(18, 'elc', 'lab', '3 iet/met ii 14', 63, 'mahmoud zaher')
-(18, 'elc', 'lab', '3 iet/met ii 17', 62, 'fadwa foda')
-(18, 'cs', 'lab', '3 iet/met ii 16', 61, 'nourhan ramadan')
-(18, 'math', 'tut', '3 iet/met ii 11', 38, 'hisham ibrahim')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'dld', 'small_lec', '3 iet/met iii', 52, 't36')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'graphics', 'lab', '7 csen i 8', 60, 'salma mohamed')
-(18, 'microprocessors', 'tut', '7 csen i 13', 37, 'ahmed fahmy')
-(18, 'emb. sys', 'tut', '7 csen i 11', 36, 'loaa elzahar')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'microprocessors', 'small_lec', '7 csen ii', 51, 'ahmed moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'visualization', 'tut', '7 dmet 19', 35, 'omar fathy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(19, 'pro', 'tut', '1engineering iii 10', 49, 'andrew faried')
-(19, 'pro', 'tut', '1engineering iii 12', 48, 'islam hegazy')
-(19, 'csen', 'lab', '1engineering iii 13', 63, 'hadwa pasha')
-(19, 'csen', 'lab', '1engineering iii 14', 62, 'nardeen khela')
-(19, 'math', 'tut', '1engineering iii 11', 47, 'amgad amin')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(19, 'engd', 'tut', '1engineering iv 15', 46, 'rana elazhary')
-(19, 'chemistry', 'tut', '1engineering iv 18', 45, 'sherif aref')
-(19, 'csen', 'tut', '1engineering iv 16', 44, 'noha abdellatif')
-(19, 'csen', 'tut', '1engineering iv ', 43, 'mohamed zamzam')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'math', 'small_lec', '1engineering iii', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'csen', 'lab', '1engineering ix 38', 62, 'mariam azab')
-(20, 'csen', 'lab', '1engineering ix 39', 61, 'youssef abou shady')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'physics', 'small_lec', '1engineering v', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'pro', 'tut', '1engineering vii 31', 49, 'andrew faried')
-(20, 'csen', 'tut', '1engineering vii 28', 48, 'rana ahmed')
-(20, 'csen', 'tut', '1engineering vii 29', 47, 'yehia hatab')
-(20, 'chemistry', 'tut', '1engineering vii 32', 46, 'islam eddiasty')
-(20, 'physics', 'tut', '1engineering vii 30', 45, 'abdulnaby hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'physics', 'tut', '1engineering viii 34', 44, 'rasha emara')
-(20, 'csen', 'lab', '1engineering viii 35', 63, 'yomna elghandoor')
-(20, 'math', 'tut', '1engineering viii 36', 43, 'nourhan ali')
-(20, 'math', 'tut', '1engineering viii ', 42, 'liza botros')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'math', 'tut', '1engineering x 42', 41, 'mohamed hafez')
-(20, 'math', 'tut', '1engineering x 43', 40, 'lina helal')
-(20, 'math', 'tut', '1engineering x 44', 39, 'karim ahmed')
-(20, 'math', 'tut', '1engineering x 45', 38, 'amgad amin')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'analysis &amp; design of algorithms', 'small_lec', '7 csen i', 52, 'wael abulsadat')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'embedded systems', 'small_lec', '7 csen ii', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'video &amp; audio technology', 'small_lec', '7 dmet', 50, 'mohammed salem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'csen', 'small_lec', '1engineering iii', 54, 'nada hamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'csen', 'lab', '1engineering v 19', 63, 'ali saudi')
-(21, 'csen', 'lab', '1engineering v 20', 62, 'fatema gabr')
-(21, 'csen', 'lab', '1engineering v 21', 61, 'noha abdellatif')
-(21, 'chemistry', 'tut', '1engineering v 23', 49, 'mariam azab')
-(21, 'math', 'tut', '1engineering v 22', 48, 'abeer khalifa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'csen', 'tut', '1engineering vi 24', 47, 'rana ahmed')
-(21, 'csen', 'tut', '1engineering vi 25', 46, 'yehia hatab')
-(21, 'chemistry', 'tut', '1engineering vi 26', 45, 'youssef abou shady')
-(21, 'math', 'tut', '1engineering vi 27', 44, 'hesham hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'math', 'small_lec', '1engineering vii', 53, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'physics', 'lab', '3 iet/met i 7', 60, 'raghda abdelaziz')
-(21, 'physics', 'lab', '3 iet/met i 8', 59, 'bassant salah')
-(21, 'dld', 'tut', '3 iet/met i 3', 43, 't37')
-(21, 'math', 'tut', '3 iet/met i 5', 41, 'ahmed tawfik')
-(21, 'math', 'tut', '3 iet/met i 10', 40, 'abdallah mohamed')
-(21, 'physics', 'tut', '3 iet/met i 9', 39, 'maha hamdy')
-(21, 'csen', 'tut', '3 iet/met i 1', 38, 'mohamed ashry')
-(21, 'csen', 'tut', '3 iet/met i 2', 37, 'sama elbaroudy')
-(21, 'cs', 'lab', '3 iet/met i 4', 58, 'mina abdallah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'dld', 'tut', '3 iet/met ii 11', 36, 't39')
-(21, 'elc', 'lab', '3 iet/met ii 15', 57, 'sarah azzam')
-(21, 'elc', 'lab', '3 iet/met ii 18', 56, 'mahmoud zaher')
-(21, 'math', 'tut', '3 iet/met ii 13', 35, 'adel naeim')
-(21, 'math', 'tut', '3 iet/met ii 14', 34, 'hisham ibrahim')
-(21, 'elc', 'tut', '3 iet/met ii 12', 33, 'noha shouman')
-(21, 'elc', 'tut', '3 iet/met ii 16', 32, 'monica sary')
-(21, 'cs', 'lab', '3 iet/met ii 17', 2, 'nada ramadan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'math iii', 'small_lec', '3 iet/met iii', 51, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'microprocessors', 'tut', '7 csen i 8', 31, 'ahmed fahmy')
-(21, 'algorithms', 'tut', '7 csen i 9', 30, 'belal abdel raheem')
-(21, 'graphics', 'tut', '7 csen i 10', 29, 'omnia elsayed')
-(21, 'graphics', 'tut', '7 csen i 12', 28, 'salma mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'emb. sys', 'tut', '7 csen ii 18', 27, 'walid elhefny')
-(21, 'graphics', 'lab', '7 csen ii 17', 0, 'mohammed kapiel')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'visualization &amp; animation', 'small_lec', '7 dmet', 55, 'rimon elias')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'physics', 'small_lec', '1engineering ix', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'chemistry', 'tut', '1engineering vii 31', 49, 'islam eddiasty')
-(22, 'csen', 'lab', '1engineering vii 28', 63, 'ali saudi')
-(22, 'csen', 'lab', '1engineering vii 29', 62, 'yehia hatab')
-(22, 'physics', 'tut', '1engineering vii 32', 48, 'mohamed zamzam')
-(22, 'pro', 'tut', '1engineering vii 30', 47, 'islam hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'math', 'tut', '1engineering viii 33', 46, 'mohamed hafez')
-(22, 'math', 'tut', '1engineering viii 34', 45, 'lina helal')
-(22, 'math', 'tut', '1engineering viii 35', 44, 'karim elghazawy')
-(22, 'csen', 'lab', '1engineering viii 36', 61, 'rana ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'dld', 'tut', '3 iet/met i 5', 43, 't38')
-(22, 'math', 'tut', '3 iet/met i 2', 41, 'hisham ibrahim')
-(22, 'math', 'tut', '3 iet/met i 6', 40, 'abdallah mohamed')
-(22, 'physics', 'tut', '3 iet/met i 4', 39, 'maha hamdy')
-(22, 'physics', 'tut', '3 iet/met i 10', 38, 'heba qenawy')
-(22, 'elc', 'tut', '3 iet/met i 3', 37, 'noha shouman')
-(22, 'cs', 'lab', '3 iet/met i 1', 60, 'sama elbaroudy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'csen', 'small_lec', '3 iet/met ii', 53, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'physics', 'small_lec', '3 iet/met iii', 52, 't40')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'embedded systems', 'small_lec', '7 csen i', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'emb. sys', 'tut', '7 csen ii 16', 36, 'loaa elzahar')
-(22, 'graphics', 'tut', '7 csen ii 15', 35, 'omnia elsayed')
-(22, 'algorithms', 'tut', '7 csen ii 14', 34, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'embedded systems', 'small_lec', '7 dmet', 50, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'pro', 'tut', '1engineering iii 13', 49, 'andrew faried')
-(23, 'csen', 'lab', '1engineering iii 10', 63, 'rana ahmed')
-(23, 'math', 'tut', '1engineering iii 14', 48, 'hesham hussein')
-(23, 'chemistry', 'tut', '1engineering iii 11', 47, 'yasmine mandour')
-(23, 'chemistry', 'tut', '1engineering iii 12', 46, 'mariam azab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'chemistry', 'tut', '1engineering iv 15', 45, 'youssef abou shady')
-(23, 'csen', 'lab', '1engineering iv 16', 62, 'ali saudi')
-(23, 'csen', 'lab', '1engineering iv 17', 61, 'hadwa pasha')
-(23, 'csen', 'lab', '1engineering iv 18', 60, 'noha abdellatif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'math', 'tut', '1engineering v 23', 44, 'abeer khalifa')
-(23, 'pro', 'tut', '1engineering v 22', 43, 'paula tanaghy')
-(23, 'physics', 'tut', '1engineering v 19', 42, 'rasha emara')
-(23, 'physics', 'tut', '1engineering v 20', 41, 'mohamed zamzam')
-(23, 'physics', 'tut', '1engineering v 21', 40, 'abdulnaby hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'math', 'tut', '1engineering vi 24', 39, 'mohamed hafez')
-(23, 'math', 'tut', '1engineering vi 25', 38, 'lina helal')
-(23, 'math', 'tut', '1engineering vi 26', 37, 'karim ahmed')
-(23, 'physics', 'tut', '1engineering vi 27', 36, 'mostafa elwaily')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'physics', 'small_lec', '1engineering vii', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'csen', 'small_lec', '3 iet/met i', 53, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'physics', 'lab', '3 iet/met ii 14', 59, 'raghda abdelaziz')
-(23, 'physics', 'lab', '3 iet/met ii 15', 58, 'heba qenawy')
-(23, 'math', 'tut', '3 iet/met ii 16', 35, 'hisham ibrahim')
-(23, 'math', 'tut', '3 iet/met ii 17', 34, 'mohamed hussein')
-(23, 'math', 'tut', '3 iet/met ii 18', 33, 'abdallah mohamed')
-(23, 'elc', 'tut', '3 iet/met ii 11', 32, 'sara imam')
-(23, 'elc', 'tut', '3 iet/met ii 13', 31, 'fadwa foda')
-(23, 'csen', 'tut', '3 iet/met ii 12', 30, 'mohamed ashry')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'elc', 'lab', '3 iet/met iii 19', 57, 'monica sary')
-(23, 'physics', 'tut', '3 iet/met iii 20', 29, 'noha hassan')
-(23, 'physics', 'tut', '3 iet/met iii 21', 28, 'anke klingner')
-(23, 'cs', 'lab', '3 iet/met iii 22', 56, 'sama elbaroudy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'advanced computer', 'lab', '7 csen i 11', 2, 'mark gergis')
-(23, 'algorithms', 'tut', '7 csen i 13', 27, 'belal abdel raheem')
-(23, 'emb. sys', 'tut', '7 csen i 9', 26, 'walid elhefny')
-(23, 'graphics', 'tut', '7 csen i 8', 25, 'omnia elsayed')
-(23, 'graphics', 'lab', '7 csen i 12', 1, 'salma mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'microprocessors', 'tut', '7 csen ii 16', 24, 'dina mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(24, 'dld', 'tut', '3 iet/met ii 12', 49, 'mennatallah hassabelnaby')
-(24, 'dld', 'tut', '3 iet/met ii 17', 48, 'yasmin massoud')
-(24, 'elc', 'lab', '3 iet/met ii 13', 63, 'maha elfeshawy')
-(24, 'elc', 'lab', '3 iet/met ii 16', 62, 'mahmoud zaher')
-(24, 'csen', 'tut', '3 iet/met ii 11', 47, 'khaled kassem')
-(24, 'cs', 'lab', '3 iet/met ii 18', 61, 'mina abdallah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(24, 'emb. sys', 'tut', '7 csen i 8', 46, 'loaa elzahar')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(24, 'algorithms', 'tut', '7 csen ii 15', 45, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'chemistry', 'small_lec', '1engineering i', 54, 'nermin ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'pro', 'tut', '1engineering ix 41', 40, 't41')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'math', 'small_lec', '1engineering v', 53, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'math', 'tut', '1engineering vii 28', 49, 'walaa saad mahmoud')
-(25, 'math', 'tut', '1engineering vii 29', 48, 'amgad amin')
-(25, 'math', 'tut', '1engineering vii 30', 47, 'khaled alagha')
-(25, 'pro', 'tut', '1engineering vii 32', 46, 'andrew faried')
-(25, 'physics', 'tut', '1engineering vii 31', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'csen', 'tut', '1engineering viii 33', 44, 'hadwa pasha')
-(25, 'csen', 'tut', '1engineering viii 34', 43, 'noha abdellatif')
-(25, 'chemistry', 'tut', '1engineering viii 36', 42, 'liza botros')
-(25, 'engd', 'tut', '1engineering viii 35', 41, 'rana elazhary')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'elc', 'small_lec', '3 iet/met ii', 52, 'yasser hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'comm ne', 'tut', '5 csen i 12', 39, 'ahmed helmy')
-(25, 'dsd', 'tut', '5 csen i 11', 38, 'hadeel mostafa')
-(25, 'data bases', 'tut', '5 csen i 14', 37, 'gina younes')
-(25, 'data bases', 'lab', '5 csen i 10', 63, 'merna mikhael')
-(25, 'data bases', 'lab', '5 csen i 15', 62, 'sama abdel monem')
-(25, 'medi', 'tut', '5 csen i 13', 36, 'ethar elhinamy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'introduction to media engineering', 'small_lec', '5 csen ii', 51, 'seif dawlatly')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'advanced computer', 'lab', '7 csen ii 18', 61, 'reham hassan')
-(25, 'advanced computer', 'lab', '7 csen ii 16', 60, 'gehad ismail')
-(25, 'graphics', 'lab', '7 csen ii 14', 59, 'omnia elsayed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'emb. sys', 'tut', '7 dmet 19', 35, 'walid elhefny')
-(25, 'visulazation', 'tut', '7 dmet 20', 34, 'omar fathy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'math', 'small_lec', '1engineering i', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'chemistry', 'small_lec', '1engineering ix', 53, 't42')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'math', 'tut', '1engineering vii 31', 49, 'abeer khalifa')
-(26, 'math', 'tut', '1engineering vii 32', 48, 'mohamed hafez')
-(26, 'chemistry', 'tut', '1engineering vii 28', 47, 'islam eddiasty')
-(26, 'chemistry', 'tut', '1engineering vii 30', 46, 'liza botros')
-(26, 'pro', 'tut', '1engineering vii 29', 45, 'islam hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'csen', 'lab', '1engineering viii 33', 63, 'hadwa pasha')
-(26, 'csen', 'lab', '1engineering viii 34', 62, 'noha abdellatif')
-(26, 'physics', 'tut', '1engineering viii 35', 44, 'mustafa mustafa hanafi')
-(26, 'physics', 'tut', '1engineering viii 36', 43, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'elc', 'small_lec', '3 iet/met i', 52, 'yasser hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'physics', 'lab', '3 iet/met ii 16', 61, 'maha hamdy')
-(26, 'physics', 'lab', '3 iet/met ii 17', 60, 'noha hassan')
-(26, 'math', 'tut', '3 iet/met ii 19', 42, 'hisham ibrahim')
-(26, 'physics', 'tut', '3 iet/met ii 13', 39, 'sarah abouelhasab')
-(26, 'csen', 'tut', '3 iet/met ii 20', 38, 't45')
-(26, 'elc', 'tut', '3 iet/met ii 14', 37, 'nouran arafat')
-(26, 'elc', 'tut', '3 iet/met ii 15', 36, 'noha shouman')
-(26, 'elc', 'tut', '3 iet/met ii 18', 35, 'monica sary')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'data bases', 'tut', '5 csen i 13', 34, 'gina younes')
-(26, 'data bases', 'tut', '5 csen i 15', 33, 'ahmed ahmed')
-(26, 'dsd', 'tut', '5 csen i 14', 32, 'hadeel mostafa')
-(26, 'medi', 'tut', '5 csen i 12', 31, 'ethar elhinamy')
-(26, 'theory of computation', 'tut', '5 csen i 10', 30, 'youssef amin')
-(26, 'comm ne', 'tut', '5 csen i 11', 29, 'ahmed helmy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'digital system design', 'small_lec', '5 csen ii', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'microprocessors', 'tut', '7 csen i 10', 28, 'ahmed fahmy')
-(26, 'algorithms', 'tut', '7 csen i 8', 27, 'belal abdel raheem')
-(26, 'graphics', 'tut', '7 csen i 11', 26, 'gehad ismail')
+(15, 'advanced media ', 'lab', '7 dmet 20', 56, 'hesham elhattab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'prot ', 'tut', '1engineering i 4', 49, 'islam hegazy')
+(16, 'csen ', 'lab', '1engineering i 1', 63, 'ali saudi')
+(16, 'csen ', 'lab', '1engineering i 3', 62, 'rana ahmed')
+(16, 'chemistry ', 'tut', '1engineering i 2', 48, 'mariam azab')
+(16, 'physics ', 'tut', '1engineering i 5', 47, 'mohamed zamzam')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'engd ', 'tut', '1engineering ii 7', 46, 'heba moussa')
+(16, 'math ', 'tut', '1engineering ii 8', 45, 'abeer khalifa')
+(16, 'math ', 'tut', '1engineering ii 9', 44, 'amgad amin')
+(16, 'chemistry ', 'tut', '1engineering ii 6', 43, 'youssef abou shady')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'physics ', 'small_lec', '1engineering iii', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'dld ', 'tut', '3 iet/met i 1', 42, 't33')
+(16, 'elct ', 'lab', '3 iet/met i 9', 61, 't34')
+(16, 'physics ', 'tut', '3 iet/met i 8', 40, 'sarah abouelhasab')
+(16, 'csen t ', 'tut', '3 iet/met i 7', 39, 'carol doos')
+(16, 'math ', 'tut', '3 iet/met i 3', 38, 'hisham ibrahim')
+(16, 'math ', 'tut', '3 iet/met i 4', 37, 'abdallah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'physics ', 'small_lec', '3 iet/met ii', 53, 'amr abou shousha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'math ', 'tut', '3 iet/met iii 19', 36, 'ahmed tawfik')
+(16, 'math ', 'tut', '3 iet/met iii 20', 35, 'mohamed hussein')
+(16, 'elct t ', 'tut', '3 iet/met iii 21', 34, 'nouran arafat')
+(16, 'elct t ', 'tut', '3 iet/met iii 22', 33, 'ghadir dogim')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'advanced computer ', 'lab', '7 csen i 10', 60, 'reham hassan')
+(16, 'graphics t ', 'tut', '7 csen i 9', 32, 'omnia elsayed')
+(16, 'microprocessors ', 'tut', '7 csen i 11', 31, 'ahmed fahmy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'advanced computer ', 'lab', '7 csen ii 17', 59, 'youssef amin')
+(16, 'emb. syst  ', 'tut', '7 csen ii 15', 30, 'loaa elzahar')
+(16, 'emb. syst ', 'tut', '7 csen ii 14', 29, 'walid elhefny')
+(16, 'algorithms ', 'tut', '7 csen ii 18', 28, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'chemistry ', 'tut', '1engineering i 1', 49, 'mariam azab')
+(17, 'chemistry ', 'tut', '1engineering i 3', 48, 'sherif aref')
+(17, 'csen ', 'lab', '1engineering i 4', 63, 'rana ahmed')
+(17, 'csen ', 'lab', '1engineering i 5', 62, 'reem moursy')
+(17, 'physics ', 'tut', '1engineering i 2', 47, 'mohamed zamzam')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'physics ', 'tut', '1engineering ii 8', 46, 'rasha emara')
+(17, 'chemistry ', 'tut', '1engineering ii 9', 45, 'liza botros')
+(17, 'math ', 'tut', '1engineering ii 6', 44, 'abeer khalifa')
+(17, 'math ', 'tut', '1engineering ii 7', 43, 'khaled alagha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'csen tut ', 'tut', '1engineering iii 14', 42, 'nardeen khela')
+(17, 'physics ', 'tut', '1engineering iii 11', 41, 'mostafa elwaily')
+(17, 'math ', 'tut', '1engineering iii 12', 40, 'nourhan ali')
+(17, 'math ', 'tut', '1engineering iii 13', 39, 'hesham hussein')
+(17, 'chemistry ', 'tut', '1engineering iii 10', 38, 'youssef abou shady')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'physics ', 'tut', '1engineering iv 15', 37, 'mustafa mustafa hanafi')
+(17, 'physics ', 'tut', '1engineering iv 16', 36, 'abdulnaby hussein')
+(17, 'csen tut ', 'tut', '1engineering iv 17', 35, 'ali saudi')
+(17, 'csen tut ', 'tut', '1engineering iv 18', 34, 'noha abdellatif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'math iii ', 'small_lec', '3 iet/met i', 54, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'physics ', 'lab', '3 iet/met ii 12', 61, 'heba qenawy')
+(17, 'physics ', 'lab', '3 iet/met ii 13', 60, 'bassant salah')
+(17, 'dld ', 'tut', '3 iet/met ii 14', 33, 't35')
+(17, 'csen t ', 'tut', '3 iet/met ii 16', 32, 'nada ramadan')
+(17, 'csen t ', 'tut', '3 iet/met ii 17', 31, 'mina abdallah')
+(17, 'csen t ', 'tut', '3 iet/met ii 18', 30, 'nourhan ramadan')
+(17, 'math ', 'tut', '3 iet/met ii 15', 29, 'abdallah mohamed')
+(17, 'physics ', 'tut', '3 iet/met ii 11', 28, 'sarah abouelhasab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'elct ', 'lab', '3 iet/met iii 20', 59, 'fadwa foda')
+(17, 'math ', 'tut', '3 iet/met iii 21', 27, 'mohamed awad')
+(17, 'math ', 'tut', '3 iet/met iii 22', 26, 'mohamed hussein')
+(17, 'dld ', 'tut', '3 iet/met iii 19', 25, 'hadeer abdelkader')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'emb. syst ', 'tut', '7 csen i 13', 24, 'loaa elzahar')
+(17, 'emb. syst ', 'tut', '7 csen i 12', 23, 'walid elhefny')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'graphics  ', 'lab', '7 csen ii 16', 58, 'omar fathy')
+(17, 'graphics t', 'tut', '7 csen ii 18', 22, 'omnia elsayed')
+(17, 'microprocessors ', 'tut', '7 csen ii 14', 21, 'ahmed fahmy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'multimedia &amp; networking ', 'small_lec', '7 dmet', 53, 'hisham othman')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'physics ', 'small_lec', '1engineering i', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'prot ', 'tut', '1engineering iii 11', 49, 'andrew faried')
+(18, 'prot ', 'tut', '1engineering iii 14', 48, 'islam hegazy')
+(18, 'csen tut ', 'tut', '1engineering iii 10', 47, 'hadwa pasha')
+(18, 'csen tut ', 'tut', '1engineering iii 13', 46, 'rana ahmed')
+(18, 'physics ', 'tut', '1engineering iii 12', 45, 'mustafa mustafa hanafi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'math ', 'tut', '1engineering iv 15', 44, 'mohamed hafez')
+(18, 'math ', 'tut', '1engineering iv 16', 43, 'lina helal')
+(18, 'math ', 'tut', '1engineering iv 17', 42, 'nourhan ali')
+(18, 'math ', 'tut', '1engineering iv 18', 41, 'hesham hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'physics ', 'small_lec', '3 iet/met i', 53, 'amr abou shousha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'dld ', 'tut', '3 iet/met ii 15', 40, 'mennatallah hassabelnaby')
+(18, 'dld ', 'tut', '3 iet/met ii 18', 39, 'yasmin massoud')
+(18, 'elct ', 'lab', '3 iet/met ii 14', 63, 'mahmoud zaher')
+(18, 'elct ', 'lab', '3 iet/met ii 17', 62, 'fadwa foda')
+(18, 'cs ', 'lab', '3 iet/met ii 16', 61, 'nourhan ramadan')
+(18, 'math ', 'tut', '3 iet/met ii 11', 38, 'hisham ibrahim')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'dld ', 'small_lec', '3 iet/met iii', 52, 't36')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'graphics  ', 'lab', '7 csen i 8', 60, 'salma mohamed')
+(18, 'microprocessors ', 'tut', '7 csen i 13', 37, 'ahmed fahmy')
+(18, 'emb. syst  ', 'tut', '7 csen i 11', 36, 'loaa elzahar')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, ' microprocessors ', 'small_lec', '7 csen ii', 51, 'ahmed moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'visualization lab ', 'tut', '7 dmet 19', 35, 'omar fathy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(19, 'prot ', 'tut', '1engineering iii 10', 49, 'andrew faried')
+(19, 'prot ', 'tut', '1engineering iii 12', 48, 'islam hegazy')
+(19, 'csen ', 'lab', '1engineering iii 13', 63, 'hadwa pasha')
+(19, 'csen ', 'lab', '1engineering iii 14', 62, 'nardeen khela')
+(19, 'math ', 'tut', '1engineering iii 11', 47, 'amgad amin')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(19, 'engd ', 'tut', '1engineering iv 15', 46, 'rana elazhary')
+(19, 'chemistry ', 'tut', '1engineering iv 18', 45, 'sherif aref')
+(19, 'csen tut ', 'tut', '1engineering iv 16', 44, 'noha abdellatif')
+(19, 'csen tut ', 'tut', '1engineering iv ', 43, 'mohamed zamzam')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'math ', 'small_lec', '1engineering iii', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'csen ', 'lab', '1engineering ix 38', 62, 'mariam azab')
+(20, 'csen ', 'lab', '1engineering ix 39', 61, 'youssef abou shady')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'physics ', 'small_lec', '1engineering v', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'prot ', 'tut', '1engineering vii 31', 49, 'andrew faried')
+(20, 'csen tut ', 'tut', '1engineering vii 28', 48, 'rana ahmed')
+(20, 'csen tut ', 'tut', '1engineering vii 29', 47, 'yehia hatab')
+(20, 'chemistry ', 'tut', '1engineering vii 32', 46, 'islam eddiasty')
+(20, 'physics ', 'tut', '1engineering vii 30', 45, 'abdulnaby hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'physics ', 'tut', '1engineering viii 34', 44, 'rasha emara')
+(20, 'csen ', 'lab', '1engineering viii 35', 63, 'yomna elghandoor')
+(20, 'math ', 'tut', '1engineering viii 36', 43, 'nourhan ali')
+(20, 'math ', 'tut', '1engineering viii ', 42, 'liza botros')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'math ', 'tut', '1engineering x 42', 41, 'mohamed hafez')
+(20, 'math ', 'tut', '1engineering x 43', 40, 'lina helal')
+(20, 'math ', 'tut', '1engineering x 44', 39, 'karim ahmed')
+(20, 'math ', 'tut', '1engineering x 45', 38, 'amgad amin')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'analysis &amp; design of algorithms ', 'small_lec', '7 csen i', 52, 'wael abulsadat')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'embedded systems ', 'small_lec', '7 csen ii', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'video &amp; audio technology ', 'small_lec', '7 dmet', 50, 'mohammed salem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'csen  ', 'small_lec', '1engineering iii', 54, 'nada hamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'csen ', 'lab', '1engineering v 19', 63, 'ali saudi')
+(21, 'csen ', 'lab', '1engineering v 20', 62, 'fatema gabr')
+(21, 'csen ', 'lab', '1engineering v 21', 61, 'noha abdellatif')
+(21, 'chemistry ', 'tut', '1engineering v 23', 49, 'mariam azab')
+(21, 'math ', 'tut', '1engineering v 22', 48, 'abeer khalifa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'csen tut ', 'tut', '1engineering vi 24', 47, 'rana ahmed')
+(21, 'csen tut ', 'tut', '1engineering vi 25', 46, 'yehia hatab')
+(21, 'chemistry ', 'tut', '1engineering vi 26', 45, 'youssef abou shady')
+(21, 'math ', 'tut', '1engineering vi 27', 44, 'hesham hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'math ', 'small_lec', '1engineering vii', 53, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'physics ', 'lab', '3 iet/met i 7', 60, 'raghda abdelaziz')
+(21, 'physics ', 'lab', '3 iet/met i 8', 59, 'bassant salah')
+(21, 'dld ', 'tut', '3 iet/met i 3', 43, 't37')
+(21, 'math ', 'tut', '3 iet/met i 5', 41, 'ahmed tawfik')
+(21, 'math ', 'tut', '3 iet/met i 10', 40, 'abdallah mohamed')
+(21, 'physics ', 'tut', '3 iet/met i 9', 39, 'maha hamdy')
+(21, 'csen t ', 'tut', '3 iet/met i 1', 38, 'mohamed ashry')
+(21, 'csen t ', 'tut', '3 iet/met i 2', 37, 'sama elbaroudy')
+(21, 'cs ', 'lab', '3 iet/met i 4', 58, 'mina abdallah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'dld ', 'tut', '3 iet/met ii 11', 36, 't39')
+(21, 'elct ', 'lab', '3 iet/met ii 15', 57, 'sarah azzam')
+(21, 'elct ', 'lab', '3 iet/met ii 18', 56, 'mahmoud zaher')
+(21, 'math ', 'tut', '3 iet/met ii 13', 35, 'adel naeim')
+(21, 'math ', 'tut', '3 iet/met ii 14', 34, 'hisham ibrahim')
+(21, 'elct t ', 'tut', '3 iet/met ii 12', 33, 'noha shouman')
+(21, 'elct t ', 'tut', '3 iet/met ii 16', 32, 'monica sary')
+(21, 'cs ', 'lab', '3 iet/met ii 17', 2, 'nada ramadan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'math iii ', 'small_lec', '3 iet/met iii', 51, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'microprocessors ', 'tut', '7 csen i 8', 31, 'ahmed fahmy')
+(21, 'algorithms ', 'tut', '7 csen i 9', 30, 'belal abdel raheem')
+(21, 'graphics t ', 'tut', '7 csen i 10', 29, 'omnia elsayed')
+(21, 'graphics t ', 'tut', '7 csen i 12', 28, 'salma mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'emb. syst ', 'tut', '7 csen ii 18', 27, 'walid elhefny')
+(21, 'graphics  ', 'lab', '7 csen ii 17', 0, 'mohammed kapiel')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'visualization &amp; animation ', 'small_lec', '7 dmet', 55, 'rimon elias')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'physics ', 'small_lec', '1engineering ix', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'chemistry ', 'tut', '1engineering vii 31', 49, 'islam eddiasty')
+(22, 'csen ', 'lab', '1engineering vii 28', 63, 'ali saudi')
+(22, 'csen ', 'lab', '1engineering vii 29', 62, 'yehia hatab')
+(22, 'physics ', 'tut', '1engineering vii 32', 48, 'mohamed zamzam')
+(22, 'prot ', 'tut', '1engineering vii 30', 47, 'islam hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'math ', 'tut', '1engineering viii 33', 46, 'mohamed hafez')
+(22, 'math ', 'tut', '1engineering viii 34', 45, 'lina helal')
+(22, 'math ', 'tut', '1engineering viii 35', 44, 'karim elghazawy')
+(22, 'csen ', 'lab', '1engineering viii 36', 61, 'rana ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'dld ', 'tut', '3 iet/met i 5', 43, 't38')
+(22, 'math ', 'tut', '3 iet/met i 2', 41, 'hisham ibrahim')
+(22, 'math ', 'tut', '3 iet/met i 6', 40, 'abdallah mohamed')
+(22, 'physics ', 'tut', '3 iet/met i 4', 39, 'maha hamdy')
+(22, 'physics ', 'tut', '3 iet/met i 10', 38, 'heba qenawy')
+(22, 'elct t', 'tut', '3 iet/met i 3', 37, 'noha shouman')
+(22, 'cs ', 'lab', '3 iet/met i 1', 60, 'sama elbaroudy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'csen ', 'small_lec', '3 iet/met ii', 53, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'physics ', 'small_lec', '3 iet/met iii', 52, 't40')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'embedded systems ', 'small_lec', '7 csen i', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'emb. syst ', 'tut', '7 csen ii 16', 36, 'loaa elzahar')
+(22, 'graphics t ', 'tut', '7 csen ii 15', 35, 'omnia elsayed')
+(22, 'algorithms ', 'tut', '7 csen ii 14', 34, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'embedded systems ', 'small_lec', '7 dmet', 50, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'prot ', 'tut', '1engineering iii 13', 49, 'andrew faried')
+(23, 'csen ', 'lab', '1engineering iii 10', 63, 'rana ahmed')
+(23, 'math ', 'tut', '1engineering iii 14', 48, 'hesham hussein')
+(23, 'chemistry ', 'tut', '1engineering iii 11', 47, 'yasmine mandour')
+(23, 'chemistry ', 'tut', '1engineering iii 12', 46, 'mariam azab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'chemistry ', 'tut', '1engineering iv 15', 45, 'youssef abou shady')
+(23, 'csen ', 'lab', '1engineering iv 16', 62, 'ali saudi')
+(23, 'csen ', 'lab', '1engineering iv 17', 61, 'hadwa pasha')
+(23, 'csen ', 'lab', '1engineering iv 18', 60, 'noha abdellatif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'math ', 'tut', '1engineering v 23', 44, 'abeer khalifa')
+(23, 'prot ', 'tut', '1engineering v 22', 43, 'paula tanaghy')
+(23, 'physics ', 'tut', '1engineering v 19', 42, 'rasha emara')
+(23, 'physics ', 'tut', '1engineering v 20', 41, 'mohamed zamzam')
+(23, 'physics ', 'tut', '1engineering v 21', 40, 'abdulnaby hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'math ', 'tut', '1engineering vi 24', 39, 'mohamed hafez')
+(23, 'math ', 'tut', '1engineering vi 25', 38, 'lina helal')
+(23, 'math ', 'tut', '1engineering vi 26', 37, 'karim ahmed')
+(23, 'physics ', 'tut', '1engineering vi 27', 36, 'mostafa elwaily')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'physics ', 'small_lec', '1engineering vii', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'csen ', 'small_lec', '3 iet/met i', 53, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'physics ', 'lab', '3 iet/met ii 14', 59, 'raghda abdelaziz')
+(23, 'physics ', 'lab', '3 iet/met ii 15', 58, 'heba qenawy')
+(23, 'math ', 'tut', '3 iet/met ii 16', 35, 'hisham ibrahim')
+(23, 'math ', 'tut', '3 iet/met ii 17', 34, 'mohamed hussein')
+(23, 'math ', 'tut', '3 iet/met ii 18', 33, 'abdallah mohamed')
+(23, 'elct t', 'tut', '3 iet/met ii 11', 32, 'sara imam')
+(23, 'elct t', 'tut', '3 iet/met ii 13', 31, 'fadwa foda')
+(23, 'csen t ', 'tut', '3 iet/met ii 12', 30, 'mohamed ashry')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'elct ', 'lab', '3 iet/met iii 19', 57, 'monica sary')
+(23, 'physics ', 'tut', '3 iet/met iii 20', 29, 'noha hassan')
+(23, 'physics ', 'tut', '3 iet/met iii 21', 28, 'anke klingner')
+(23, 'cs ', 'lab', '3 iet/met iii 22', 56, 'sama elbaroudy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'advanced computer ', 'lab', '7 csen i 11', 2, 'mark gergis')
+(23, 'algorithms ', 'tut', '7 csen i 13', 27, 'belal abdel raheem')
+(23, 'emb. syst ', 'tut', '7 csen i 9', 26, 'walid elhefny')
+(23, 'graphics t ', 'tut', '7 csen i 8', 25, 'omnia elsayed')
+(23, 'graphics  ', 'lab', '7 csen i 12', 1, 'salma mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'microprocessors ', 'tut', '7 csen ii 16', 24, 'dina mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(24, 'dld ', 'tut', '3 iet/met ii 12', 49, 'mennatallah hassabelnaby')
+(24, 'dld ', 'tut', '3 iet/met ii 17', 48, 'yasmin massoud')
+(24, 'elct ', 'lab', '3 iet/met ii 13', 63, 'maha elfeshawy')
+(24, 'elct ', 'lab', '3 iet/met ii 16', 62, 'mahmoud zaher')
+(24, 'csen t ', 'tut', '3 iet/met ii 11', 47, 'khaled kassem')
+(24, 'cs ', 'lab', '3 iet/met ii 18', 61, 'mina abdallah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(24, 'emb. syst ', 'tut', '7 csen i 8', 46, 'loaa elzahar')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(24, 'algorithms ', 'tut', '7 csen ii 15', 45, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'chemistry ', 'small_lec', '1engineering i', 54, 'nermin ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'prot ', 'tut', '1engineering ix 41', 40, 't41')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'math ', 'small_lec', '1engineering v', 53, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'math ', 'tut', '1engineering vii 28', 49, 'walaa saad mahmoud')
+(25, 'math ', 'tut', '1engineering vii 29', 48, 'amgad amin')
+(25, 'math ', 'tut', '1engineering vii 30', 47, 'khaled alagha')
+(25, 'prot ', 'tut', '1engineering vii 32', 46, 'andrew faried')
+(25, 'physics ', 'tut', '1engineering vii 31', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'csen tut ', 'tut', '1engineering viii 33', 44, 'hadwa pasha')
+(25, 'csen tut ', 'tut', '1engineering viii 34', 43, 'noha abdellatif')
+(25, 'chemistry ', 'tut', '1engineering viii 36', 42, 'liza botros')
+(25, 'engd ', 'tut', '1engineering viii 35', 41, 'rana elazhary')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'elct  ', 'small_lec', '3 iet/met ii', 52, 'yasser hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'comm net t', 'tut', '5 csen i 12', 39, 'ahmed helmy')
+(25, 'dsd ', 'tut', '5 csen i 11', 38, 'hadeel mostafa')
+(25, 'data basest ', 'tut', '5 csen i 14', 37, 'gina younes')
+(25, 'data bases ', 'lab', '5 csen i 10', 63, 'merna mikhael')
+(25, 'data bases ', 'lab', '5 csen i 15', 62, 'sama abdel monem')
+(25, 'media ', 'tut', '5 csen i 13', 36, 'ethar elhinamy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'introduction to media engineering ', 'small_lec', '5 csen ii', 51, 'seif dawlatly')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'advanced computer ', 'lab', '7 csen ii 18', 61, 'reham hassan')
+(25, 'advanced computer ', 'lab', '7 csen ii 16', 60, 'gehad ismail')
+(25, 'graphics  ', 'lab', '7 csen ii 14', 59, 'omnia elsayed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'emb. syst ', 'tut', '7 dmet 19', 35, 'walid elhefny')
+(25, 'visulazation   lab ', 'tut', '7 dmet 20', 34, 'omar fathy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'math ', 'small_lec', '1engineering i', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'chemistry ', 'small_lec', '1engineering ix', 53, 't42')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'math ', 'tut', '1engineering vii 31', 49, 'abeer khalifa')
+(26, 'math ', 'tut', '1engineering vii 32', 48, 'mohamed hafez')
+(26, 'chemistry ', 'tut', '1engineering vii 28', 47, 'islam eddiasty')
+(26, 'chemistry ', 'tut', '1engineering vii 30', 46, 'liza botros')
+(26, 'prot ', 'tut', '1engineering vii 29', 45, 'islam hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'csen ', 'lab', '1engineering viii 33', 63, 'hadwa pasha')
+(26, 'csen ', 'lab', '1engineering viii 34', 62, 'noha abdellatif')
+(26, 'physics ', 'tut', '1engineering viii 35', 44, 'mustafa mustafa hanafi')
+(26, 'physics ', 'tut', '1engineering viii 36', 43, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'elct ', 'small_lec', '3 iet/met i', 52, 'yasser hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'physics ', 'lab', '3 iet/met ii 16', 61, 'maha hamdy')
+(26, 'physics ', 'lab', '3 iet/met ii 17', 60, 'noha hassan')
+(26, 'math ', 'tut', '3 iet/met ii 19', 42, 'hisham ibrahim')
+(26, 'physics ', 'tut', '3 iet/met ii 13', 39, 'sarah abouelhasab')
+(26, 'csen t ', 'tut', '3 iet/met ii 20', 38, 't45')
+(26, 'elct t ', 'tut', '3 iet/met ii 14', 37, 'nouran arafat')
+(26, 'elct t ', 'tut', '3 iet/met ii 15', 36, 'noha shouman')
+(26, 'elct t ', 'tut', '3 iet/met ii 18', 35, 'monica sary')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'data basest ', 'tut', '5 csen i 13', 34, 'gina younes')
+(26, 'data basest ', 'tut', '5 csen i 15', 33, 'ahmed ahmed')
+(26, 'dsd ', 'tut', '5 csen i 14', 32, 'hadeel mostafa')
+(26, 'media ', 'tut', '5 csen i 12', 31, 'ethar elhinamy')
+(26, 'theory of computation ', 'tut', '5 csen i 10', 30, 'youssef amin')
+(26, 'comm net t', 'tut', '5 csen i 11', 29, 'ahmed helmy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'digital system design ', 'small_lec', '5 csen ii', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'microprocessors ', 'tut', '7 csen i 10', 28, 'ahmed fahmy')
+(26, 'algorithms ', 'tut', '7 csen i 8', 27, 'belal abdel raheem')
+(26, 'graphics t ', 'tut', '7 csen i 11', 26, 'gehad ismail')
 </t>
   </si>
   <si>
@@ -1431,154 +1431,154 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(27, 'pro', 'tut', '1engineering i 5', 49, 'islam hegazy')
-(27, 'math', 'tut', '1engineering i 1', 48, 'mohamed hafez')
-(27, 'math', 'tut', '1engineering i 2', 47, 'walaa saad mahmoud')
-(27, 'math', 'tut', '1engineering i 3', 46, 'abeer khalifa')
-(27, 'physics', 'tut', '1engineering i 4', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'csen', 'lab', '1engineering ii 6', 63, 'sahar soussa')
-(27, 'csen', 'lab', '1engineering ii 7', 62, 'reem moursy')
-(27, 'engd', 'tut', '1engineering ii 8', 44, 'rana elazhary')
-(27, 'engd', 'tut', '1engineering ii 9', 43, 'heba moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'math', 'tut', '1engineering ix 39', 42, 'mustafa mustafa hanafi')
-(27, 'math', 'tut', '1engineering ix 40', 41, 'mohamed zamzam')
-(27, 'physics', 'tut', '1engineering ix 37', 39, 't43')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'csen', 'small_lec', '1engineering v', 54, 'mohammed salem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'csen', 'tut', '1engineering x 42', 37, 'hadwa pasha')
-(27, 'csen', 'tut', '1engineering x 43', 36, 'noha abdellatif')
-(27, 'chemistry', 'tut', '1engineering x 44', 35, 'islam eddiasty')
-(27, 'chemistry', 'tut', '1engineering x 45', 34, 'sherif aref')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'math', 'tut', '3 iet/met ii 13', 33, 'adel naeim')
-(27, 'math', 'tut', '3 iet/met ii 14', 32, 'hisham ibrahim')
-(27, 'math', 'tut', '3 iet/met ii 15', 31, 'abdallah mohamed')
+    <t xml:space="preserve">(27, 'prot ', 'tut', '1engineering i 5', 49, 'islam hegazy')
+(27, 'math ', 'tut', '1engineering i 1', 48, 'mohamed hafez')
+(27, 'math ', 'tut', '1engineering i 2', 47, 'walaa saad mahmoud')
+(27, 'math ', 'tut', '1engineering i 3', 46, 'abeer khalifa')
+(27, 'physics ', 'tut', '1engineering i 4', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'csen ', 'lab', '1engineering ii 6', 63, 'sahar soussa')
+(27, 'csen ', 'lab', '1engineering ii 7', 62, 'reem moursy')
+(27, 'engd ', 'tut', '1engineering ii 8', 44, 'rana elazhary')
+(27, 'engd ', 'tut', '1engineering ii 9', 43, 'heba moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'math ', 'tut', '1engineering ix 39', 42, 'mustafa mustafa hanafi')
+(27, 'math ', 'tut', '1engineering ix 40', 41, 'mohamed zamzam')
+(27, 'physics ', 'tut', '1engineering ix 37', 39, 't43')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'csen ', 'small_lec', '1engineering v', 54, 'mohammed salem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'csen tut ', 'tut', '1engineering x 42', 37, 'hadwa pasha')
+(27, 'csen tut ', 'tut', '1engineering x 43', 36, 'noha abdellatif')
+(27, 'chemistry ', 'tut', '1engineering x 44', 35, 'islam eddiasty')
+(27, 'chemistry ', 'tut', '1engineering x 45', 34, 'sherif aref')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'math ', 'tut', '3 iet/met ii 13', 33, 'adel naeim')
+(27, 'math ', 'tut', '3 iet/met ii 14', 32, 'hisham ibrahim')
+(27, 'math ', 'tut', '3 iet/met ii 15', 31, 'abdallah mohamed')
 (27, 'physics', 'tut', '3 iet/met ii 1', 30, 'sarah abouelhasab')
-(27, 'cs', 'lab', '3 iet/met ii 11', 61, 't46')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'introduction to communication networks', 'small_lec', '5 csen i', 53, 'amr elmougy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'medi', 'tut', '5 csen ii 20', 29, 'ethar elhinamy')
-(27, 'data bases', 'lab', '5 csen ii 16', 59, 'sama abdel monem')
-(27, 'comm ne', 'tut', '5 csen ii 17', 28, 'ahmed helmy')
-(27, 'math', 'tut', '5 csen ii 21', 27, 'naglaa ahmed')
-(27, 'dsd', 'tut', '5 csen ii 18', 26, 'hadeel mostafa')
-(27, 'data bases', 'tut', '5 csen ii 19', 25, 'gina younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'graphics', 'tut', '5 dmet 22', 24, 'omnia elsayed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'embedded systems', 'small_lec', '7 csen i', 52, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'emb. sys', 'tut', '7 csen ii 17', 23, 'ahmed fahmy')
-(27, 'microprocessors', 'tut', '7 csen ii 15', 22, 'belal abdel raheem')
-(27, 'algorithms', 'tut', '7 csen ii 16', 21, 't47')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'embedded systems', 'small_lec', '7 dmet', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'math', 'small_lec', '1engineering ix', 53, 't44')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'pro', 'tut', '1engineering v 23', 49, 'islam hegazy')
-(28, 'math', 'tut', '1engineering v 19', 48, 'lina helal')
-(28, 'math', 'tut', '1engineering v 20', 47, 'amgad amin')
-(28, 'math', 'tut', '1engineering v 21', 46, 'khaled alagha')
-(28, 'csen', 'lab', '1engineering v 22', 63, 'ali saudi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'csen', 'lab', '1engineering vi 24', 62, 'rana ahmed')
-(28, 'csen', 'lab', '1engineering vi 25', 61, 'yehia hatab')
-(28, 'engd', 'tut', '1engineering vi 26', 45, 'heba moussa')
-(28, 'chemistry', 'tut', '1engineering vi 27', 44, 'islam eddiasty')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'csen', 'small_lec', '1engineering vii', 54, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'physics', 'lab', '3 iet/met i 9', 60, 'noha hassan')
-(28, 'physics', 'lab', '3 iet/met i 10', 59, 'bassant salah')
-(28, 'elc', 'lab', '3 iet/met i 7', 58, 'omar fahmy el kharbotly')
-(28, 'elc', 'lab', '3 iet/met i 8', 57, 'youmna shehata')
-(28, 'csen', 'tut', '3 iet/met i 6', 43, 'khaled kassem')
-(28, 'elc', 'tut', '3 iet/met i 4', 42, 'noha shouman')
-(28, 'math', 'tut', '3 iet/met i 1', 41, 'shady nagy')
-(28, 'math', 'tut', '3 iet/met i 5', 40, 'abdallah mohamed')
-(28, 'cs', 'lab', '3 iet/met i 2', 56, 'nada ramadan')
-(28, 'cs', 'lab', '3 iet/met i 3', 2, 'mohamed ashry')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'microprocessors', 'tut', '7 csen i 9', 39, 'ahmed fahmy')
-(28, 'algorithms', 'tut', '7 csen i 10', 38, 'belal abdel raheem')
-(28, 'advanced computer', 'lab', '7 csen i 12', 1, 'reham hassan')
-(28, 'advanced computer', 'lab', '7 csen i 13', 0, 'youssef amin')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'embedded systems', 'small_lec', '7 csen ii', 55, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'multimedi', 'tut', '7 dmet 19', 37, 'mohammed kapiel')
-(28, 'emb. sys', 'tut', '7 dmet 20', 36, 'loaa elzahar')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(29, 'math', 'tut', '1engineering ix 37', 49, 'sherif aref')
-(29, 'chemistry', 'tut', '1engineering ix 39', 47, 'mohamed zamzam')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(29, 'csen', 'lab', '1engineering x 42', 63, 'hadwa pasha')
-(29, 'csen', 'lab', '1engineering x 43', 62, 'noha abdellatif')
-(29, 'engd', 'tut', '1engineering x 44', 46, 'rana elazhary')
-(29, 'physics', 'tut', '1engineering x 45', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(29, 'elc', 'lab', '3 iet/met i 1', 61, 'mohamed ibrahim')
-(29, 'elc', 'lab', '3 iet/met i 2', 60, 'mahmoud zaher')
-(29, 'math', 'tut', '3 iet/met i 3', 44, 'hisham ibrahim')
-(29, 'math', 'tut', '3 iet/met i 4', 43, 'abdallah mohamed')
-(29, 'pysics', 'tut', '3 iet/met i 5', 42, 'sarah abouelhasab')
-(29, 'cs', 'lab', '3 iet/met i 6', 59, 'mohamed ashry')
-(29, 'cs', 'lab', '3 iet/met i 7', 58, 'khaled kassem')
-(29, 'cs', 'lab', '3 iet/met i 8', 57, 'carol doos')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(29, 'emb. sys', 'tut', '7 csen i 10', 41, 'loaa elzahar')
-(29, 'graphics', 'lab', '7 csen i 9', 56, 'mohammed kapiel')
+(27, 'cs ', 'lab', '3 iet/met ii 11', 61, 't46')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'introduction to communication networks ', 'small_lec', '5 csen i', 53, 'amr elmougy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'media ', 'tut', '5 csen ii 20', 29, 'ethar elhinamy')
+(27, 'data bases ', 'lab', '5 csen ii 16', 59, 'sama abdel monem')
+(27, 'comm net t', 'tut', '5 csen ii 17', 28, 'ahmed helmy')
+(27, 'math ', 'tut', '5 csen ii 21', 27, 'naglaa ahmed')
+(27, 'dsd ', 'tut', '5 csen ii 18', 26, 'hadeel mostafa')
+(27, 'data basest ', 'tut', '5 csen ii 19', 25, 'gina younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'graphics t ', 'tut', '5 dmet 22', 24, 'omnia elsayed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'embedded systems ', 'small_lec', '7 csen i', 52, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'emb. syst  ', 'tut', '7 csen ii 17', 23, 'ahmed fahmy')
+(27, 'microprocessors ', 'tut', '7 csen ii 15', 22, 'belal abdel raheem')
+(27, 'algorithms ', 'tut', '7 csen ii 16', 21, 't47')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'embedded systems ', 'small_lec', '7 dmet', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'math ', 'small_lec', '1engineering ix', 53, 't44')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'prot ', 'tut', '1engineering v 23', 49, 'islam hegazy')
+(28, 'math ', 'tut', '1engineering v 19', 48, 'lina helal')
+(28, 'math ', 'tut', '1engineering v 20', 47, 'amgad amin')
+(28, 'math ', 'tut', '1engineering v 21', 46, 'khaled alagha')
+(28, 'csen ', 'lab', '1engineering v 22', 63, 'ali saudi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'csen ', 'lab', '1engineering vi 24', 62, 'rana ahmed')
+(28, 'csen ', 'lab', '1engineering vi 25', 61, 'yehia hatab')
+(28, 'engd ', 'tut', '1engineering vi 26', 45, 'heba moussa')
+(28, 'chemistry ', 'tut', '1engineering vi 27', 44, 'islam eddiasty')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'csen ', 'small_lec', '1engineering vii', 54, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'physics ', 'lab', '3 iet/met i 9', 60, 'noha hassan')
+(28, 'physics ', 'lab', '3 iet/met i 10', 59, 'bassant salah')
+(28, 'elct ', 'lab', '3 iet/met i 7', 58, 'omar fahmy el kharbotly')
+(28, 'elct ', 'lab', '3 iet/met i 8', 57, 'youmna shehata')
+(28, 'csen t ', 'tut', '3 iet/met i 6', 43, 'khaled kassem')
+(28, 'elct t', 'tut', '3 iet/met i 4', 42, 'noha shouman')
+(28, 'math ', 'tut', '3 iet/met i 1', 41, 'shady nagy')
+(28, 'math ', 'tut', '3 iet/met i 5', 40, 'abdallah mohamed')
+(28, 'cs ', 'lab', '3 iet/met i 2', 56, 'nada ramadan')
+(28, 'cs ', 'lab', '3 iet/met i 3', 2, 'mohamed ashry')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'microprocessors ', 'tut', '7 csen i 9', 39, 'ahmed fahmy')
+(28, 'algorithms ', 'tut', '7 csen i 10', 38, 'belal abdel raheem')
+(28, 'advanced computer ', 'lab', '7 csen i 12', 1, 'reham hassan')
+(28, 'advanced computer ', 'lab', '7 csen i 13', 0, 'youssef amin')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'embedded systems ', 'small_lec', '7 csen ii', 55, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'multimedia  ', 'tut', '7 dmet 19', 37, 'mohammed kapiel')
+(28, 'emb. syst ', 'tut', '7 dmet 20', 36, 'loaa elzahar')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29, 'math ', 'tut', '1engineering ix 37', 49, 'sherif aref')
+(29, 'chemistry ', 'tut', '1engineering ix 39', 47, 'mohamed zamzam')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29, 'csen ', 'lab', '1engineering x 42', 63, 'hadwa pasha')
+(29, 'csen ', 'lab', '1engineering x 43', 62, 'noha abdellatif')
+(29, 'engd ', 'tut', '1engineering x 44', 46, 'rana elazhary')
+(29, 'physics ', 'tut', '1engineering x 45', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29, 'elct ', 'lab', '3 iet/met i 1', 61, 'mohamed ibrahim')
+(29, 'elct ', 'lab', '3 iet/met i 2', 60, 'mahmoud zaher')
+(29, 'math ', 'tut', '3 iet/met i 3', 44, 'hisham ibrahim')
+(29, 'math ', 'tut', '3 iet/met i 4', 43, 'abdallah mohamed')
+(29, 'pysics ', 'tut', '3 iet/met i 5', 42, 'sarah abouelhasab')
+(29, 'cs ', 'lab', '3 iet/met i 6', 59, 'mohamed ashry')
+(29, 'cs ', 'lab', '3 iet/met i 7', 58, 'khaled kassem')
+(29, 'cs ', 'lab', '3 iet/met i 8', 57, 'carol doos')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29, 'emb. syst ', 'tut', '7 csen i 10', 41, 'loaa elzahar')
+(29, 'graphics  ', 'lab', '7 csen i 9', 56, 'mohammed kapiel')
 </t>
   </si>
 </sst>

--- a/api/ConstraintModel/formatted_schedule.xlsx
+++ b/api/ConstraintModel/formatted_schedule.xlsx
@@ -93,295 +93,295 @@
     <t>7 dmet</t>
   </si>
   <si>
-    <t xml:space="preserve">(0, 'math ', 'small_lec', '1engineering ix', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'prot ', 'tut', '1engineering vii 28', 49, 'andrew faried')
-(0, 'csen tut ', 'tut', '1engineering vii 30', 48, 'ali saudi')
-(0, 'csen tut ', 'tut', '1engineering vii 31', 47, 'hadwa pasha')
-(0, 'csen tut ', 'tut', '1engineering vii 32', 46, 'noha abdellatif')
-(0, 'chemistry ', 'tut', '1engineering vii 29', 45, 'mariam azab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'math ', 'tut', '1engineering viii 33', 44, 'lina helal')
-(0, 'math ', 'tut', '1engineering viii 34', 43, 'karim elghazawy')
-(0, 'math ', 'tut', '1engineering viii 35', 42, 'mohamed hafez')
-(0, 'engd ', 'tut', '1engineering viii 36', 41, 'alia badawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'dsd ', 'tut', '5 csen i 13', 40, 'hadeel mostafa')
+    <t xml:space="preserve">(0, 'math', 'small_lec', '1engineering ix', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'pro', 'tut', '1engineering vii 28', 49, 'andrew faried')
+(0, 'csen', 'tut', '1engineering vii 30', 48, 'ali saudi')
+(0, 'csen', 'tut', '1engineering vii 31', 47, 'hadwa pasha')
+(0, 'csen', 'tut', '1engineering vii 32', 46, 'noha abdellatif')
+(0, 'chemistry', 'tut', '1engineering vii 29', 45, 'mariam azab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'math', 'tut', '1engineering viii 33', 44, 'lina helal')
+(0, 'math', 'tut', '1engineering viii 34', 43, 'karim elghazawy')
+(0, 'math', 'tut', '1engineering viii 35', 42, 'mohamed hafez')
+(0, 'engd', 'tut', '1engineering viii 36', 41, 'alia badawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'dsd', 'tut', '5 csen i 13', 40, 'hadeel mostafa')
 (0, 'theory of computation', 'tut', '5 csen i 14', 39, 'youssef amin')
-(0, 'math ', 'tut', '5 csen i 11', 38, 'naglaa ahmed')
-(0, 'data bases t ', 'tut', '5 csen i 10', 37, 'merna shafie')
-(0, 'media ', 'tut', '5 csen i 15', 36, 'menrit moawad')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'theory of computation ', 'small_lec', '5 csen ii', 53, 'haytham ismail')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'graphics ', 'lab', '5 dmet 23', 63, 'merna mikhael')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'advanced computer ', 'lab', '7 csen i 8', 62, 'reham hassan')
-(0, 'advanced computer ', 'lab', '7 csen i 9', 61, 'mark gergis')
-(0, 'graphics  ', 'lab', '7 csen i 10', 60, 'mohammed kapiel')
-(0, 'algorithms ', 'tut', '7 csen i 11', 35, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'graphics t ', 'tut', '7 csen ii 16', 34, 'salma mohamed')
-(0, 'microprocessors ', 'tut', '7 csen ii 18', 33, 'dina mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(0, 'visualization &amp; animation   ', 'small_lec', '7 dmet', 52, 'rimon elias')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'physics ', 'small_lec', '1engineering iii', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'physics ', 'small_lec', '1engineering iv', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'csen tut ', 'tut', '1engineering v 20', 49, 'ali saudi')
-(1, 'csen tut ', 'tut', '1engineering v 21', 48, 'fatema gabr')
-(1, 'chemistry ', 'tut', '1engineering v 19', 47, 'sherif aref')
-(1, 'chemistry ', 'tut', '1engineering v 22', 46, 'mariam azab')
-(1, 'physics ', 'tut', '1engineering v 23', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'math ', 'tut', '1engineering vi 24', 44, 'lina helal')
-(1, 'math ', 'tut', '1engineering vi 25', 43, 'karim ahmed')
-(1, 'math ', 'tut', '1engineering vi 26', 42, 'mohamed hafez')
-(1, 'engd ', 'tut', '1engineering vi 27', 41, 'hebatullah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'math ', 'small_lec', '1engineering vii', 52, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'theory of computation ', 'small_lec', '5 csen i', 51, 'haytham ismail')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'media ', 'tut', '5 csen ii 18', 40, 'menrit moawad')
-(1, 'dsd  ', 'tut', '5 csen ii 17', 39, 't2')
-(1, 'comm net t', 'tut', '5 csen ii 19', 38, 't3')
-(1, 'math ', 'tut', '5 csen ii 20', 37, 'salma eljaki')
-(1, 'data bases ', 'lab', '5 csen ii 21', 63, 'naglaa ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'math ', 'tut', '5 dmet 23', 36, 'merna shafie')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'graphics  ', 'lab', '7 csen i 11', 62, 'gehad ismail')
-(1, 'microprocessors ', 'tut', '7 csen i 12', 35, 'dina mohamed')
-(1, 'graphics t ', 'tut', '7 csen i 13', 34, 'salma mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'microprocessors ', 'small_lec', '7 csen ii', 50, 'ahmed moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1, 'advanced media ', 'lab', '7 dmet 19', 61, 'hesham elhattab')
-(1, 'multimedia  ', 'tut', '7 dmet 20', 33, 'mohammed kapiel')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'math ', 'tut', '1engineering iii 10', 49, 'karim elghazawy')
-(2, 'csen tut ', 'tut', '1engineering iii 11', 48, 'ali saudi')
-(2, 'csen tut ', 'tut', '1engineering iii 12', 47, 'nardeen khela')
-(2, 'chemistry ', 'tut', '1engineering iii 13', 46, 'sherif aref')
-(2, 'physics ', 'tut', '1engineering iii 14', 45, 'mustafa mustafa hanafi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'math ', 'tut', '1engineering iv 15', 44, 'nourhan ali')
-(2, 'math ', 'tut', '1engineering iv 16', 43, 'lina helal')
-(2, 'math ', 'tut', '1engineering iv 17', 42, 'mohamed hafez')
-(2, 'engd ', 'tut', '1engineering iv 18', 41, 'hebatullah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'physics ', 'small_lec', '1engineering v', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'physics ', 'small_lec', '1engineering vi', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'csen t ', 'tut', '3 iet/met iii 19', 40, 'mohamed elgamal')
-(2, 'csen t ', 'tut', '3 iet/met iii 20', 39, 'mohamed agamia')
-(2, 'elct ', 'lab', '3 iet/met iii 21', 63, 'esraa ragab')
-(2, 'math ', 'tut', '3 iet/met iii 22', 38, 'mohamed hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'dsd ', 'tut', '5 csen i 10', 37, 'ahmed elghobashy')
-(2, 'data bases ', 'lab', '5 csen i 11', 62, 'merna mikhael')
-(2, 'dsd ', 'tut', '5 csen i 12', 36, 'hadeel mostafa')
-(2, 'theory of computation ', 'tut', '5 csen i 13', 35, 'mark gergis')
-(2, 'comm net t', 'tut', '5 csen i 15', 34, 'salma eljaki')
+(0, 'math', 'tut', '5 csen i 11', 38, 'naglaa ahmed')
+(0, 'data bases', 'tut', '5 csen i 10', 37, 'merna shafie')
+(0, 'medi', 'tut', '5 csen i 15', 36, 'menrit moawad')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'theory of computation', 'small_lec', '5 csen ii', 53, 'haytham ismail')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'graphics', 'lab', '5 dmet 23', 63, 'merna mikhael')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'advanced computer', 'lab', '7 csen i 8', 62, 'reham hassan')
+(0, 'advanced computer', 'lab', '7 csen i 9', 61, 'mark gergis')
+(0, 'graphics', 'lab', '7 csen i 10', 60, 'mohammed kapiel')
+(0, 'algorithms', 'tut', '7 csen i 11', 35, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'graphics', 'tut', '7 csen ii 16', 34, 'salma mohamed')
+(0, 'microprocessors', 'tut', '7 csen ii 18', 33, 'dina mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(0, 'visualization &amp; animation', 'small_lec', '7 dmet', 52, 'rimon elias')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'physics', 'small_lec', '1engineering iii', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'physics', 'small_lec', '1engineering iv', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'csen', 'tut', '1engineering v 20', 49, 'ali saudi')
+(1, 'csen', 'tut', '1engineering v 21', 48, 'fatema gabr')
+(1, 'chemistry', 'tut', '1engineering v 19', 47, 'sherif aref')
+(1, 'chemistry', 'tut', '1engineering v 22', 46, 'mariam azab')
+(1, 'physics', 'tut', '1engineering v 23', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'math', 'tut', '1engineering vi 24', 44, 'lina helal')
+(1, 'math', 'tut', '1engineering vi 25', 43, 'karim ahmed')
+(1, 'math', 'tut', '1engineering vi 26', 42, 'mohamed hafez')
+(1, 'engd', 'tut', '1engineering vi 27', 41, 'hebatullah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'math', 'small_lec', '1engineering vii', 52, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'theory of computation', 'small_lec', '5 csen i', 51, 'haytham ismail')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'medi', 'tut', '5 csen ii 18', 40, 'menrit moawad')
+(1, 'dsd', 'tut', '5 csen ii 17', 39, 't2')
+(1, 'comm ne', 'tut', '5 csen ii 19', 38, 't3')
+(1, 'math', 'tut', '5 csen ii 20', 37, 'salma eljaki')
+(1, 'data bases', 'lab', '5 csen ii 21', 63, 'naglaa ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'math', 'tut', '5 dmet 23', 36, 'merna shafie')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'graphics', 'lab', '7 csen i 11', 62, 'gehad ismail')
+(1, 'microprocessors', 'tut', '7 csen i 12', 35, 'dina mohamed')
+(1, 'graphics', 'tut', '7 csen i 13', 34, 'salma mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'microprocessors', 'small_lec', '7 csen ii', 50, 'ahmed moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1, 'advanced medi', 'lab', '7 dmet 19', 61, 'hesham elhattab')
+(1, 'multimedi', 'tut', '7 dmet 20', 33, 'mohammed kapiel')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'math', 'tut', '1engineering iii 10', 49, 'karim elghazawy')
+(2, 'csen', 'tut', '1engineering iii 11', 48, 'ali saudi')
+(2, 'csen', 'tut', '1engineering iii 12', 47, 'nardeen khela')
+(2, 'chemistry', 'tut', '1engineering iii 13', 46, 'sherif aref')
+(2, 'physics', 'tut', '1engineering iii 14', 45, 'mustafa mustafa hanafi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'math', 'tut', '1engineering iv 15', 44, 'nourhan ali')
+(2, 'math', 'tut', '1engineering iv 16', 43, 'lina helal')
+(2, 'math', 'tut', '1engineering iv 17', 42, 'mohamed hafez')
+(2, 'engd', 'tut', '1engineering iv 18', 41, 'hebatullah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'physics', 'small_lec', '1engineering v', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'physics', 'small_lec', '1engineering vi', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'csen', 'tut', '3 iet/met iii 19', 40, 'mohamed elgamal')
+(2, 'csen', 'tut', '3 iet/met iii 20', 39, 'mohamed agamia')
+(2, 'elc', 'lab', '3 iet/met iii 21', 63, 'esraa ragab')
+(2, 'math', 'tut', '3 iet/met iii 22', 38, 'mohamed hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'dsd', 'tut', '5 csen i 10', 37, 'ahmed elghobashy')
+(2, 'data bases', 'lab', '5 csen i 11', 62, 'merna mikhael')
+(2, 'dsd', 'tut', '5 csen i 12', 36, 'hadeel mostafa')
+(2, 'theory of computation', 'tut', '5 csen i 13', 35, 'mark gergis')
+(2, 'comm ne', 'tut', '5 csen i 15', 34, 'salma eljaki')
 </t>
   </si>
   <si>
     <t xml:space="preserve">(2, 'theory of computation', 'tut', '5 csen ii 21', 33, 't4')
-(2, 'media ', 'tut', '5 csen ii 19', 32, 'yehia hatab')
-(2, 'math ', 'tut', '5 csen ii 16', 31, 'menrit moawad')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'computer graphics ', 'small_lec', '5 dmet', 52, 't6')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'computer graphics ', 'small_lec', '7 csen i', 51, 'rimon elias')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'advanced computer ', 'lab', '7 csen ii 14', 61, 'reham hassan')
-(2, 'advanced computer ', 'lab', '7 csen ii 15', 60, 'youssef amin')
-(2, 'graphics  ', 'lab', '7 csen ii 18', 59, 'mohammed kapiel')
-(2, 'algorithms ', 'tut', '7 csen ii 17', 30, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(2, 'visualization  t', 'tut', '7 dmet 20', 29, 'omar fathy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'physics ', 'small_lec', '1engineering ix', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'math ', 'small_lec', '1engineering v', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'csen ', 'lab', '1engineering vii 30', 63, 'ali saudi')
-(3, 'csen ', 'lab', '1engineering vii 31', 62, 'hadwa pasha')
-(3, 'csen ', 'lab', '1engineering vii 32', 61, 'noha abdellatif')
-(3, 'physics ', 'tut', '1engineering vii 28', 49, 'hazem abdelhafiz')
-(3, 'physics ', 'tut', '1engineering vii 29', 48, 'mustafa mustafa hanafi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'chemistry ', 'tut', '1engineering viii 34', 47, 'sherif aref')
-(3, 'chemistry ', 'tut', '1engineering viii 35', 46, 'mariam azab')
-(3, 'engd ', 'tut', '1engineering viii 33', 45, 'hebatullah mohamed')
-(3, 'math ', 'tut', '1engineering viii 36', 44, 'nourhan ali')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'physics ', 'small_lec', '1engineering x', 52, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'physics ', 'lab', '3 iet/met iii 19', 60, 'maha hamdy')
-(3, 'physics ', 'lab', '3 iet/met iii 20', 59, 'noha hassan')
-(3, 'elct ', 'lab', '3 iet/met iii 22', 58, 'esraa ragab')
-(3, 'dld ', 'tut', '3 iet/met iii 21', 43, 'ahmed abdelkader')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'data bases t ', 'tut', '5 csen i 12', 42, 'merna shafie')
-(3, 'math ', 'tut', '5 csen i 14', 41, 'naglaa ahmed')
-(3, 'math ', 'tut', '5 csen i 15', 40, 'fatma mahmoud')
+(2, 'medi', 'tut', '5 csen ii 19', 32, 'yehia hatab')
+(2, 'math', 'tut', '5 csen ii 16', 31, 'menrit moawad')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'computer graphics', 'small_lec', '5 dmet', 52, 't6')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'computer graphics', 'small_lec', '7 csen i', 51, 'rimon elias')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'advanced computer', 'lab', '7 csen ii 14', 61, 'reham hassan')
+(2, 'advanced computer', 'lab', '7 csen ii 15', 60, 'youssef amin')
+(2, 'graphics', 'lab', '7 csen ii 18', 59, 'mohammed kapiel')
+(2, 'algorithms', 'tut', '7 csen ii 17', 30, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(2, 'visualization', 'tut', '7 dmet 20', 29, 'omar fathy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'physics', 'small_lec', '1engineering ix', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'math', 'small_lec', '1engineering v', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'csen', 'lab', '1engineering vii 30', 63, 'ali saudi')
+(3, 'csen', 'lab', '1engineering vii 31', 62, 'hadwa pasha')
+(3, 'csen', 'lab', '1engineering vii 32', 61, 'noha abdellatif')
+(3, 'physics', 'tut', '1engineering vii 28', 49, 'hazem abdelhafiz')
+(3, 'physics', 'tut', '1engineering vii 29', 48, 'mustafa mustafa hanafi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'chemistry', 'tut', '1engineering viii 34', 47, 'sherif aref')
+(3, 'chemistry', 'tut', '1engineering viii 35', 46, 'mariam azab')
+(3, 'engd', 'tut', '1engineering viii 33', 45, 'hebatullah mohamed')
+(3, 'math', 'tut', '1engineering viii 36', 44, 'nourhan ali')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'physics', 'small_lec', '1engineering x', 52, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'physics', 'lab', '3 iet/met iii 19', 60, 'maha hamdy')
+(3, 'physics', 'lab', '3 iet/met iii 20', 59, 'noha hassan')
+(3, 'elc', 'lab', '3 iet/met iii 22', 58, 'esraa ragab')
+(3, 'dld', 'tut', '3 iet/met iii 21', 43, 'ahmed abdelkader')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'data bases', 'tut', '5 csen i 12', 42, 'merna shafie')
+(3, 'math', 'tut', '5 csen i 14', 41, 'naglaa ahmed')
+(3, 'math', 'tut', '5 csen i 15', 40, 'fatma mahmoud')
 </t>
   </si>
   <si>
     <t xml:space="preserve">(3, 'theory of computation', 'tut', '5 csen ii 17', 39, 'yehia hatab')
 (3, 'theory of computation', 'tut', '5 csen ii 18', 38, 't5')
-(3, 'dsd ', 'tut', '5 csen ii 19', 37, 'mark gergis')
-(3, 'comm net t', 'tut', '5 csen ii 21', 36, 'hadeel mostafa')
-(3, 'media ', 'tut', '5 csen ii 16', 35, 'salma eljaki')
-(3, 'dsd  ', 'tut', '5 csen ii 20', 34, 'menrit moawad')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'graphics t ', 'tut', '5 dmet 23', 33, 't7')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'microprocessors ', 'small_lec', '7 csen i', 51, 'ahmed moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'microprocessors ', 'tut', '7 csen ii 17', 32, 'dina mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(3, 'visualization  t', 'tut', '7 dmet 21', 31, 'omar fathy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'prot ', 'tut', '1engineering ix 37', 49, 't1')
-(4, 'csen tut ', 'tut', '1engineering ix 38', 47, 'fatema gabr')
-(4, 'csen tut ', 'tut', '1engineering ix 39', 46, 'ali saudi')
-(4, 'physics ', 'tut', '1engineering ix 41', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'math ', 'tut', '1engineering x 42', 44, 'lina helal')
-(4, 'math ', 'tut', '1engineering x 43', 43, 'mohamed hafez')
-(4, 'math ', 'tut', '1engineering x 44', 42, 'karim ahmed')
-(4, 'engd ', 'tut', '1engineering x 45', 41, 'hebatullah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'dld ', 'tut', '3 iet/met iii 22', 40, 'ahmed abdelkader')
-(4, 'math ', 'tut', '3 iet/met iii 21', 39, 'mohamed awad')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'graphics  ', 'lab', '7 csen i 13', 63, 'omar fathy')
-(4, 'algorithms ', 'tut', '7 csen i 12', 38, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(4, 'computer graphics ', 'small_lec', '7 csen ii', 54, 'rimon elias')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'prot ', 'tut', '1engineering v 20', 49, 'paula tanaghy')
-(5, 'csen tut ', 'tut', '1engineering v 19', 48, 't8')
-(5, 'chemistry ', 'tut', '1engineering v 21', 45, 't9')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'math ', 'tut', '1engineering vi 27', 44, 'hesham hussein')
-(5, 'csen tut ', 'tut', '1engineering vi 26', 43, 't11')
-(5, 'physics ', 'tut', '1engineering vi 24', 42, 't12')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'chemistry ', 'small_lec', '1engineering vii', 54, 't15')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'dld ', 'small_lec', '3 iet/met ii', 53, 'wassim alexan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(5, 'cs ', 'lab', '3 iet/met iii 19', 63, 'mohamed agamia')
-(5, 'cs ', 'lab', '3 iet/met iii 20', 62, 'mohamed elgamal')
-(5, 'csen t ', 'tut', '3 iet/met iii 21', 40, 'sama elbaroudy')
-(5, 'csen t ', 'tut', '3 iet/met iii 22', 39, 'nada ramadan')
+(3, 'dsd', 'tut', '5 csen ii 19', 37, 'mark gergis')
+(3, 'comm ne', 'tut', '5 csen ii 21', 36, 'hadeel mostafa')
+(3, 'medi', 'tut', '5 csen ii 16', 35, 'salma eljaki')
+(3, 'dsd', 'tut', '5 csen ii 20', 34, 'menrit moawad')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'graphics', 'tut', '5 dmet 23', 33, 't7')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'microprocessors', 'small_lec', '7 csen i', 51, 'ahmed moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'microprocessors', 'tut', '7 csen ii 17', 32, 'dina mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(3, 'visualization', 'tut', '7 dmet 21', 31, 'omar fathy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'pro', 'tut', '1engineering ix 37', 49, 't1')
+(4, 'csen', 'tut', '1engineering ix 38', 47, 'fatema gabr')
+(4, 'csen', 'tut', '1engineering ix 39', 46, 'ali saudi')
+(4, 'physics', 'tut', '1engineering ix 41', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'math', 'tut', '1engineering x 42', 44, 'lina helal')
+(4, 'math', 'tut', '1engineering x 43', 43, 'mohamed hafez')
+(4, 'math', 'tut', '1engineering x 44', 42, 'karim ahmed')
+(4, 'engd', 'tut', '1engineering x 45', 41, 'hebatullah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'dld', 'tut', '3 iet/met iii 22', 40, 'ahmed abdelkader')
+(4, 'math', 'tut', '3 iet/met iii 21', 39, 'mohamed awad')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'graphics', 'lab', '7 csen i 13', 63, 'omar fathy')
+(4, 'algorithms', 'tut', '7 csen i 12', 38, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(4, 'computer graphics', 'small_lec', '7 csen ii', 54, 'rimon elias')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'pro', 'tut', '1engineering v 20', 49, 'paula tanaghy')
+(5, 'csen', 'tut', '1engineering v 19', 48, 't8')
+(5, 'chemistry', 'tut', '1engineering v 21', 45, 't9')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'math', 'tut', '1engineering vi 27', 44, 'hesham hussein')
+(5, 'csen', 'tut', '1engineering vi 26', 43, 't11')
+(5, 'physics', 'tut', '1engineering vi 24', 42, 't12')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'chemistry', 'small_lec', '1engineering vii', 54, 't15')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'dld', 'small_lec', '3 iet/met ii', 53, 'wassim alexan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(5, 'cs', 'lab', '3 iet/met iii 19', 63, 'mohamed agamia')
+(5, 'cs', 'lab', '3 iet/met iii 20', 62, 'mohamed elgamal')
+(5, 'csen', 'tut', '3 iet/met iii 21', 40, 'sama elbaroudy')
+(5, 'csen', 'tut', '3 iet/met iii 22', 39, 'nada ramadan')
 </t>
   </si>
   <si>
@@ -389,1041 +389,1041 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(5, 'media ', 'tut', '5 csen ii 17', 38, 'menrit moawad')
-(5, 'data bases ', 'lab', '5 csen ii 20', 61, 'merna mikhael')
-(5, 'data basest ', 'tut', '5 csen ii 18', 37, 'ahmed ahmed')
-(5, 'data bases ', 'lab', '5 csen ii 19', 60, 'hana sharabash')
-(5, 'dsd  ', 'tut', '5 csen ii 21', 36, 't25')
+    <t xml:space="preserve">(5, 'medi', 'tut', '5 csen ii 17', 38, 'menrit moawad')
+(5, 'data bases', 'lab', '5 csen ii 20', 61, 'merna mikhael')
+(5, 'data bases', 'tut', '5 csen ii 18', 37, 'ahmed ahmed')
+(5, 'data bases', 'lab', '5 csen ii 19', 60, 'hana sharabash')
+(5, 'dsd', 'tut', '5 csen ii 21', 36, 't25')
 (5, 'theory of computation', 'tut', '5 csen ii 16', 35, 'hadeel mostafa')
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(5, 'comm net t', 'tut', '5 dmet 23', 34, 'salma eljaki')
-(5, 'graphics ', 'lab', '5 dmet 22', 59, 'salma mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'math ', 'tut', '1engineering ix 38', 42, 'mohamed hafez')
-(6, 'math ', 'tut', '1engineering ix 39', 41, 'walaa saad mahmoud')
-(6, 'math ', 'tut', '1engineering ix 40', 40, 'hesham hussein')
-(6, 'math ', 'tut', '1engineering ix 41', 39, 'abeer khalifa')
-(6, 'csen tut ', 'tut', '1engineering ix 37', 38, 't18')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'math ', 'tut', '1engineering v 19', 49, 'amgad amin')
-(6, 'math ', 'tut', '1engineering v 20', 48, 'khaled alagha')
-(6, 'math ', 'tut', '1engineering v 21', 47, 'lina helal')
-(6, 'csen ', 'lab', '1engineering v 23', 63, 'yehia hatab')
-(6, 'physics ', 'tut', '1engineering v 22', 46, 'mostafa elwaily')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'chemistry ', 'tut', '1engineering vi 24', 45, 'islam eddiasty')
-(6, 'chemistry ', 'tut', '1engineering vi 25', 44, 'yasmine mandour')
-(6, 'csen ', 'lab', '1engineering vi 26', 62, 't13')
-(6, 'csen tut ', 'tut', '1engineering vi 27', 43, 't14')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics ', 'small_lec', '1engineering vii', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics ', 'small_lec', '1engineering viii', 53, 't16')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics ', 'tut', '1engineering x 43', 37, 't21')
-(6, 'engd ', 'tut', '1engineering x 42', 36, 'alia badawy')
-(6, 'csen tut ', 'tut', '1engineering x 44', 35, 'sahar soussa')
-(6, 'csen tut ', 'tut', '1engineering x 45', 34, 'rana ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'dld ', 'small_lec', '3 iet/met i', 52, 'haitham ahmed omran')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics ', 'lab', '3 iet/met ii 11', 61, 'heba qenawy')
-(6, 'physics ', 'lab', '3 iet/met ii 18', 60, 'raghda abdelaziz')
-(6, 'math ', 'tut', '3 iet/met ii 12', 33, 'adel naeim')
-(6, 'csen t ', 'tut', '3 iet/met ii 13', 32, 'mina abdallah')
-(6, 'csen t ', 'tut', '3 iet/met ii 14', 31, 'carol doos')
-(6, 'elct t', 'tut', '3 iet/met ii 17', 30, 'sara imam')
-(6, 'physics ', 'tut', '3 iet/met ii 15', 29, 'noha hassan')
-(6, 'physics ', 'tut', '3 iet/met ii 16', 28, 'bassant salah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'physics ', 'small_lec', '3 iet/met iii', 51, 't24')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, 'math ', 'small_lec', '5 csen i', 50, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(6, ' introduction to communication networks  ', 'small_lec', '5 csen ii', 55, 'amr elmougy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics ', 'small_lec', '1engineering i', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics ', 'small_lec', '1engineering ii', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'chemistry ', 'tut', '1engineering ix 38', 45, 'liza botros')
-(7, 'chemistry ', 'tut', '1engineering ix 40', 44, 'yasmine mandour')
-(7, 'csen tut ', 'tut', '1engineering ix 41', 43, 'reem moursy')
-(7, 'csen ', 'lab', '1engineering ix 37', 63, 'noha abdellatif')
+    <t xml:space="preserve">(5, 'comm ne', 'tut', '5 dmet 23', 34, 'salma eljaki')
+(5, 'graphics', 'lab', '5 dmet 22', 59, 'salma mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'math', 'tut', '1engineering ix 38', 42, 'mohamed hafez')
+(6, 'math', 'tut', '1engineering ix 39', 41, 'walaa saad mahmoud')
+(6, 'math', 'tut', '1engineering ix 40', 40, 'hesham hussein')
+(6, 'math', 'tut', '1engineering ix 41', 39, 'abeer khalifa')
+(6, 'csen', 'tut', '1engineering ix 37', 38, 't18')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'math', 'tut', '1engineering v 19', 49, 'amgad amin')
+(6, 'math', 'tut', '1engineering v 20', 48, 'khaled alagha')
+(6, 'math', 'tut', '1engineering v 21', 47, 'lina helal')
+(6, 'csen', 'lab', '1engineering v 23', 63, 'yehia hatab')
+(6, 'physics', 'tut', '1engineering v 22', 46, 'mostafa elwaily')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'chemistry', 'tut', '1engineering vi 24', 45, 'islam eddiasty')
+(6, 'chemistry', 'tut', '1engineering vi 25', 44, 'yasmine mandour')
+(6, 'csen', 'lab', '1engineering vi 26', 62, 't13')
+(6, 'csen', 'tut', '1engineering vi 27', 43, 't14')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics', 'small_lec', '1engineering vii', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics', 'small_lec', '1engineering viii', 53, 't16')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics', 'tut', '1engineering x 43', 37, 't21')
+(6, 'engd', 'tut', '1engineering x 42', 36, 'alia badawy')
+(6, 'csen', 'tut', '1engineering x 44', 35, 'sahar soussa')
+(6, 'csen', 'tut', '1engineering x 45', 34, 'rana ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'dld', 'small_lec', '3 iet/met i', 52, 'haitham ahmed omran')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics', 'lab', '3 iet/met ii 11', 61, 'heba qenawy')
+(6, 'physics', 'lab', '3 iet/met ii 18', 60, 'raghda abdelaziz')
+(6, 'math', 'tut', '3 iet/met ii 12', 33, 'adel naeim')
+(6, 'csen', 'tut', '3 iet/met ii 13', 32, 'mina abdallah')
+(6, 'csen', 'tut', '3 iet/met ii 14', 31, 'carol doos')
+(6, 'elc', 'tut', '3 iet/met ii 17', 30, 'sara imam')
+(6, 'physics', 'tut', '3 iet/met ii 15', 29, 'noha hassan')
+(6, 'physics', 'tut', '3 iet/met ii 16', 28, 'bassant salah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'physics', 'small_lec', '3 iet/met iii', 51, 't24')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'math', 'small_lec', '5 csen i', 50, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(6, 'introduction to communication networks', 'small_lec', '5 csen ii', 55, 'amr elmougy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics', 'small_lec', '1engineering i', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics', 'small_lec', '1engineering ii', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'chemistry', 'tut', '1engineering ix 38', 45, 'liza botros')
+(7, 'chemistry', 'tut', '1engineering ix 40', 44, 'yasmine mandour')
+(7, 'csen', 'tut', '1engineering ix 41', 43, 'reem moursy')
+(7, 'csen', 'lab', '1engineering ix 37', 63, 'noha abdellatif')
 (7, 'physics', 'tut', '1engineering ix 39', 42, 'rasha emara')
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(7, 'math ', 'tut', '1engineering vii 31', 49, 'mostafa elwaily')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics ', 'tut', '1engineering viii 33', 47, 't17')
-(7, 'engd ', 'tut', '1engineering viii 34', 46, 'youmna elghandoor')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics ', 'tut', '1engineering x 44', 41, 'mustafa mustafa hanafi')
-(7, 'chemistry ', 'tut', '1engineering x 42', 40, 'youssef abou shady')
-(7, 'chemistry ', 'tut', '1engineering x 43', 39, 'islam eddiasty')
-(7, 'csen ', 'lab', '1engineering x 45', 62, 'rana ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'physics ', 'small_lec', '3 iet/met i', 52, 'amr abou shousha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'math ', 'tut', '3 iet/met ii 16', 38, 'hisham ibrahim')
-(7, 'math ', 'tut', '3 iet/met ii 17', 37, 'abdallah mohamed')
-(7, 'cs ', 'lab', '3 iet/met ii 13', 61, 'mina abdallah')
-(7, 'cs ', 'lab', '3 iet/met ii 14', 60, 'carol doos')
-(7, 'csen t ', 'tut', '3 iet/met ii 15', 36, 'nourhan ramadan')
-(7, 'physics ', 'tut', '3 iet/met ii 12', 35, 'bassant salah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'math iii ', 'small_lec', '3 iet/met iii', 51, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(7, 'data basest ', 'tut', '5 csen i 11', 34, 'ahmed ahmed')
+    <t xml:space="preserve">(7, 'math', 'tut', '1engineering vii 31', 49, 'mostafa elwaily')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics', 'tut', '1engineering viii 33', 47, 't17')
+(7, 'engd', 'tut', '1engineering viii 34', 46, 'youmna elghandoor')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics', 'tut', '1engineering x 44', 41, 'mustafa mustafa hanafi')
+(7, 'chemistry', 'tut', '1engineering x 42', 40, 'youssef abou shady')
+(7, 'chemistry', 'tut', '1engineering x 43', 39, 'islam eddiasty')
+(7, 'csen', 'lab', '1engineering x 45', 62, 'rana ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'physics', 'small_lec', '3 iet/met i', 52, 'amr abou shousha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'math', 'tut', '3 iet/met ii 16', 38, 'hisham ibrahim')
+(7, 'math', 'tut', '3 iet/met ii 17', 37, 'abdallah mohamed')
+(7, 'cs', 'lab', '3 iet/met ii 13', 61, 'mina abdallah')
+(7, 'cs', 'lab', '3 iet/met ii 14', 60, 'carol doos')
+(7, 'csen', 'tut', '3 iet/met ii 15', 36, 'nourhan ramadan')
+(7, 'physics', 'tut', '3 iet/met ii 12', 35, 'bassant salah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'math iii', 'small_lec', '3 iet/met iii', 51, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(7, 'data bases', 'tut', '5 csen i 11', 34, 'ahmed ahmed')
 (7, 'theory of computation', 'tut', '5 csen i 12', 33, 'mark gergis')
-(7, 'data bases ', 'lab', '5 csen i 14', 59, 'hana sharabash')
-(7, 'comm net t', 'tut', '5 csen i 13', 32, 'ahmed helmy')
-(7, 'media ', 'tut', '5 csen i 10', 31, 'ethar elhinamy')
+(7, 'data bases', 'lab', '5 csen i 14', 59, 'hana sharabash')
+(7, 'comm ne', 'tut', '5 csen i 13', 32, 'ahmed helmy')
+(7, 'medi', 'tut', '5 csen i 10', 31, 'ethar elhinamy')
 (7, 'theory of computation', 'tut', '5 csen i 15', 30, 'youssef amin')
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(7, 'math ', 'small_lec', '5 csen ii', 50, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'csen ', 'small_lec', '1engineering i', 54, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'prot ', 'tut', '1engineering ix 38', 49, 'paula tanaghy')
-(8, 'prot ', 'tut', '1engineering ix 39', 48, 'andrew faried')
-(8, 'math ', 'tut', '1engineering ix 37', 47, 't19')
-(8, 'csen ', 'lab', '1engineering ix 41', 63, 'noha abdellatif')
-(8, 'csen tut ', 'tut', '1engineering ix 40', 46, 'ali saudi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'chemistry ', 'small_lec', '1engineering v', 53, 't10')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'physics ', 'tut', '1engineering x 42', 45, 'mustafa mustafa hanafi')
-(8, 'csen ', 'lab', '1engineering x 44', 62, 'sahar soussa')
-(8, 'engd ', 'tut', '1engineering x 43', 44, 't22')
-(8, 'math ', 'tut', '1engineering x 45', 43, 't23')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'physics ', 'lab', '3 iet/met i 1', 61, 'maha hamdy')
-(8, 'physics ', 'lab', '3 iet/met i 2', 60, 'raghda abdelaziz')
-(8, 'dld ', 'tut', '3 iet/met i 4', 42, 'sara mobarak')
-(8, 'elct ', 'lab', '3 iet/met i 5', 59, 'maha elfeshawy')
-(8, 'elct ', 'lab', '3 iet/met i 10', 58, 'omar fahmy el kharbotly')
-(8, 'csen t ', 'tut', '3 iet/met i 3', 41, 'nada ramadan')
-(8, 'csen t ', 'tut', '3 iet/met i 9', 40, 'mina abdallah')
-(8, 'elct ', 'tut', '3 iet/met i 8', 39, 'nouran arafat')
-(8, 'physics ', 'tut', '3 iet/met i 6', 38, 'noha hassan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'physics ', 'small_lec', '3 iet/met ii', 52, 'amr abou shousha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'digital system design ', 'small_lec', '5 csen i', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'data bases ', 'lab', '5 csen ii 17', 57, 'hana sharabash')
+    <t xml:space="preserve">(7, 'math', 'small_lec', '5 csen ii', 50, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'csen', 'small_lec', '1engineering i', 54, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'pro', 'tut', '1engineering ix 38', 49, 'paula tanaghy')
+(8, 'pro', 'tut', '1engineering ix 39', 48, 'andrew faried')
+(8, 'math', 'tut', '1engineering ix 37', 47, 't19')
+(8, 'csen', 'lab', '1engineering ix 41', 63, 'noha abdellatif')
+(8, 'csen', 'tut', '1engineering ix 40', 46, 'ali saudi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'chemistry', 'small_lec', '1engineering v', 53, 't10')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'physics', 'tut', '1engineering x 42', 45, 'mustafa mustafa hanafi')
+(8, 'csen', 'lab', '1engineering x 44', 62, 'sahar soussa')
+(8, 'engd', 'tut', '1engineering x 43', 44, 't22')
+(8, 'math', 'tut', '1engineering x 45', 43, 't23')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'physics', 'lab', '3 iet/met i 1', 61, 'maha hamdy')
+(8, 'physics', 'lab', '3 iet/met i 2', 60, 'raghda abdelaziz')
+(8, 'dld', 'tut', '3 iet/met i 4', 42, 'sara mobarak')
+(8, 'elc', 'lab', '3 iet/met i 5', 59, 'maha elfeshawy')
+(8, 'elc', 'lab', '3 iet/met i 10', 58, 'omar fahmy el kharbotly')
+(8, 'csen', 'tut', '3 iet/met i 3', 41, 'nada ramadan')
+(8, 'csen', 'tut', '3 iet/met i 9', 40, 'mina abdallah')
+(8, 'elc', 'tut', '3 iet/met i 8', 39, 'nouran arafat')
+(8, 'physics', 'tut', '3 iet/met i 6', 38, 'noha hassan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'physics', 'small_lec', '3 iet/met ii', 52, 'amr abou shousha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'digital system design', 'small_lec', '5 csen i', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'data bases', 'lab', '5 csen ii 17', 57, 'hana sharabash')
 (8, 'theory of computation', 'tut', '5 csen ii 20', 37, 'youssef amin')
-(8, 'comm net t', 'tut', '5 csen ii 18', 36, 'ahmed helmy')
+(8, 'comm ne', 'tut', '5 csen ii 18', 36, 'ahmed helmy')
 (8, 'theory of computation', 'tut', '5 csen ii 19', 35, 'mark gergis')
-(8, 'comm net t', 'tut', '5 csen ii 16', 34, 't26')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(8, 'media ', 'tut', '5 dmet 23', 33, 'menrit moawad')
-(8, 'dsd  ', 'tut', '5 dmet 22', 32, 'hadeel mostafa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(9, 'csen ', 'small_lec', '1engineering ix', 54, 't20')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(9, 'prot ', 'tut', '1engineering v 19', 49, 'paula tanaghy')
-(9, 'prot ', 'tut', '1engineering v 21', 48, 'andrew faried')
-(9, 'math ', 'tut', '1engineering v 22', 47, 'abeer khalifa')
-(9, 'math ', 'tut', '1engineering v 23', 46, 'hesham hussein')
-(9, 'chemistry ', 'tut', '1engineering v 20', 45, 'yasmine mandour')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(9, 'engd ', 'tut', '1engineering vi 24', 44, 'hebatullah mohamed')
-(9, 'engd ', 'tut', '1engineering vi 25', 43, 'heba moussa')
-(9, 'physics ', 'tut', '1engineering vi 26', 42, 'mohamed zamzam')
-(9, 'csen ', 'lab', '1engineering vi 27', 63, 'yehia hatab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(9, 'math ', 'tut', '3 iet/met i 8', 41, 'mohamed awad')
-(9, 'math ', 'tut', '3 iet/met i 9', 40, 'ahmed tawfik')
-(9, 'elct ', 'lab', '3 iet/met i 6', 62, 'maha elfeshawy')
-(9, 'csen t ', 'tut', '3 iet/met i 4', 39, 'mohamed agamia')
-(9, 'csen t ', 'tut', '3 iet/met i 5', 38, 'mina abdallah')
-(9, 'csen t ', 'tut', '3 iet/met i 10', 37, 'nourhan ramadan')
-(9, 'physics ', 'tut', '3 iet/met i 3', 36, 'noha hassan')
-(9, 'physics ', 'tut', '3 iet/met i 7', 35, 'bassant salah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'math ', 'tut', '1engineering i 3', 49, 'khaled alagha')
-(10, 'math ', 'tut', '1engineering i 4', 48, 'hesham hussein')
-(10, 'math ', 'tut', '1engineering i 5', 47, 'amgad amin')
-(10, 'csen tut ', 'tut', '1engineering i 2', 46, 'rana ahmed')
-(10, 'physics ', 'tut', '1engineering i 1', 45, 'rasha emara')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'physics ', 'tut', '1engineering ii 6', 44, 'mostafa elwaily')
-(10, 'csen tut ', 'tut', '1engineering ii 7', 43, 'ali saudi')
-(10, 'csen tut ', 'tut', '1engineering ii 8', 42, 'sahar soussa')
-(10, 'csen tut ', 'tut', '1engineering ii 9', 41, 'reem moursy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'math iii ', 'small_lec', '3 iet/met ii', 54, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'physics ', 'lab', '3 iet/met iii 21', 63, 'raghda abdelaziz')
-(10, 'physics ', 'lab', '3 iet/met iii 22', 62, 'heba qenawy')
-(10, 'elct t ', 'tut', '3 iet/met iii 19', 40, 'sara imam')
-(10, 'elct t ', 'tut', '3 iet/met iii 20', 39, 'nouran arafat')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'databases   ', 'small_lec', '5 csen i', 53, 'nada hamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'theory of computation ', 'small_lec', '5 csen ii', 52, 'haythem ismail')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(10, 'data basest ', 'tut', '5 dmet 23', 38, 'gina younes')
-(10, 'math ', 'tut', '5 dmet 22', 37, 'naglaa ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'prot ', 'tut', '1engineering i 1', 49, 'andrew faried')
-(11, 'prot ', 'tut', '1engineering i 2', 48, 'paula tanaghy')
-(11, 'physics ', 'tut', '1engineering i 3', 47, 'rasha emara')
-(11, 'csen tut ', 'tut', '1engineering i 4', 46, 'rana ahmed')
-(11, 'chemistry ', 'tut', '1engineering i 5', 45, 'islam eddiasty')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math ', 'tut', '1engineering ii 6', 44, 'khaled alagha')
-(11, 'math ', 'tut', '1engineering ii 7', 43, 'hesham hussein')
-(11, 'csen ', 'lab', '1engineering ii 8', 63, 'ali saudi')
-(11, 'csen ', 'lab', '1engineering ii 9', 62, 'sahar soussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math ', 'tut', '1engineering iii 10', 42, 'abeer khalifa')
-(11, 'math ', 'tut', '1engineering iii 11', 41, 'amgad amin')
-(11, 'math ', 'tut', '1engineering iii 12', 40, 'karim elghazawy')
-(11, 'chemistry ', 'tut', '1engineering iii 14', 39, 'sherif aref')
-(11, 'physics ', 'tut', '1engineering iii 13', 38, 'mustafa mustafa hanafi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'chemistry ', 'tut', '1engineering iv 17', 37, 'yasmine mandour')
-(11, 'chemistry ', 'tut', '1engineering iv ', 36, 'mostafa elwaily')
-(11, 'csen tut ', 'tut', '1engineering iv 15', 35, 'reem moursy')
-(11, 'engd ', 'tut', '1engineering iv 16', 34, 'hebatullah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math iii ', 'small_lec', '3 iet/met i', 54, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math ', 'tut', '3 iet/met iii 19', 33, 'ahmed tawfik')
-(11, 'math ', 'tut', '3 iet/met iii 20', 32, 'mohamed hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'math ', 'tut', '5 csen i 10', 31, 'fatma mahmoud')
-(11, 'math ', 'tut', '5 csen i 12', 30, 'naglaa ahmed')
-(11, 'media ', 'tut', '5 csen i 11', 29, 'ethar elhinamy')
-(11, 'dsd ', 'tut', '5 csen i 15', 28, 'hadeel mostafa')
-(11, 'data bases ', 'lab', '5 csen i 13', 61, 'hana sharabash')
-(11, 'comm net t', 'tut', '5 csen i 14', 27, 't27')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(11, 'databases ', 'small_lec', '5 csen ii', 53, 'nada hamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'prot ', 'tut', '1engineering i 3', 49, 'andrew faried')
-(12, 'math ', 'tut', '1engineering i 1', 48, 'walaa saad mahmoud')
-(12, 'math ', 'tut', '1engineering i 2', 47, 'nourhan ali')
-(12, 'csen tut ', 'tut', '1engineering i 5', 46, 'sahar soussa')
-(12, 'chemistry ', 'tut', '1engineering i 4', 45, 'islam eddiasty')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'csen tut ', 'tut', '1engineering ii 6', 44, 'rana ahmed')
-(12, 'physics ', 'tut', '1engineering ii 7', 43, 'mostafa elwaily')
-(12, 'math ', 'tut', '1engineering ii 8', 42, 'amgad amin')
-(12, 'math ', 'tut', '1engineering ii 9', 41, 'abeer khalifa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'math ', 'small_lec', '1engineering iii', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'physics ', 'lab', '3 iet/met i 3', 63, 'maha hamdy')
-(12, 'physics ', 'lab', '3 iet/met i 4', 62, 'bassant salah')
-(12, 'physics ', 'tut', '3 iet/met i 2', 40, 'heba qenawy')
-(12, 'elct t ', 'tut', '3 iet/met i 1', 39, 'noha shouman')
-(12, 'elct t ', 'tut', '3 iet/met i 6', 38, 'ghadir dogim')
-(12, 'elct t ', 'tut', '3 iet/met i 7', 37, 'monica sary')
-(12, 'dld ', 'tut', '3 iet/met i 10', 36, 'mennatallah hassabelnaby')
-(12, 'csen t', 'tut', '3 iet/met i 8', 35, 'mohamed ashry')
-(12, 'cs ', 'lab', '3 iet/met i 5', 61, 'mohamed agamia')
-(12, 'cs ', 'lab', '3 iet/met i 9', 60, 'mina abdallah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'elct ', 'small_lec', '3 iet/met iii', 53, 'yasser hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'theory of computation ', 'small_lec', '5 csen i', 52, 'haythem ismail')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'comm net t', 'tut', '5 csen ii 20', 34, 't29')
-(12, 'data basest ', 'tut', '5 csen ii 16', 33, 'merna shafie')
-(12, 'data basest ', 'tut', '5 csen ii 21', 32, 'gina younes')
-(12, 'math ', 'tut', '5 csen ii 17', 31, 'naglaa ahmed')
-(12, 'math ', 'tut', '5 csen ii 19', 30, 'fatma mahmoud')
-(12, 'data bases ', 'lab', '5 csen ii 18', 59, 'hana sharabash')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(12, 'dsd ', 'tut', '5 dmet 23', 29, 'hadeel mostafa')
-(12, 'media ', 'tut', '5 dmet 22', 28, 'ethar elhinamy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'math ', 'small_lec', '1engineering i', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'math ', 'tut', '1engineering iii 13', 49, 'abeer khalifa')
-(13, 'math ', 'tut', '1engineering iii 14', 48, 'nourhan ali')
-(13, 'csen ', 'lab', '1engineering iii 11', 63, 'ali saudi')
-(13, 'csen ', 'lab', '1engineering iii 12', 62, 'sahar soussa')
-(13, 'physics ', 'tut', '1engineering iii 10', 47, 'rasha emara')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'math ', 'tut', '1engineering iv 18', 46, 'hesham hussein')
-(13, 'csen ', 'lab', '1engineering iv 15', 61, 'nardeen khela')
-(13, 'chemistry ', 'tut', '1engineering iv 16', 45, 'yasmine mandour')
-(13, 'chemistry ', 'tut', '1engineering iv ', 44, 'heba moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'dld ', 'tut', '3 iet/met i 7', 43, 'sara mobarak')
-(13, 'dld ', 'tut', '3 iet/met i 8', 42, 'hadeer abdelkader')
-(13, 'math ', 'tut', '3 iet/met i 1', 41, 'hisham ibrahim')
-(13, 'math ', 'tut', '3 iet/met i 2', 40, 'shady nagy')
-(13, 'math ', 'tut', '3 iet/met i 6', 39, 'ahmed tawfik')
-(13, 'math ', 'tut', '3 iet/met i 10', 38, 'abdallah mohamed')
-(13, 'elct t ', 'tut', '3 iet/met i 5', 37, 'noha shouman')
-(13, 'elct t ', 'tut', '3 iet/met i 9', 36, 'monica sary')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'dld ', 'tut', '3 iet/met ii 13', 35, 'mennatallah hassabelnaby')
-(13, 'dld ', 'tut', '3 iet/met ii 16', 34, 'fadwa foda')
-(13, 'elct ', 'lab', '3 iet/met ii 11', 60, 'yasmin hanafy')
-(13, 'elct ', 'lab', '3 iet/met ii 12', 59, 'mohamed ibrahim')
-(13, 'math ', 'tut', '3 iet/met ii 18', 33, 'mohamed hussein')
-(13, 'physics ', 'tut', '3 iet/met ii 17 ', 32, 'heba qenawy')
-(13, 'physics ', 'tut', '3 iet/met ii 14', 31, 'anke klingner')
-(13, 'csen ', 'lab', '3 iet/met ii 15', 58, 'nourhan ramadan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'csen  ', 'small_lec', '3 iet/met iii', 53, 'wael abulsadat')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'comm net t', 'tut', '5 csen i 10', 30, 't28')
+(8, 'comm ne', 'tut', '5 csen ii 16', 34, 't26')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(8, 'medi', 'tut', '5 dmet 23', 33, 'menrit moawad')
+(8, 'dsd', 'tut', '5 dmet 22', 32, 'hadeel mostafa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9, 'csen', 'small_lec', '1engineering ix', 54, 't20')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9, 'pro', 'tut', '1engineering v 19', 49, 'paula tanaghy')
+(9, 'pro', 'tut', '1engineering v 21', 48, 'andrew faried')
+(9, 'math', 'tut', '1engineering v 22', 47, 'abeer khalifa')
+(9, 'math', 'tut', '1engineering v 23', 46, 'hesham hussein')
+(9, 'chemistry', 'tut', '1engineering v 20', 45, 'yasmine mandour')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9, 'engd', 'tut', '1engineering vi 24', 44, 'hebatullah mohamed')
+(9, 'engd', 'tut', '1engineering vi 25', 43, 'heba moussa')
+(9, 'physics', 'tut', '1engineering vi 26', 42, 'mohamed zamzam')
+(9, 'csen', 'lab', '1engineering vi 27', 63, 'yehia hatab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(9, 'math', 'tut', '3 iet/met i 8', 41, 'mohamed awad')
+(9, 'math', 'tut', '3 iet/met i 9', 40, 'ahmed tawfik')
+(9, 'elc', 'lab', '3 iet/met i 6', 62, 'maha elfeshawy')
+(9, 'csen', 'tut', '3 iet/met i 4', 39, 'mohamed agamia')
+(9, 'csen', 'tut', '3 iet/met i 5', 38, 'mina abdallah')
+(9, 'csen', 'tut', '3 iet/met i 10', 37, 'nourhan ramadan')
+(9, 'physics', 'tut', '3 iet/met i 3', 36, 'noha hassan')
+(9, 'physics', 'tut', '3 iet/met i 7', 35, 'bassant salah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'math', 'tut', '1engineering i 3', 49, 'khaled alagha')
+(10, 'math', 'tut', '1engineering i 4', 48, 'hesham hussein')
+(10, 'math', 'tut', '1engineering i 5', 47, 'amgad amin')
+(10, 'csen', 'tut', '1engineering i 2', 46, 'rana ahmed')
+(10, 'physics', 'tut', '1engineering i 1', 45, 'rasha emara')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'physics', 'tut', '1engineering ii 6', 44, 'mostafa elwaily')
+(10, 'csen', 'tut', '1engineering ii 7', 43, 'ali saudi')
+(10, 'csen', 'tut', '1engineering ii 8', 42, 'sahar soussa')
+(10, 'csen', 'tut', '1engineering ii 9', 41, 'reem moursy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'math iii', 'small_lec', '3 iet/met ii', 54, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'physics', 'lab', '3 iet/met iii 21', 63, 'raghda abdelaziz')
+(10, 'physics', 'lab', '3 iet/met iii 22', 62, 'heba qenawy')
+(10, 'elc', 'tut', '3 iet/met iii 19', 40, 'sara imam')
+(10, 'elc', 'tut', '3 iet/met iii 20', 39, 'nouran arafat')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'databases', 'small_lec', '5 csen i', 53, 'nada hamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'theory of computation', 'small_lec', '5 csen ii', 52, 'haythem ismail')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(10, 'data bases', 'tut', '5 dmet 23', 38, 'gina younes')
+(10, 'math', 'tut', '5 dmet 22', 37, 'naglaa ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'pro', 'tut', '1engineering i 1', 49, 'andrew faried')
+(11, 'pro', 'tut', '1engineering i 2', 48, 'paula tanaghy')
+(11, 'physics', 'tut', '1engineering i 3', 47, 'rasha emara')
+(11, 'csen', 'tut', '1engineering i 4', 46, 'rana ahmed')
+(11, 'chemistry', 'tut', '1engineering i 5', 45, 'islam eddiasty')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math', 'tut', '1engineering ii 6', 44, 'khaled alagha')
+(11, 'math', 'tut', '1engineering ii 7', 43, 'hesham hussein')
+(11, 'csen', 'lab', '1engineering ii 8', 63, 'ali saudi')
+(11, 'csen', 'lab', '1engineering ii 9', 62, 'sahar soussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math', 'tut', '1engineering iii 10', 42, 'abeer khalifa')
+(11, 'math', 'tut', '1engineering iii 11', 41, 'amgad amin')
+(11, 'math', 'tut', '1engineering iii 12', 40, 'karim elghazawy')
+(11, 'chemistry', 'tut', '1engineering iii 14', 39, 'sherif aref')
+(11, 'physics', 'tut', '1engineering iii 13', 38, 'mustafa mustafa hanafi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'chemistry', 'tut', '1engineering iv 17', 37, 'yasmine mandour')
+(11, 'chemistry', 'tut', '1engineering iv ', 36, 'mostafa elwaily')
+(11, 'csen', 'tut', '1engineering iv 15', 35, 'reem moursy')
+(11, 'engd', 'tut', '1engineering iv 16', 34, 'hebatullah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math iii', 'small_lec', '3 iet/met i', 54, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math', 'tut', '3 iet/met iii 19', 33, 'ahmed tawfik')
+(11, 'math', 'tut', '3 iet/met iii 20', 32, 'mohamed hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'math', 'tut', '5 csen i 10', 31, 'fatma mahmoud')
+(11, 'math', 'tut', '5 csen i 12', 30, 'naglaa ahmed')
+(11, 'medi', 'tut', '5 csen i 11', 29, 'ethar elhinamy')
+(11, 'dsd', 'tut', '5 csen i 15', 28, 'hadeel mostafa')
+(11, 'data bases', 'lab', '5 csen i 13', 61, 'hana sharabash')
+(11, 'comm ne', 'tut', '5 csen i 14', 27, 't27')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(11, 'databases', 'small_lec', '5 csen ii', 53, 'nada hamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'pro', 'tut', '1engineering i 3', 49, 'andrew faried')
+(12, 'math', 'tut', '1engineering i 1', 48, 'walaa saad mahmoud')
+(12, 'math', 'tut', '1engineering i 2', 47, 'nourhan ali')
+(12, 'csen', 'tut', '1engineering i 5', 46, 'sahar soussa')
+(12, 'chemistry', 'tut', '1engineering i 4', 45, 'islam eddiasty')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'csen', 'tut', '1engineering ii 6', 44, 'rana ahmed')
+(12, 'physics', 'tut', '1engineering ii 7', 43, 'mostafa elwaily')
+(12, 'math', 'tut', '1engineering ii 8', 42, 'amgad amin')
+(12, 'math', 'tut', '1engineering ii 9', 41, 'abeer khalifa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'math', 'small_lec', '1engineering iii', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'physics', 'lab', '3 iet/met i 3', 63, 'maha hamdy')
+(12, 'physics', 'lab', '3 iet/met i 4', 62, 'bassant salah')
+(12, 'physics', 'tut', '3 iet/met i 2', 40, 'heba qenawy')
+(12, 'elc', 'tut', '3 iet/met i 1', 39, 'noha shouman')
+(12, 'elc', 'tut', '3 iet/met i 6', 38, 'ghadir dogim')
+(12, 'elc', 'tut', '3 iet/met i 7', 37, 'monica sary')
+(12, 'dld', 'tut', '3 iet/met i 10', 36, 'mennatallah hassabelnaby')
+(12, 'csen', 'tut', '3 iet/met i 8', 35, 'mohamed ashry')
+(12, 'cs', 'lab', '3 iet/met i 5', 61, 'mohamed agamia')
+(12, 'cs', 'lab', '3 iet/met i 9', 60, 'mina abdallah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'elc', 'small_lec', '3 iet/met iii', 53, 'yasser hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'theory of computation', 'small_lec', '5 csen i', 52, 'haythem ismail')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'comm ne', 'tut', '5 csen ii 20', 34, 't29')
+(12, 'data bases', 'tut', '5 csen ii 16', 33, 'merna shafie')
+(12, 'data bases', 'tut', '5 csen ii 21', 32, 'gina younes')
+(12, 'math', 'tut', '5 csen ii 17', 31, 'naglaa ahmed')
+(12, 'math', 'tut', '5 csen ii 19', 30, 'fatma mahmoud')
+(12, 'data bases', 'lab', '5 csen ii 18', 59, 'hana sharabash')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(12, 'dsd', 'tut', '5 dmet 23', 29, 'hadeel mostafa')
+(12, 'medi', 'tut', '5 dmet 22', 28, 'ethar elhinamy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'math', 'small_lec', '1engineering i', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'math', 'tut', '1engineering iii 13', 49, 'abeer khalifa')
+(13, 'math', 'tut', '1engineering iii 14', 48, 'nourhan ali')
+(13, 'csen', 'lab', '1engineering iii 11', 63, 'ali saudi')
+(13, 'csen', 'lab', '1engineering iii 12', 62, 'sahar soussa')
+(13, 'physics', 'tut', '1engineering iii 10', 47, 'rasha emara')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'math', 'tut', '1engineering iv 18', 46, 'hesham hussein')
+(13, 'csen', 'lab', '1engineering iv 15', 61, 'nardeen khela')
+(13, 'chemistry', 'tut', '1engineering iv 16', 45, 'yasmine mandour')
+(13, 'chemistry', 'tut', '1engineering iv ', 44, 'heba moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'dld', 'tut', '3 iet/met i 7', 43, 'sara mobarak')
+(13, 'dld', 'tut', '3 iet/met i 8', 42, 'hadeer abdelkader')
+(13, 'math', 'tut', '3 iet/met i 1', 41, 'hisham ibrahim')
+(13, 'math', 'tut', '3 iet/met i 2', 40, 'shady nagy')
+(13, 'math', 'tut', '3 iet/met i 6', 39, 'ahmed tawfik')
+(13, 'math', 'tut', '3 iet/met i 10', 38, 'abdallah mohamed')
+(13, 'elc', 'tut', '3 iet/met i 5', 37, 'noha shouman')
+(13, 'elc', 'tut', '3 iet/met i 9', 36, 'monica sary')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'dld', 'tut', '3 iet/met ii 13', 35, 'mennatallah hassabelnaby')
+(13, 'dld', 'tut', '3 iet/met ii 16', 34, 'fadwa foda')
+(13, 'elc', 'lab', '3 iet/met ii 11', 60, 'yasmin hanafy')
+(13, 'elc', 'lab', '3 iet/met ii 12', 59, 'mohamed ibrahim')
+(13, 'math', 'tut', '3 iet/met ii 18', 33, 'mohamed hussein')
+(13, 'physics', 'tut', '3 iet/met ii 17 ', 32, 'heba qenawy')
+(13, 'physics', 'tut', '3 iet/met ii 14', 31, 'anke klingner')
+(13, 'csen', 'lab', '3 iet/met ii 15', 58, 'nourhan ramadan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'csen', 'small_lec', '3 iet/met iii', 53, 'wael abulsadat')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'comm ne', 'tut', '5 csen i 10', 30, 't28')
 (13, 'theory of computation', 'tut', '5 csen i 11', 29, 'mark gergis')
 (13, 'data bases', 'lab', '5 csen i 12', 57, 'hana sharabash')
-(13, 'math ', 'tut', '5 csen i 13', 28, 'fatma mahmoud')
-(13, 'media ', 'tut', '5 csen i 14', 27, 'ethar elhinamy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(13, 'data basest ', 'tut', '5 csen ii 20', 26, 'merna shafie')
-(13, 'dsd ', 'tut', '5 csen ii 16', 25, 't30')
-(13, 'media ', 'tut', '5 csen ii 21', 24, 'menrit moawad')
-(13, 'math ', 'tut', '5 csen ii 18', 23, 'naglaa ahmed')
-(13, 'data basest ', 'tut', '5 csen ii 17', 22, 'ahmed ahmed')
+(13, 'math', 'tut', '5 csen i 13', 28, 'fatma mahmoud')
+(13, 'medi', 'tut', '5 csen i 14', 27, 'ethar elhinamy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(13, 'data bases', 'tut', '5 csen ii 20', 26, 'merna shafie')
+(13, 'dsd', 'tut', '5 csen ii 16', 25, 't30')
+(13, 'medi', 'tut', '5 csen ii 21', 24, 'menrit moawad')
+(13, 'math', 'tut', '5 csen ii 18', 23, 'naglaa ahmed')
+(13, 'data bases', 'tut', '5 csen ii 17', 22, 'ahmed ahmed')
 </t>
   </si>
   <si>
     <t xml:space="preserve">(13, 'data bases', 'lab', '5 dmet 23', 56, 'sama abel monem')
-(13, 'comm net t', 'tut', '5 dmet 22', 21, 't31')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'csen tut ', 'tut', '1engineering i 1', 49, 'ali saudi')
-(15, 'csen tut ', 'tut', '1engineering i 3', 48, 'reem moursy')
-(15, 'math ', 'tut', '1engineering i 4', 47, 'khaled alagha')
-(15, 'math ', 'tut', '1engineering i 5', 46, 'hesham hussein')
-(15, 'csen ', 'lab', '1engineering i 2', 63, 'rana ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'engd ', 'tut', '1engineering ii 6', 45, 'alia badawy')
-(15, 'physics ', 'tut', '1engineering ii 9', 44, 'mostafa elwaily')
-(15, 'chemistry ', 'tut', '1engineering ii 7', 43, 'liza botros')
-(15, 'chemistry ', 'tut', '1engineering ii 8', 42, 'youssef abou shady')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'chemistry ', 'small_lec', '1engineering iii', 54, 'eman abdelsayed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'physics ', 'lab', '3 iet/met i 5', 62, 'raghda abdelaziz')
-(15, 'physics ', 'lab', '3 iet/met i 6', 61, 'noha hassan')
-(15, 'cs ', 'lab', '3 iet/met i 10', 60, 'nourhan ramadan')
-(15, 'elct ', 'lab', '3 iet/met i 3', 59, 't32')
-(15, 'physics ', 'tut', '3 iet/met i 1', 41, 'sarah abouelhasab')
-(15, 'elct ', 'tut', '3 iet/met i 2', 40, 'ghadir dogim')
-(15, 'math ', 'tut', '3 iet/met i 7', 39, 'alyaa hegazy')
-(15, 'math ', 'tut', '3 iet/met i 8', 38, 'mohamed awad')
-(15, 'math ', 'tut', '3 iet/met i 9', 37, 'ahmed tawfik')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'math iii ', 'small_lec', '3 iet/met ii', 53, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'dld ', 'tut', '3 iet/met iii 20', 36, 'yasmin massoud')
-(15, 'physics ', 'tut', '3 iet/met iii 19', 35, 'maha hamdy')
-(15, 'physics ', 'tut', '3 iet/met iii 22', 34, 'anke klingner')
-(15, 'cs ', 'lab', '3 iet/met iii 21', 57, 'nada ramadan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, ' microprocessors ', 'small_lec', '7 csen i', 52, 'ahmed moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(15, 'analysis &amp; design of algorithms ', 'small_lec', '7 csen ii', 51, 'wael abulsadat')
+(13, 'comm ne', 'tut', '5 dmet 22', 21, 't31')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'csen', 'tut', '1engineering i 1', 49, 'ali saudi')
+(15, 'csen', 'tut', '1engineering i 3', 48, 'reem moursy')
+(15, 'math', 'tut', '1engineering i 4', 47, 'khaled alagha')
+(15, 'math', 'tut', '1engineering i 5', 46, 'hesham hussein')
+(15, 'csen', 'lab', '1engineering i 2', 63, 'rana ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'engd', 'tut', '1engineering ii 6', 45, 'alia badawy')
+(15, 'physics', 'tut', '1engineering ii 9', 44, 'mostafa elwaily')
+(15, 'chemistry', 'tut', '1engineering ii 7', 43, 'liza botros')
+(15, 'chemistry', 'tut', '1engineering ii 8', 42, 'youssef abou shady')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'chemistry', 'small_lec', '1engineering iii', 54, 'eman abdelsayed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'physics', 'lab', '3 iet/met i 5', 62, 'raghda abdelaziz')
+(15, 'physics', 'lab', '3 iet/met i 6', 61, 'noha hassan')
+(15, 'cs', 'lab', '3 iet/met i 10', 60, 'nourhan ramadan')
+(15, 'elc', 'lab', '3 iet/met i 3', 59, 't32')
+(15, 'physics', 'tut', '3 iet/met i 1', 41, 'sarah abouelhasab')
+(15, 'elc', 'tut', '3 iet/met i 2', 40, 'ghadir dogim')
+(15, 'math', 'tut', '3 iet/met i 7', 39, 'alyaa hegazy')
+(15, 'math', 'tut', '3 iet/met i 8', 38, 'mohamed awad')
+(15, 'math', 'tut', '3 iet/met i 9', 37, 'ahmed tawfik')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'math iii', 'small_lec', '3 iet/met ii', 53, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'dld', 'tut', '3 iet/met iii 20', 36, 'yasmin massoud')
+(15, 'physics', 'tut', '3 iet/met iii 19', 35, 'maha hamdy')
+(15, 'physics', 'tut', '3 iet/met iii 22', 34, 'anke klingner')
+(15, 'cs', 'lab', '3 iet/met iii 21', 57, 'nada ramadan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'microprocessors', 'small_lec', '7 csen i', 52, 'ahmed moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(15, 'analysis &amp; design of algorithms', 'small_lec', '7 csen ii', 51, 'wael abulsadat')
 </t>
   </si>
   <si>
     <t xml:space="preserve">(15, 'video &amp; audio', 'tut', '7 dmet 19', 33, 'hadwa pasha')
-(15, 'advanced media ', 'lab', '7 dmet 20', 56, 'hesham elhattab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'prot ', 'tut', '1engineering i 4', 49, 'islam hegazy')
-(16, 'csen ', 'lab', '1engineering i 1', 63, 'ali saudi')
-(16, 'csen ', 'lab', '1engineering i 3', 62, 'rana ahmed')
-(16, 'chemistry ', 'tut', '1engineering i 2', 48, 'mariam azab')
-(16, 'physics ', 'tut', '1engineering i 5', 47, 'mohamed zamzam')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'engd ', 'tut', '1engineering ii 7', 46, 'heba moussa')
-(16, 'math ', 'tut', '1engineering ii 8', 45, 'abeer khalifa')
-(16, 'math ', 'tut', '1engineering ii 9', 44, 'amgad amin')
-(16, 'chemistry ', 'tut', '1engineering ii 6', 43, 'youssef abou shady')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'physics ', 'small_lec', '1engineering iii', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'dld ', 'tut', '3 iet/met i 1', 42, 't33')
-(16, 'elct ', 'lab', '3 iet/met i 9', 61, 't34')
-(16, 'physics ', 'tut', '3 iet/met i 8', 40, 'sarah abouelhasab')
-(16, 'csen t ', 'tut', '3 iet/met i 7', 39, 'carol doos')
-(16, 'math ', 'tut', '3 iet/met i 3', 38, 'hisham ibrahim')
-(16, 'math ', 'tut', '3 iet/met i 4', 37, 'abdallah mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'physics ', 'small_lec', '3 iet/met ii', 53, 'amr abou shousha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'math ', 'tut', '3 iet/met iii 19', 36, 'ahmed tawfik')
-(16, 'math ', 'tut', '3 iet/met iii 20', 35, 'mohamed hussein')
-(16, 'elct t ', 'tut', '3 iet/met iii 21', 34, 'nouran arafat')
-(16, 'elct t ', 'tut', '3 iet/met iii 22', 33, 'ghadir dogim')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'advanced computer ', 'lab', '7 csen i 10', 60, 'reham hassan')
-(16, 'graphics t ', 'tut', '7 csen i 9', 32, 'omnia elsayed')
-(16, 'microprocessors ', 'tut', '7 csen i 11', 31, 'ahmed fahmy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(16, 'advanced computer ', 'lab', '7 csen ii 17', 59, 'youssef amin')
-(16, 'emb. syst  ', 'tut', '7 csen ii 15', 30, 'loaa elzahar')
-(16, 'emb. syst ', 'tut', '7 csen ii 14', 29, 'walid elhefny')
-(16, 'algorithms ', 'tut', '7 csen ii 18', 28, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'chemistry ', 'tut', '1engineering i 1', 49, 'mariam azab')
-(17, 'chemistry ', 'tut', '1engineering i 3', 48, 'sherif aref')
-(17, 'csen ', 'lab', '1engineering i 4', 63, 'rana ahmed')
-(17, 'csen ', 'lab', '1engineering i 5', 62, 'reem moursy')
-(17, 'physics ', 'tut', '1engineering i 2', 47, 'mohamed zamzam')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'physics ', 'tut', '1engineering ii 8', 46, 'rasha emara')
-(17, 'chemistry ', 'tut', '1engineering ii 9', 45, 'liza botros')
-(17, 'math ', 'tut', '1engineering ii 6', 44, 'abeer khalifa')
-(17, 'math ', 'tut', '1engineering ii 7', 43, 'khaled alagha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'csen tut ', 'tut', '1engineering iii 14', 42, 'nardeen khela')
-(17, 'physics ', 'tut', '1engineering iii 11', 41, 'mostafa elwaily')
-(17, 'math ', 'tut', '1engineering iii 12', 40, 'nourhan ali')
-(17, 'math ', 'tut', '1engineering iii 13', 39, 'hesham hussein')
-(17, 'chemistry ', 'tut', '1engineering iii 10', 38, 'youssef abou shady')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'physics ', 'tut', '1engineering iv 15', 37, 'mustafa mustafa hanafi')
-(17, 'physics ', 'tut', '1engineering iv 16', 36, 'abdulnaby hussein')
-(17, 'csen tut ', 'tut', '1engineering iv 17', 35, 'ali saudi')
-(17, 'csen tut ', 'tut', '1engineering iv 18', 34, 'noha abdellatif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'math iii ', 'small_lec', '3 iet/met i', 54, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'physics ', 'lab', '3 iet/met ii 12', 61, 'heba qenawy')
-(17, 'physics ', 'lab', '3 iet/met ii 13', 60, 'bassant salah')
-(17, 'dld ', 'tut', '3 iet/met ii 14', 33, 't35')
-(17, 'csen t ', 'tut', '3 iet/met ii 16', 32, 'nada ramadan')
-(17, 'csen t ', 'tut', '3 iet/met ii 17', 31, 'mina abdallah')
-(17, 'csen t ', 'tut', '3 iet/met ii 18', 30, 'nourhan ramadan')
-(17, 'math ', 'tut', '3 iet/met ii 15', 29, 'abdallah mohamed')
-(17, 'physics ', 'tut', '3 iet/met ii 11', 28, 'sarah abouelhasab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'elct ', 'lab', '3 iet/met iii 20', 59, 'fadwa foda')
-(17, 'math ', 'tut', '3 iet/met iii 21', 27, 'mohamed awad')
-(17, 'math ', 'tut', '3 iet/met iii 22', 26, 'mohamed hussein')
-(17, 'dld ', 'tut', '3 iet/met iii 19', 25, 'hadeer abdelkader')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'emb. syst ', 'tut', '7 csen i 13', 24, 'loaa elzahar')
-(17, 'emb. syst ', 'tut', '7 csen i 12', 23, 'walid elhefny')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'graphics  ', 'lab', '7 csen ii 16', 58, 'omar fathy')
-(17, 'graphics t', 'tut', '7 csen ii 18', 22, 'omnia elsayed')
-(17, 'microprocessors ', 'tut', '7 csen ii 14', 21, 'ahmed fahmy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(17, 'multimedia &amp; networking ', 'small_lec', '7 dmet', 53, 'hisham othman')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'physics ', 'small_lec', '1engineering i', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'prot ', 'tut', '1engineering iii 11', 49, 'andrew faried')
-(18, 'prot ', 'tut', '1engineering iii 14', 48, 'islam hegazy')
-(18, 'csen tut ', 'tut', '1engineering iii 10', 47, 'hadwa pasha')
-(18, 'csen tut ', 'tut', '1engineering iii 13', 46, 'rana ahmed')
-(18, 'physics ', 'tut', '1engineering iii 12', 45, 'mustafa mustafa hanafi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'math ', 'tut', '1engineering iv 15', 44, 'mohamed hafez')
-(18, 'math ', 'tut', '1engineering iv 16', 43, 'lina helal')
-(18, 'math ', 'tut', '1engineering iv 17', 42, 'nourhan ali')
-(18, 'math ', 'tut', '1engineering iv 18', 41, 'hesham hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'physics ', 'small_lec', '3 iet/met i', 53, 'amr abou shousha')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'dld ', 'tut', '3 iet/met ii 15', 40, 'mennatallah hassabelnaby')
-(18, 'dld ', 'tut', '3 iet/met ii 18', 39, 'yasmin massoud')
-(18, 'elct ', 'lab', '3 iet/met ii 14', 63, 'mahmoud zaher')
-(18, 'elct ', 'lab', '3 iet/met ii 17', 62, 'fadwa foda')
-(18, 'cs ', 'lab', '3 iet/met ii 16', 61, 'nourhan ramadan')
-(18, 'math ', 'tut', '3 iet/met ii 11', 38, 'hisham ibrahim')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'dld ', 'small_lec', '3 iet/met iii', 52, 't36')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'graphics  ', 'lab', '7 csen i 8', 60, 'salma mohamed')
-(18, 'microprocessors ', 'tut', '7 csen i 13', 37, 'ahmed fahmy')
-(18, 'emb. syst  ', 'tut', '7 csen i 11', 36, 'loaa elzahar')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, ' microprocessors ', 'small_lec', '7 csen ii', 51, 'ahmed moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(18, 'visualization lab ', 'tut', '7 dmet 19', 35, 'omar fathy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(19, 'prot ', 'tut', '1engineering iii 10', 49, 'andrew faried')
-(19, 'prot ', 'tut', '1engineering iii 12', 48, 'islam hegazy')
-(19, 'csen ', 'lab', '1engineering iii 13', 63, 'hadwa pasha')
-(19, 'csen ', 'lab', '1engineering iii 14', 62, 'nardeen khela')
-(19, 'math ', 'tut', '1engineering iii 11', 47, 'amgad amin')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(19, 'engd ', 'tut', '1engineering iv 15', 46, 'rana elazhary')
-(19, 'chemistry ', 'tut', '1engineering iv 18', 45, 'sherif aref')
-(19, 'csen tut ', 'tut', '1engineering iv 16', 44, 'noha abdellatif')
-(19, 'csen tut ', 'tut', '1engineering iv ', 43, 'mohamed zamzam')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'math ', 'small_lec', '1engineering iii', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'csen ', 'lab', '1engineering ix 38', 62, 'mariam azab')
-(20, 'csen ', 'lab', '1engineering ix 39', 61, 'youssef abou shady')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'physics ', 'small_lec', '1engineering v', 53, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'prot ', 'tut', '1engineering vii 31', 49, 'andrew faried')
-(20, 'csen tut ', 'tut', '1engineering vii 28', 48, 'rana ahmed')
-(20, 'csen tut ', 'tut', '1engineering vii 29', 47, 'yehia hatab')
-(20, 'chemistry ', 'tut', '1engineering vii 32', 46, 'islam eddiasty')
-(20, 'physics ', 'tut', '1engineering vii 30', 45, 'abdulnaby hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'physics ', 'tut', '1engineering viii 34', 44, 'rasha emara')
-(20, 'csen ', 'lab', '1engineering viii 35', 63, 'yomna elghandoor')
-(20, 'math ', 'tut', '1engineering viii 36', 43, 'nourhan ali')
-(20, 'math ', 'tut', '1engineering viii ', 42, 'liza botros')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'math ', 'tut', '1engineering x 42', 41, 'mohamed hafez')
-(20, 'math ', 'tut', '1engineering x 43', 40, 'lina helal')
-(20, 'math ', 'tut', '1engineering x 44', 39, 'karim ahmed')
-(20, 'math ', 'tut', '1engineering x 45', 38, 'amgad amin')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'analysis &amp; design of algorithms ', 'small_lec', '7 csen i', 52, 'wael abulsadat')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'embedded systems ', 'small_lec', '7 csen ii', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(20, 'video &amp; audio technology ', 'small_lec', '7 dmet', 50, 'mohammed salem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'csen  ', 'small_lec', '1engineering iii', 54, 'nada hamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'csen ', 'lab', '1engineering v 19', 63, 'ali saudi')
-(21, 'csen ', 'lab', '1engineering v 20', 62, 'fatema gabr')
-(21, 'csen ', 'lab', '1engineering v 21', 61, 'noha abdellatif')
-(21, 'chemistry ', 'tut', '1engineering v 23', 49, 'mariam azab')
-(21, 'math ', 'tut', '1engineering v 22', 48, 'abeer khalifa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'csen tut ', 'tut', '1engineering vi 24', 47, 'rana ahmed')
-(21, 'csen tut ', 'tut', '1engineering vi 25', 46, 'yehia hatab')
-(21, 'chemistry ', 'tut', '1engineering vi 26', 45, 'youssef abou shady')
-(21, 'math ', 'tut', '1engineering vi 27', 44, 'hesham hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'math ', 'small_lec', '1engineering vii', 53, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'physics ', 'lab', '3 iet/met i 7', 60, 'raghda abdelaziz')
-(21, 'physics ', 'lab', '3 iet/met i 8', 59, 'bassant salah')
-(21, 'dld ', 'tut', '3 iet/met i 3', 43, 't37')
-(21, 'math ', 'tut', '3 iet/met i 5', 41, 'ahmed tawfik')
-(21, 'math ', 'tut', '3 iet/met i 10', 40, 'abdallah mohamed')
-(21, 'physics ', 'tut', '3 iet/met i 9', 39, 'maha hamdy')
-(21, 'csen t ', 'tut', '3 iet/met i 1', 38, 'mohamed ashry')
-(21, 'csen t ', 'tut', '3 iet/met i 2', 37, 'sama elbaroudy')
-(21, 'cs ', 'lab', '3 iet/met i 4', 58, 'mina abdallah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'dld ', 'tut', '3 iet/met ii 11', 36, 't39')
-(21, 'elct ', 'lab', '3 iet/met ii 15', 57, 'sarah azzam')
-(21, 'elct ', 'lab', '3 iet/met ii 18', 56, 'mahmoud zaher')
-(21, 'math ', 'tut', '3 iet/met ii 13', 35, 'adel naeim')
-(21, 'math ', 'tut', '3 iet/met ii 14', 34, 'hisham ibrahim')
-(21, 'elct t ', 'tut', '3 iet/met ii 12', 33, 'noha shouman')
-(21, 'elct t ', 'tut', '3 iet/met ii 16', 32, 'monica sary')
-(21, 'cs ', 'lab', '3 iet/met ii 17', 2, 'nada ramadan')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'math iii ', 'small_lec', '3 iet/met iii', 51, 'rami younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'microprocessors ', 'tut', '7 csen i 8', 31, 'ahmed fahmy')
-(21, 'algorithms ', 'tut', '7 csen i 9', 30, 'belal abdel raheem')
-(21, 'graphics t ', 'tut', '7 csen i 10', 29, 'omnia elsayed')
-(21, 'graphics t ', 'tut', '7 csen i 12', 28, 'salma mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'emb. syst ', 'tut', '7 csen ii 18', 27, 'walid elhefny')
-(21, 'graphics  ', 'lab', '7 csen ii 17', 0, 'mohammed kapiel')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(21, 'visualization &amp; animation ', 'small_lec', '7 dmet', 55, 'rimon elias')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'physics ', 'small_lec', '1engineering ix', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'chemistry ', 'tut', '1engineering vii 31', 49, 'islam eddiasty')
-(22, 'csen ', 'lab', '1engineering vii 28', 63, 'ali saudi')
-(22, 'csen ', 'lab', '1engineering vii 29', 62, 'yehia hatab')
-(22, 'physics ', 'tut', '1engineering vii 32', 48, 'mohamed zamzam')
-(22, 'prot ', 'tut', '1engineering vii 30', 47, 'islam hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'math ', 'tut', '1engineering viii 33', 46, 'mohamed hafez')
-(22, 'math ', 'tut', '1engineering viii 34', 45, 'lina helal')
-(22, 'math ', 'tut', '1engineering viii 35', 44, 'karim elghazawy')
-(22, 'csen ', 'lab', '1engineering viii 36', 61, 'rana ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'dld ', 'tut', '3 iet/met i 5', 43, 't38')
-(22, 'math ', 'tut', '3 iet/met i 2', 41, 'hisham ibrahim')
-(22, 'math ', 'tut', '3 iet/met i 6', 40, 'abdallah mohamed')
-(22, 'physics ', 'tut', '3 iet/met i 4', 39, 'maha hamdy')
-(22, 'physics ', 'tut', '3 iet/met i 10', 38, 'heba qenawy')
-(22, 'elct t', 'tut', '3 iet/met i 3', 37, 'noha shouman')
-(22, 'cs ', 'lab', '3 iet/met i 1', 60, 'sama elbaroudy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'csen ', 'small_lec', '3 iet/met ii', 53, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'physics ', 'small_lec', '3 iet/met iii', 52, 't40')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'embedded systems ', 'small_lec', '7 csen i', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'emb. syst ', 'tut', '7 csen ii 16', 36, 'loaa elzahar')
-(22, 'graphics t ', 'tut', '7 csen ii 15', 35, 'omnia elsayed')
-(22, 'algorithms ', 'tut', '7 csen ii 14', 34, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(22, 'embedded systems ', 'small_lec', '7 dmet', 50, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'prot ', 'tut', '1engineering iii 13', 49, 'andrew faried')
-(23, 'csen ', 'lab', '1engineering iii 10', 63, 'rana ahmed')
-(23, 'math ', 'tut', '1engineering iii 14', 48, 'hesham hussein')
-(23, 'chemistry ', 'tut', '1engineering iii 11', 47, 'yasmine mandour')
-(23, 'chemistry ', 'tut', '1engineering iii 12', 46, 'mariam azab')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'chemistry ', 'tut', '1engineering iv 15', 45, 'youssef abou shady')
-(23, 'csen ', 'lab', '1engineering iv 16', 62, 'ali saudi')
-(23, 'csen ', 'lab', '1engineering iv 17', 61, 'hadwa pasha')
-(23, 'csen ', 'lab', '1engineering iv 18', 60, 'noha abdellatif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'math ', 'tut', '1engineering v 23', 44, 'abeer khalifa')
-(23, 'prot ', 'tut', '1engineering v 22', 43, 'paula tanaghy')
-(23, 'physics ', 'tut', '1engineering v 19', 42, 'rasha emara')
-(23, 'physics ', 'tut', '1engineering v 20', 41, 'mohamed zamzam')
-(23, 'physics ', 'tut', '1engineering v 21', 40, 'abdulnaby hussein')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'math ', 'tut', '1engineering vi 24', 39, 'mohamed hafez')
-(23, 'math ', 'tut', '1engineering vi 25', 38, 'lina helal')
-(23, 'math ', 'tut', '1engineering vi 26', 37, 'karim ahmed')
-(23, 'physics ', 'tut', '1engineering vi 27', 36, 'mostafa elwaily')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'physics ', 'small_lec', '1engineering vii', 54, 'alaa el din abdel latif')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'csen ', 'small_lec', '3 iet/met i', 53, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'physics ', 'lab', '3 iet/met ii 14', 59, 'raghda abdelaziz')
-(23, 'physics ', 'lab', '3 iet/met ii 15', 58, 'heba qenawy')
-(23, 'math ', 'tut', '3 iet/met ii 16', 35, 'hisham ibrahim')
-(23, 'math ', 'tut', '3 iet/met ii 17', 34, 'mohamed hussein')
-(23, 'math ', 'tut', '3 iet/met ii 18', 33, 'abdallah mohamed')
-(23, 'elct t', 'tut', '3 iet/met ii 11', 32, 'sara imam')
-(23, 'elct t', 'tut', '3 iet/met ii 13', 31, 'fadwa foda')
-(23, 'csen t ', 'tut', '3 iet/met ii 12', 30, 'mohamed ashry')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'elct ', 'lab', '3 iet/met iii 19', 57, 'monica sary')
-(23, 'physics ', 'tut', '3 iet/met iii 20', 29, 'noha hassan')
-(23, 'physics ', 'tut', '3 iet/met iii 21', 28, 'anke klingner')
-(23, 'cs ', 'lab', '3 iet/met iii 22', 56, 'sama elbaroudy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'advanced computer ', 'lab', '7 csen i 11', 2, 'mark gergis')
-(23, 'algorithms ', 'tut', '7 csen i 13', 27, 'belal abdel raheem')
-(23, 'emb. syst ', 'tut', '7 csen i 9', 26, 'walid elhefny')
-(23, 'graphics t ', 'tut', '7 csen i 8', 25, 'omnia elsayed')
-(23, 'graphics  ', 'lab', '7 csen i 12', 1, 'salma mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(23, 'microprocessors ', 'tut', '7 csen ii 16', 24, 'dina mohamed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(24, 'dld ', 'tut', '3 iet/met ii 12', 49, 'mennatallah hassabelnaby')
-(24, 'dld ', 'tut', '3 iet/met ii 17', 48, 'yasmin massoud')
-(24, 'elct ', 'lab', '3 iet/met ii 13', 63, 'maha elfeshawy')
-(24, 'elct ', 'lab', '3 iet/met ii 16', 62, 'mahmoud zaher')
-(24, 'csen t ', 'tut', '3 iet/met ii 11', 47, 'khaled kassem')
-(24, 'cs ', 'lab', '3 iet/met ii 18', 61, 'mina abdallah')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(24, 'emb. syst ', 'tut', '7 csen i 8', 46, 'loaa elzahar')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(24, 'algorithms ', 'tut', '7 csen ii 15', 45, 'belal abdel raheem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'chemistry ', 'small_lec', '1engineering i', 54, 'nermin ahmed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'prot ', 'tut', '1engineering ix 41', 40, 't41')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'math ', 'small_lec', '1engineering v', 53, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'math ', 'tut', '1engineering vii 28', 49, 'walaa saad mahmoud')
-(25, 'math ', 'tut', '1engineering vii 29', 48, 'amgad amin')
-(25, 'math ', 'tut', '1engineering vii 30', 47, 'khaled alagha')
-(25, 'prot ', 'tut', '1engineering vii 32', 46, 'andrew faried')
-(25, 'physics ', 'tut', '1engineering vii 31', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'csen tut ', 'tut', '1engineering viii 33', 44, 'hadwa pasha')
-(25, 'csen tut ', 'tut', '1engineering viii 34', 43, 'noha abdellatif')
-(25, 'chemistry ', 'tut', '1engineering viii 36', 42, 'liza botros')
-(25, 'engd ', 'tut', '1engineering viii 35', 41, 'rana elazhary')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'elct  ', 'small_lec', '3 iet/met ii', 52, 'yasser hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'comm net t', 'tut', '5 csen i 12', 39, 'ahmed helmy')
-(25, 'dsd ', 'tut', '5 csen i 11', 38, 'hadeel mostafa')
-(25, 'data basest ', 'tut', '5 csen i 14', 37, 'gina younes')
-(25, 'data bases ', 'lab', '5 csen i 10', 63, 'merna mikhael')
-(25, 'data bases ', 'lab', '5 csen i 15', 62, 'sama abdel monem')
-(25, 'media ', 'tut', '5 csen i 13', 36, 'ethar elhinamy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'introduction to media engineering ', 'small_lec', '5 csen ii', 51, 'seif dawlatly')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'advanced computer ', 'lab', '7 csen ii 18', 61, 'reham hassan')
-(25, 'advanced computer ', 'lab', '7 csen ii 16', 60, 'gehad ismail')
-(25, 'graphics  ', 'lab', '7 csen ii 14', 59, 'omnia elsayed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(25, 'emb. syst ', 'tut', '7 dmet 19', 35, 'walid elhefny')
-(25, 'visulazation   lab ', 'tut', '7 dmet 20', 34, 'omar fathy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'math ', 'small_lec', '1engineering i', 54, 'hany el sharkawy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'chemistry ', 'small_lec', '1engineering ix', 53, 't42')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'math ', 'tut', '1engineering vii 31', 49, 'abeer khalifa')
-(26, 'math ', 'tut', '1engineering vii 32', 48, 'mohamed hafez')
-(26, 'chemistry ', 'tut', '1engineering vii 28', 47, 'islam eddiasty')
-(26, 'chemistry ', 'tut', '1engineering vii 30', 46, 'liza botros')
-(26, 'prot ', 'tut', '1engineering vii 29', 45, 'islam hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'csen ', 'lab', '1engineering viii 33', 63, 'hadwa pasha')
-(26, 'csen ', 'lab', '1engineering viii 34', 62, 'noha abdellatif')
-(26, 'physics ', 'tut', '1engineering viii 35', 44, 'mustafa mustafa hanafi')
-(26, 'physics ', 'tut', '1engineering viii 36', 43, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'elct ', 'small_lec', '3 iet/met i', 52, 'yasser hegazy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'physics ', 'lab', '3 iet/met ii 16', 61, 'maha hamdy')
-(26, 'physics ', 'lab', '3 iet/met ii 17', 60, 'noha hassan')
-(26, 'math ', 'tut', '3 iet/met ii 19', 42, 'hisham ibrahim')
-(26, 'physics ', 'tut', '3 iet/met ii 13', 39, 'sarah abouelhasab')
-(26, 'csen t ', 'tut', '3 iet/met ii 20', 38, 't45')
-(26, 'elct t ', 'tut', '3 iet/met ii 14', 37, 'nouran arafat')
-(26, 'elct t ', 'tut', '3 iet/met ii 15', 36, 'noha shouman')
-(26, 'elct t ', 'tut', '3 iet/met ii 18', 35, 'monica sary')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'data basest ', 'tut', '5 csen i 13', 34, 'gina younes')
-(26, 'data basest ', 'tut', '5 csen i 15', 33, 'ahmed ahmed')
-(26, 'dsd ', 'tut', '5 csen i 14', 32, 'hadeel mostafa')
-(26, 'media ', 'tut', '5 csen i 12', 31, 'ethar elhinamy')
-(26, 'theory of computation ', 'tut', '5 csen i 10', 30, 'youssef amin')
-(26, 'comm net t', 'tut', '5 csen i 11', 29, 'ahmed helmy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'digital system design ', 'small_lec', '5 csen ii', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(26, 'microprocessors ', 'tut', '7 csen i 10', 28, 'ahmed fahmy')
-(26, 'algorithms ', 'tut', '7 csen i 8', 27, 'belal abdel raheem')
-(26, 'graphics t ', 'tut', '7 csen i 11', 26, 'gehad ismail')
+(15, 'advanced medi', 'lab', '7 dmet 20', 56, 'hesham elhattab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'pro', 'tut', '1engineering i 4', 49, 'islam hegazy')
+(16, 'csen', 'lab', '1engineering i 1', 63, 'ali saudi')
+(16, 'csen', 'lab', '1engineering i 3', 62, 'rana ahmed')
+(16, 'chemistry', 'tut', '1engineering i 2', 48, 'mariam azab')
+(16, 'physics', 'tut', '1engineering i 5', 47, 'mohamed zamzam')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'engd', 'tut', '1engineering ii 7', 46, 'heba moussa')
+(16, 'math', 'tut', '1engineering ii 8', 45, 'abeer khalifa')
+(16, 'math', 'tut', '1engineering ii 9', 44, 'amgad amin')
+(16, 'chemistry', 'tut', '1engineering ii 6', 43, 'youssef abou shady')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'physics', 'small_lec', '1engineering iii', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'dld', 'tut', '3 iet/met i 1', 42, 't33')
+(16, 'elc', 'lab', '3 iet/met i 9', 61, 't34')
+(16, 'physics', 'tut', '3 iet/met i 8', 40, 'sarah abouelhasab')
+(16, 'csen', 'tut', '3 iet/met i 7', 39, 'carol doos')
+(16, 'math', 'tut', '3 iet/met i 3', 38, 'hisham ibrahim')
+(16, 'math', 'tut', '3 iet/met i 4', 37, 'abdallah mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'physics', 'small_lec', '3 iet/met ii', 53, 'amr abou shousha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'math', 'tut', '3 iet/met iii 19', 36, 'ahmed tawfik')
+(16, 'math', 'tut', '3 iet/met iii 20', 35, 'mohamed hussein')
+(16, 'elc', 'tut', '3 iet/met iii 21', 34, 'nouran arafat')
+(16, 'elc', 'tut', '3 iet/met iii 22', 33, 'ghadir dogim')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'advanced computer', 'lab', '7 csen i 10', 60, 'reham hassan')
+(16, 'graphics', 'tut', '7 csen i 9', 32, 'omnia elsayed')
+(16, 'microprocessors', 'tut', '7 csen i 11', 31, 'ahmed fahmy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(16, 'advanced computer', 'lab', '7 csen ii 17', 59, 'youssef amin')
+(16, 'emb. sys', 'tut', '7 csen ii 15', 30, 'loaa elzahar')
+(16, 'emb. sys', 'tut', '7 csen ii 14', 29, 'walid elhefny')
+(16, 'algorithms', 'tut', '7 csen ii 18', 28, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'chemistry', 'tut', '1engineering i 1', 49, 'mariam azab')
+(17, 'chemistry', 'tut', '1engineering i 3', 48, 'sherif aref')
+(17, 'csen', 'lab', '1engineering i 4', 63, 'rana ahmed')
+(17, 'csen', 'lab', '1engineering i 5', 62, 'reem moursy')
+(17, 'physics', 'tut', '1engineering i 2', 47, 'mohamed zamzam')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'physics', 'tut', '1engineering ii 8', 46, 'rasha emara')
+(17, 'chemistry', 'tut', '1engineering ii 9', 45, 'liza botros')
+(17, 'math', 'tut', '1engineering ii 6', 44, 'abeer khalifa')
+(17, 'math', 'tut', '1engineering ii 7', 43, 'khaled alagha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'csen', 'tut', '1engineering iii 14', 42, 'nardeen khela')
+(17, 'physics', 'tut', '1engineering iii 11', 41, 'mostafa elwaily')
+(17, 'math', 'tut', '1engineering iii 12', 40, 'nourhan ali')
+(17, 'math', 'tut', '1engineering iii 13', 39, 'hesham hussein')
+(17, 'chemistry', 'tut', '1engineering iii 10', 38, 'youssef abou shady')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'physics', 'tut', '1engineering iv 15', 37, 'mustafa mustafa hanafi')
+(17, 'physics', 'tut', '1engineering iv 16', 36, 'abdulnaby hussein')
+(17, 'csen', 'tut', '1engineering iv 17', 35, 'ali saudi')
+(17, 'csen', 'tut', '1engineering iv 18', 34, 'noha abdellatif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'math iii', 'small_lec', '3 iet/met i', 54, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'physics', 'lab', '3 iet/met ii 12', 61, 'heba qenawy')
+(17, 'physics', 'lab', '3 iet/met ii 13', 60, 'bassant salah')
+(17, 'dld', 'tut', '3 iet/met ii 14', 33, 't35')
+(17, 'csen', 'tut', '3 iet/met ii 16', 32, 'nada ramadan')
+(17, 'csen', 'tut', '3 iet/met ii 17', 31, 'mina abdallah')
+(17, 'csen', 'tut', '3 iet/met ii 18', 30, 'nourhan ramadan')
+(17, 'math', 'tut', '3 iet/met ii 15', 29, 'abdallah mohamed')
+(17, 'physics', 'tut', '3 iet/met ii 11', 28, 'sarah abouelhasab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'elc', 'lab', '3 iet/met iii 20', 59, 'fadwa foda')
+(17, 'math', 'tut', '3 iet/met iii 21', 27, 'mohamed awad')
+(17, 'math', 'tut', '3 iet/met iii 22', 26, 'mohamed hussein')
+(17, 'dld', 'tut', '3 iet/met iii 19', 25, 'hadeer abdelkader')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'emb. sys', 'tut', '7 csen i 13', 24, 'loaa elzahar')
+(17, 'emb. sys', 'tut', '7 csen i 12', 23, 'walid elhefny')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'graphics', 'lab', '7 csen ii 16', 58, 'omar fathy')
+(17, 'graphics', 'tut', '7 csen ii 18', 22, 'omnia elsayed')
+(17, 'microprocessors', 'tut', '7 csen ii 14', 21, 'ahmed fahmy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(17, 'multimedia &amp; networking', 'small_lec', '7 dmet', 53, 'hisham othman')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'physics', 'small_lec', '1engineering i', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'pro', 'tut', '1engineering iii 11', 49, 'andrew faried')
+(18, 'pro', 'tut', '1engineering iii 14', 48, 'islam hegazy')
+(18, 'csen', 'tut', '1engineering iii 10', 47, 'hadwa pasha')
+(18, 'csen', 'tut', '1engineering iii 13', 46, 'rana ahmed')
+(18, 'physics', 'tut', '1engineering iii 12', 45, 'mustafa mustafa hanafi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'math', 'tut', '1engineering iv 15', 44, 'mohamed hafez')
+(18, 'math', 'tut', '1engineering iv 16', 43, 'lina helal')
+(18, 'math', 'tut', '1engineering iv 17', 42, 'nourhan ali')
+(18, 'math', 'tut', '1engineering iv 18', 41, 'hesham hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'physics', 'small_lec', '3 iet/met i', 53, 'amr abou shousha')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'dld', 'tut', '3 iet/met ii 15', 40, 'mennatallah hassabelnaby')
+(18, 'dld', 'tut', '3 iet/met ii 18', 39, 'yasmin massoud')
+(18, 'elc', 'lab', '3 iet/met ii 14', 63, 'mahmoud zaher')
+(18, 'elc', 'lab', '3 iet/met ii 17', 62, 'fadwa foda')
+(18, 'cs', 'lab', '3 iet/met ii 16', 61, 'nourhan ramadan')
+(18, 'math', 'tut', '3 iet/met ii 11', 38, 'hisham ibrahim')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'dld', 'small_lec', '3 iet/met iii', 52, 't36')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'graphics', 'lab', '7 csen i 8', 60, 'salma mohamed')
+(18, 'microprocessors', 'tut', '7 csen i 13', 37, 'ahmed fahmy')
+(18, 'emb. sys', 'tut', '7 csen i 11', 36, 'loaa elzahar')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'microprocessors', 'small_lec', '7 csen ii', 51, 'ahmed moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(18, 'visualization', 'tut', '7 dmet 19', 35, 'omar fathy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(19, 'pro', 'tut', '1engineering iii 10', 49, 'andrew faried')
+(19, 'pro', 'tut', '1engineering iii 12', 48, 'islam hegazy')
+(19, 'csen', 'lab', '1engineering iii 13', 63, 'hadwa pasha')
+(19, 'csen', 'lab', '1engineering iii 14', 62, 'nardeen khela')
+(19, 'math', 'tut', '1engineering iii 11', 47, 'amgad amin')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(19, 'engd', 'tut', '1engineering iv 15', 46, 'rana elazhary')
+(19, 'chemistry', 'tut', '1engineering iv 18', 45, 'sherif aref')
+(19, 'csen', 'tut', '1engineering iv 16', 44, 'noha abdellatif')
+(19, 'csen', 'tut', '1engineering iv ', 43, 'mohamed zamzam')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'math', 'small_lec', '1engineering iii', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'csen', 'lab', '1engineering ix 38', 62, 'mariam azab')
+(20, 'csen', 'lab', '1engineering ix 39', 61, 'youssef abou shady')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'physics', 'small_lec', '1engineering v', 53, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'pro', 'tut', '1engineering vii 31', 49, 'andrew faried')
+(20, 'csen', 'tut', '1engineering vii 28', 48, 'rana ahmed')
+(20, 'csen', 'tut', '1engineering vii 29', 47, 'yehia hatab')
+(20, 'chemistry', 'tut', '1engineering vii 32', 46, 'islam eddiasty')
+(20, 'physics', 'tut', '1engineering vii 30', 45, 'abdulnaby hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'physics', 'tut', '1engineering viii 34', 44, 'rasha emara')
+(20, 'csen', 'lab', '1engineering viii 35', 63, 'yomna elghandoor')
+(20, 'math', 'tut', '1engineering viii 36', 43, 'nourhan ali')
+(20, 'math', 'tut', '1engineering viii ', 42, 'liza botros')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'math', 'tut', '1engineering x 42', 41, 'mohamed hafez')
+(20, 'math', 'tut', '1engineering x 43', 40, 'lina helal')
+(20, 'math', 'tut', '1engineering x 44', 39, 'karim ahmed')
+(20, 'math', 'tut', '1engineering x 45', 38, 'amgad amin')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'analysis &amp; design of algorithms', 'small_lec', '7 csen i', 52, 'wael abulsadat')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'embedded systems', 'small_lec', '7 csen ii', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(20, 'video &amp; audio technology', 'small_lec', '7 dmet', 50, 'mohammed salem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'csen', 'small_lec', '1engineering iii', 54, 'nada hamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'csen', 'lab', '1engineering v 19', 63, 'ali saudi')
+(21, 'csen', 'lab', '1engineering v 20', 62, 'fatema gabr')
+(21, 'csen', 'lab', '1engineering v 21', 61, 'noha abdellatif')
+(21, 'chemistry', 'tut', '1engineering v 23', 49, 'mariam azab')
+(21, 'math', 'tut', '1engineering v 22', 48, 'abeer khalifa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'csen', 'tut', '1engineering vi 24', 47, 'rana ahmed')
+(21, 'csen', 'tut', '1engineering vi 25', 46, 'yehia hatab')
+(21, 'chemistry', 'tut', '1engineering vi 26', 45, 'youssef abou shady')
+(21, 'math', 'tut', '1engineering vi 27', 44, 'hesham hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'math', 'small_lec', '1engineering vii', 53, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'physics', 'lab', '3 iet/met i 7', 60, 'raghda abdelaziz')
+(21, 'physics', 'lab', '3 iet/met i 8', 59, 'bassant salah')
+(21, 'dld', 'tut', '3 iet/met i 3', 43, 't37')
+(21, 'math', 'tut', '3 iet/met i 5', 41, 'ahmed tawfik')
+(21, 'math', 'tut', '3 iet/met i 10', 40, 'abdallah mohamed')
+(21, 'physics', 'tut', '3 iet/met i 9', 39, 'maha hamdy')
+(21, 'csen', 'tut', '3 iet/met i 1', 38, 'mohamed ashry')
+(21, 'csen', 'tut', '3 iet/met i 2', 37, 'sama elbaroudy')
+(21, 'cs', 'lab', '3 iet/met i 4', 58, 'mina abdallah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'dld', 'tut', '3 iet/met ii 11', 36, 't39')
+(21, 'elc', 'lab', '3 iet/met ii 15', 57, 'sarah azzam')
+(21, 'elc', 'lab', '3 iet/met ii 18', 56, 'mahmoud zaher')
+(21, 'math', 'tut', '3 iet/met ii 13', 35, 'adel naeim')
+(21, 'math', 'tut', '3 iet/met ii 14', 34, 'hisham ibrahim')
+(21, 'elc', 'tut', '3 iet/met ii 12', 33, 'noha shouman')
+(21, 'elc', 'tut', '3 iet/met ii 16', 32, 'monica sary')
+(21, 'cs', 'lab', '3 iet/met ii 17', 2, 'nada ramadan')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'math iii', 'small_lec', '3 iet/met iii', 51, 'rami younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'microprocessors', 'tut', '7 csen i 8', 31, 'ahmed fahmy')
+(21, 'algorithms', 'tut', '7 csen i 9', 30, 'belal abdel raheem')
+(21, 'graphics', 'tut', '7 csen i 10', 29, 'omnia elsayed')
+(21, 'graphics', 'tut', '7 csen i 12', 28, 'salma mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'emb. sys', 'tut', '7 csen ii 18', 27, 'walid elhefny')
+(21, 'graphics', 'lab', '7 csen ii 17', 0, 'mohammed kapiel')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(21, 'visualization &amp; animation', 'small_lec', '7 dmet', 55, 'rimon elias')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'physics', 'small_lec', '1engineering ix', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'chemistry', 'tut', '1engineering vii 31', 49, 'islam eddiasty')
+(22, 'csen', 'lab', '1engineering vii 28', 63, 'ali saudi')
+(22, 'csen', 'lab', '1engineering vii 29', 62, 'yehia hatab')
+(22, 'physics', 'tut', '1engineering vii 32', 48, 'mohamed zamzam')
+(22, 'pro', 'tut', '1engineering vii 30', 47, 'islam hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'math', 'tut', '1engineering viii 33', 46, 'mohamed hafez')
+(22, 'math', 'tut', '1engineering viii 34', 45, 'lina helal')
+(22, 'math', 'tut', '1engineering viii 35', 44, 'karim elghazawy')
+(22, 'csen', 'lab', '1engineering viii 36', 61, 'rana ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'dld', 'tut', '3 iet/met i 5', 43, 't38')
+(22, 'math', 'tut', '3 iet/met i 2', 41, 'hisham ibrahim')
+(22, 'math', 'tut', '3 iet/met i 6', 40, 'abdallah mohamed')
+(22, 'physics', 'tut', '3 iet/met i 4', 39, 'maha hamdy')
+(22, 'physics', 'tut', '3 iet/met i 10', 38, 'heba qenawy')
+(22, 'elc', 'tut', '3 iet/met i 3', 37, 'noha shouman')
+(22, 'cs', 'lab', '3 iet/met i 1', 60, 'sama elbaroudy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'csen', 'small_lec', '3 iet/met ii', 53, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'physics', 'small_lec', '3 iet/met iii', 52, 't40')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'embedded systems', 'small_lec', '7 csen i', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'emb. sys', 'tut', '7 csen ii 16', 36, 'loaa elzahar')
+(22, 'graphics', 'tut', '7 csen ii 15', 35, 'omnia elsayed')
+(22, 'algorithms', 'tut', '7 csen ii 14', 34, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(22, 'embedded systems', 'small_lec', '7 dmet', 50, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'pro', 'tut', '1engineering iii 13', 49, 'andrew faried')
+(23, 'csen', 'lab', '1engineering iii 10', 63, 'rana ahmed')
+(23, 'math', 'tut', '1engineering iii 14', 48, 'hesham hussein')
+(23, 'chemistry', 'tut', '1engineering iii 11', 47, 'yasmine mandour')
+(23, 'chemistry', 'tut', '1engineering iii 12', 46, 'mariam azab')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'chemistry', 'tut', '1engineering iv 15', 45, 'youssef abou shady')
+(23, 'csen', 'lab', '1engineering iv 16', 62, 'ali saudi')
+(23, 'csen', 'lab', '1engineering iv 17', 61, 'hadwa pasha')
+(23, 'csen', 'lab', '1engineering iv 18', 60, 'noha abdellatif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'math', 'tut', '1engineering v 23', 44, 'abeer khalifa')
+(23, 'pro', 'tut', '1engineering v 22', 43, 'paula tanaghy')
+(23, 'physics', 'tut', '1engineering v 19', 42, 'rasha emara')
+(23, 'physics', 'tut', '1engineering v 20', 41, 'mohamed zamzam')
+(23, 'physics', 'tut', '1engineering v 21', 40, 'abdulnaby hussein')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'math', 'tut', '1engineering vi 24', 39, 'mohamed hafez')
+(23, 'math', 'tut', '1engineering vi 25', 38, 'lina helal')
+(23, 'math', 'tut', '1engineering vi 26', 37, 'karim ahmed')
+(23, 'physics', 'tut', '1engineering vi 27', 36, 'mostafa elwaily')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'physics', 'small_lec', '1engineering vii', 54, 'alaa el din abdel latif')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'csen', 'small_lec', '3 iet/met i', 53, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'physics', 'lab', '3 iet/met ii 14', 59, 'raghda abdelaziz')
+(23, 'physics', 'lab', '3 iet/met ii 15', 58, 'heba qenawy')
+(23, 'math', 'tut', '3 iet/met ii 16', 35, 'hisham ibrahim')
+(23, 'math', 'tut', '3 iet/met ii 17', 34, 'mohamed hussein')
+(23, 'math', 'tut', '3 iet/met ii 18', 33, 'abdallah mohamed')
+(23, 'elc', 'tut', '3 iet/met ii 11', 32, 'sara imam')
+(23, 'elc', 'tut', '3 iet/met ii 13', 31, 'fadwa foda')
+(23, 'csen', 'tut', '3 iet/met ii 12', 30, 'mohamed ashry')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'elc', 'lab', '3 iet/met iii 19', 57, 'monica sary')
+(23, 'physics', 'tut', '3 iet/met iii 20', 29, 'noha hassan')
+(23, 'physics', 'tut', '3 iet/met iii 21', 28, 'anke klingner')
+(23, 'cs', 'lab', '3 iet/met iii 22', 56, 'sama elbaroudy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'advanced computer', 'lab', '7 csen i 11', 2, 'mark gergis')
+(23, 'algorithms', 'tut', '7 csen i 13', 27, 'belal abdel raheem')
+(23, 'emb. sys', 'tut', '7 csen i 9', 26, 'walid elhefny')
+(23, 'graphics', 'tut', '7 csen i 8', 25, 'omnia elsayed')
+(23, 'graphics', 'lab', '7 csen i 12', 1, 'salma mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(23, 'microprocessors', 'tut', '7 csen ii 16', 24, 'dina mohamed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(24, 'dld', 'tut', '3 iet/met ii 12', 49, 'mennatallah hassabelnaby')
+(24, 'dld', 'tut', '3 iet/met ii 17', 48, 'yasmin massoud')
+(24, 'elc', 'lab', '3 iet/met ii 13', 63, 'maha elfeshawy')
+(24, 'elc', 'lab', '3 iet/met ii 16', 62, 'mahmoud zaher')
+(24, 'csen', 'tut', '3 iet/met ii 11', 47, 'khaled kassem')
+(24, 'cs', 'lab', '3 iet/met ii 18', 61, 'mina abdallah')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(24, 'emb. sys', 'tut', '7 csen i 8', 46, 'loaa elzahar')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(24, 'algorithms', 'tut', '7 csen ii 15', 45, 'belal abdel raheem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'chemistry', 'small_lec', '1engineering i', 54, 'nermin ahmed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'pro', 'tut', '1engineering ix 41', 40, 't41')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'math', 'small_lec', '1engineering v', 53, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'math', 'tut', '1engineering vii 28', 49, 'walaa saad mahmoud')
+(25, 'math', 'tut', '1engineering vii 29', 48, 'amgad amin')
+(25, 'math', 'tut', '1engineering vii 30', 47, 'khaled alagha')
+(25, 'pro', 'tut', '1engineering vii 32', 46, 'andrew faried')
+(25, 'physics', 'tut', '1engineering vii 31', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'csen', 'tut', '1engineering viii 33', 44, 'hadwa pasha')
+(25, 'csen', 'tut', '1engineering viii 34', 43, 'noha abdellatif')
+(25, 'chemistry', 'tut', '1engineering viii 36', 42, 'liza botros')
+(25, 'engd', 'tut', '1engineering viii 35', 41, 'rana elazhary')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'elc', 'small_lec', '3 iet/met ii', 52, 'yasser hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'comm ne', 'tut', '5 csen i 12', 39, 'ahmed helmy')
+(25, 'dsd', 'tut', '5 csen i 11', 38, 'hadeel mostafa')
+(25, 'data bases', 'tut', '5 csen i 14', 37, 'gina younes')
+(25, 'data bases', 'lab', '5 csen i 10', 63, 'merna mikhael')
+(25, 'data bases', 'lab', '5 csen i 15', 62, 'sama abdel monem')
+(25, 'medi', 'tut', '5 csen i 13', 36, 'ethar elhinamy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'introduction to media engineering', 'small_lec', '5 csen ii', 51, 'seif dawlatly')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'advanced computer', 'lab', '7 csen ii 18', 61, 'reham hassan')
+(25, 'advanced computer', 'lab', '7 csen ii 16', 60, 'gehad ismail')
+(25, 'graphics', 'lab', '7 csen ii 14', 59, 'omnia elsayed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(25, 'emb. sys', 'tut', '7 dmet 19', 35, 'walid elhefny')
+(25, 'visulazation', 'tut', '7 dmet 20', 34, 'omar fathy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'math', 'small_lec', '1engineering i', 54, 'hany el sharkawy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'chemistry', 'small_lec', '1engineering ix', 53, 't42')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'math', 'tut', '1engineering vii 31', 49, 'abeer khalifa')
+(26, 'math', 'tut', '1engineering vii 32', 48, 'mohamed hafez')
+(26, 'chemistry', 'tut', '1engineering vii 28', 47, 'islam eddiasty')
+(26, 'chemistry', 'tut', '1engineering vii 30', 46, 'liza botros')
+(26, 'pro', 'tut', '1engineering vii 29', 45, 'islam hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'csen', 'lab', '1engineering viii 33', 63, 'hadwa pasha')
+(26, 'csen', 'lab', '1engineering viii 34', 62, 'noha abdellatif')
+(26, 'physics', 'tut', '1engineering viii 35', 44, 'mustafa mustafa hanafi')
+(26, 'physics', 'tut', '1engineering viii 36', 43, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'elc', 'small_lec', '3 iet/met i', 52, 'yasser hegazy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'physics', 'lab', '3 iet/met ii 16', 61, 'maha hamdy')
+(26, 'physics', 'lab', '3 iet/met ii 17', 60, 'noha hassan')
+(26, 'math', 'tut', '3 iet/met ii 19', 42, 'hisham ibrahim')
+(26, 'physics', 'tut', '3 iet/met ii 13', 39, 'sarah abouelhasab')
+(26, 'csen', 'tut', '3 iet/met ii 20', 38, 't45')
+(26, 'elc', 'tut', '3 iet/met ii 14', 37, 'nouran arafat')
+(26, 'elc', 'tut', '3 iet/met ii 15', 36, 'noha shouman')
+(26, 'elc', 'tut', '3 iet/met ii 18', 35, 'monica sary')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'data bases', 'tut', '5 csen i 13', 34, 'gina younes')
+(26, 'data bases', 'tut', '5 csen i 15', 33, 'ahmed ahmed')
+(26, 'dsd', 'tut', '5 csen i 14', 32, 'hadeel mostafa')
+(26, 'medi', 'tut', '5 csen i 12', 31, 'ethar elhinamy')
+(26, 'theory of computation', 'tut', '5 csen i 10', 30, 'youssef amin')
+(26, 'comm ne', 'tut', '5 csen i 11', 29, 'ahmed helmy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'digital system design', 'small_lec', '5 csen ii', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(26, 'microprocessors', 'tut', '7 csen i 10', 28, 'ahmed fahmy')
+(26, 'algorithms', 'tut', '7 csen i 8', 27, 'belal abdel raheem')
+(26, 'graphics', 'tut', '7 csen i 11', 26, 'gehad ismail')
 </t>
   </si>
   <si>
@@ -1431,154 +1431,154 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">(27, 'prot ', 'tut', '1engineering i 5', 49, 'islam hegazy')
-(27, 'math ', 'tut', '1engineering i 1', 48, 'mohamed hafez')
-(27, 'math ', 'tut', '1engineering i 2', 47, 'walaa saad mahmoud')
-(27, 'math ', 'tut', '1engineering i 3', 46, 'abeer khalifa')
-(27, 'physics ', 'tut', '1engineering i 4', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'csen ', 'lab', '1engineering ii 6', 63, 'sahar soussa')
-(27, 'csen ', 'lab', '1engineering ii 7', 62, 'reem moursy')
-(27, 'engd ', 'tut', '1engineering ii 8', 44, 'rana elazhary')
-(27, 'engd ', 'tut', '1engineering ii 9', 43, 'heba moussa')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'math ', 'tut', '1engineering ix 39', 42, 'mustafa mustafa hanafi')
-(27, 'math ', 'tut', '1engineering ix 40', 41, 'mohamed zamzam')
-(27, 'physics ', 'tut', '1engineering ix 37', 39, 't43')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'csen ', 'small_lec', '1engineering v', 54, 'mohammed salem')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'csen tut ', 'tut', '1engineering x 42', 37, 'hadwa pasha')
-(27, 'csen tut ', 'tut', '1engineering x 43', 36, 'noha abdellatif')
-(27, 'chemistry ', 'tut', '1engineering x 44', 35, 'islam eddiasty')
-(27, 'chemistry ', 'tut', '1engineering x 45', 34, 'sherif aref')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'math ', 'tut', '3 iet/met ii 13', 33, 'adel naeim')
-(27, 'math ', 'tut', '3 iet/met ii 14', 32, 'hisham ibrahim')
-(27, 'math ', 'tut', '3 iet/met ii 15', 31, 'abdallah mohamed')
+    <t xml:space="preserve">(27, 'pro', 'tut', '1engineering i 5', 49, 'islam hegazy')
+(27, 'math', 'tut', '1engineering i 1', 48, 'mohamed hafez')
+(27, 'math', 'tut', '1engineering i 2', 47, 'walaa saad mahmoud')
+(27, 'math', 'tut', '1engineering i 3', 46, 'abeer khalifa')
+(27, 'physics', 'tut', '1engineering i 4', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'csen', 'lab', '1engineering ii 6', 63, 'sahar soussa')
+(27, 'csen', 'lab', '1engineering ii 7', 62, 'reem moursy')
+(27, 'engd', 'tut', '1engineering ii 8', 44, 'rana elazhary')
+(27, 'engd', 'tut', '1engineering ii 9', 43, 'heba moussa')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'math', 'tut', '1engineering ix 39', 42, 'mustafa mustafa hanafi')
+(27, 'math', 'tut', '1engineering ix 40', 41, 'mohamed zamzam')
+(27, 'physics', 'tut', '1engineering ix 37', 39, 't43')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'csen', 'small_lec', '1engineering v', 54, 'mohammed salem')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'csen', 'tut', '1engineering x 42', 37, 'hadwa pasha')
+(27, 'csen', 'tut', '1engineering x 43', 36, 'noha abdellatif')
+(27, 'chemistry', 'tut', '1engineering x 44', 35, 'islam eddiasty')
+(27, 'chemistry', 'tut', '1engineering x 45', 34, 'sherif aref')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'math', 'tut', '3 iet/met ii 13', 33, 'adel naeim')
+(27, 'math', 'tut', '3 iet/met ii 14', 32, 'hisham ibrahim')
+(27, 'math', 'tut', '3 iet/met ii 15', 31, 'abdallah mohamed')
 (27, 'physics', 'tut', '3 iet/met ii 1', 30, 'sarah abouelhasab')
-(27, 'cs ', 'lab', '3 iet/met ii 11', 61, 't46')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'introduction to communication networks ', 'small_lec', '5 csen i', 53, 'amr elmougy')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'media ', 'tut', '5 csen ii 20', 29, 'ethar elhinamy')
-(27, 'data bases ', 'lab', '5 csen ii 16', 59, 'sama abdel monem')
-(27, 'comm net t', 'tut', '5 csen ii 17', 28, 'ahmed helmy')
-(27, 'math ', 'tut', '5 csen ii 21', 27, 'naglaa ahmed')
-(27, 'dsd ', 'tut', '5 csen ii 18', 26, 'hadeel mostafa')
-(27, 'data basest ', 'tut', '5 csen ii 19', 25, 'gina younes')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'graphics t ', 'tut', '5 dmet 22', 24, 'omnia elsayed')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'embedded systems ', 'small_lec', '7 csen i', 52, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'emb. syst  ', 'tut', '7 csen ii 17', 23, 'ahmed fahmy')
-(27, 'microprocessors ', 'tut', '7 csen ii 15', 22, 'belal abdel raheem')
-(27, 'algorithms ', 'tut', '7 csen ii 16', 21, 't47')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(27, 'embedded systems ', 'small_lec', '7 dmet', 51, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'math ', 'small_lec', '1engineering ix', 53, 't44')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'prot ', 'tut', '1engineering v 23', 49, 'islam hegazy')
-(28, 'math ', 'tut', '1engineering v 19', 48, 'lina helal')
-(28, 'math ', 'tut', '1engineering v 20', 47, 'amgad amin')
-(28, 'math ', 'tut', '1engineering v 21', 46, 'khaled alagha')
-(28, 'csen ', 'lab', '1engineering v 22', 63, 'ali saudi')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'csen ', 'lab', '1engineering vi 24', 62, 'rana ahmed')
-(28, 'csen ', 'lab', '1engineering vi 25', 61, 'yehia hatab')
-(28, 'engd ', 'tut', '1engineering vi 26', 45, 'heba moussa')
-(28, 'chemistry ', 'tut', '1engineering vi 27', 44, 'islam eddiasty')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'csen ', 'small_lec', '1engineering vii', 54, 'slim abdennadher')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'physics ', 'lab', '3 iet/met i 9', 60, 'noha hassan')
-(28, 'physics ', 'lab', '3 iet/met i 10', 59, 'bassant salah')
-(28, 'elct ', 'lab', '3 iet/met i 7', 58, 'omar fahmy el kharbotly')
-(28, 'elct ', 'lab', '3 iet/met i 8', 57, 'youmna shehata')
-(28, 'csen t ', 'tut', '3 iet/met i 6', 43, 'khaled kassem')
-(28, 'elct t', 'tut', '3 iet/met i 4', 42, 'noha shouman')
-(28, 'math ', 'tut', '3 iet/met i 1', 41, 'shady nagy')
-(28, 'math ', 'tut', '3 iet/met i 5', 40, 'abdallah mohamed')
-(28, 'cs ', 'lab', '3 iet/met i 2', 56, 'nada ramadan')
-(28, 'cs ', 'lab', '3 iet/met i 3', 2, 'mohamed ashry')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'microprocessors ', 'tut', '7 csen i 9', 39, 'ahmed fahmy')
-(28, 'algorithms ', 'tut', '7 csen i 10', 38, 'belal abdel raheem')
-(28, 'advanced computer ', 'lab', '7 csen i 12', 1, 'reham hassan')
-(28, 'advanced computer ', 'lab', '7 csen i 13', 0, 'youssef amin')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'embedded systems ', 'small_lec', '7 csen ii', 55, 'hassan soubra')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(28, 'multimedia  ', 'tut', '7 dmet 19', 37, 'mohammed kapiel')
-(28, 'emb. syst ', 'tut', '7 dmet 20', 36, 'loaa elzahar')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(29, 'math ', 'tut', '1engineering ix 37', 49, 'sherif aref')
-(29, 'chemistry ', 'tut', '1engineering ix 39', 47, 'mohamed zamzam')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(29, 'csen ', 'lab', '1engineering x 42', 63, 'hadwa pasha')
-(29, 'csen ', 'lab', '1engineering x 43', 62, 'noha abdellatif')
-(29, 'engd ', 'tut', '1engineering x 44', 46, 'rana elazhary')
-(29, 'physics ', 'tut', '1engineering x 45', 45, 'hazem abdelhafiz')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(29, 'elct ', 'lab', '3 iet/met i 1', 61, 'mohamed ibrahim')
-(29, 'elct ', 'lab', '3 iet/met i 2', 60, 'mahmoud zaher')
-(29, 'math ', 'tut', '3 iet/met i 3', 44, 'hisham ibrahim')
-(29, 'math ', 'tut', '3 iet/met i 4', 43, 'abdallah mohamed')
-(29, 'pysics ', 'tut', '3 iet/met i 5', 42, 'sarah abouelhasab')
-(29, 'cs ', 'lab', '3 iet/met i 6', 59, 'mohamed ashry')
-(29, 'cs ', 'lab', '3 iet/met i 7', 58, 'khaled kassem')
-(29, 'cs ', 'lab', '3 iet/met i 8', 57, 'carol doos')
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(29, 'emb. syst ', 'tut', '7 csen i 10', 41, 'loaa elzahar')
-(29, 'graphics  ', 'lab', '7 csen i 9', 56, 'mohammed kapiel')
+(27, 'cs', 'lab', '3 iet/met ii 11', 61, 't46')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'introduction to communication networks', 'small_lec', '5 csen i', 53, 'amr elmougy')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'medi', 'tut', '5 csen ii 20', 29, 'ethar elhinamy')
+(27, 'data bases', 'lab', '5 csen ii 16', 59, 'sama abdel monem')
+(27, 'comm ne', 'tut', '5 csen ii 17', 28, 'ahmed helmy')
+(27, 'math', 'tut', '5 csen ii 21', 27, 'naglaa ahmed')
+(27, 'dsd', 'tut', '5 csen ii 18', 26, 'hadeel mostafa')
+(27, 'data bases', 'tut', '5 csen ii 19', 25, 'gina younes')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'graphics', 'tut', '5 dmet 22', 24, 'omnia elsayed')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'embedded systems', 'small_lec', '7 csen i', 52, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'emb. sys', 'tut', '7 csen ii 17', 23, 'ahmed fahmy')
+(27, 'microprocessors', 'tut', '7 csen ii 15', 22, 'belal abdel raheem')
+(27, 'algorithms', 'tut', '7 csen ii 16', 21, 't47')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(27, 'embedded systems', 'small_lec', '7 dmet', 51, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'math', 'small_lec', '1engineering ix', 53, 't44')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'pro', 'tut', '1engineering v 23', 49, 'islam hegazy')
+(28, 'math', 'tut', '1engineering v 19', 48, 'lina helal')
+(28, 'math', 'tut', '1engineering v 20', 47, 'amgad amin')
+(28, 'math', 'tut', '1engineering v 21', 46, 'khaled alagha')
+(28, 'csen', 'lab', '1engineering v 22', 63, 'ali saudi')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'csen', 'lab', '1engineering vi 24', 62, 'rana ahmed')
+(28, 'csen', 'lab', '1engineering vi 25', 61, 'yehia hatab')
+(28, 'engd', 'tut', '1engineering vi 26', 45, 'heba moussa')
+(28, 'chemistry', 'tut', '1engineering vi 27', 44, 'islam eddiasty')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'csen', 'small_lec', '1engineering vii', 54, 'slim abdennadher')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'physics', 'lab', '3 iet/met i 9', 60, 'noha hassan')
+(28, 'physics', 'lab', '3 iet/met i 10', 59, 'bassant salah')
+(28, 'elc', 'lab', '3 iet/met i 7', 58, 'omar fahmy el kharbotly')
+(28, 'elc', 'lab', '3 iet/met i 8', 57, 'youmna shehata')
+(28, 'csen', 'tut', '3 iet/met i 6', 43, 'khaled kassem')
+(28, 'elc', 'tut', '3 iet/met i 4', 42, 'noha shouman')
+(28, 'math', 'tut', '3 iet/met i 1', 41, 'shady nagy')
+(28, 'math', 'tut', '3 iet/met i 5', 40, 'abdallah mohamed')
+(28, 'cs', 'lab', '3 iet/met i 2', 56, 'nada ramadan')
+(28, 'cs', 'lab', '3 iet/met i 3', 2, 'mohamed ashry')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'microprocessors', 'tut', '7 csen i 9', 39, 'ahmed fahmy')
+(28, 'algorithms', 'tut', '7 csen i 10', 38, 'belal abdel raheem')
+(28, 'advanced computer', 'lab', '7 csen i 12', 1, 'reham hassan')
+(28, 'advanced computer', 'lab', '7 csen i 13', 0, 'youssef amin')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'embedded systems', 'small_lec', '7 csen ii', 55, 'hassan soubra')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(28, 'multimedi', 'tut', '7 dmet 19', 37, 'mohammed kapiel')
+(28, 'emb. sys', 'tut', '7 dmet 20', 36, 'loaa elzahar')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29, 'math', 'tut', '1engineering ix 37', 49, 'sherif aref')
+(29, 'chemistry', 'tut', '1engineering ix 39', 47, 'mohamed zamzam')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29, 'csen', 'lab', '1engineering x 42', 63, 'hadwa pasha')
+(29, 'csen', 'lab', '1engineering x 43', 62, 'noha abdellatif')
+(29, 'engd', 'tut', '1engineering x 44', 46, 'rana elazhary')
+(29, 'physics', 'tut', '1engineering x 45', 45, 'hazem abdelhafiz')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29, 'elc', 'lab', '3 iet/met i 1', 61, 'mohamed ibrahim')
+(29, 'elc', 'lab', '3 iet/met i 2', 60, 'mahmoud zaher')
+(29, 'math', 'tut', '3 iet/met i 3', 44, 'hisham ibrahim')
+(29, 'math', 'tut', '3 iet/met i 4', 43, 'abdallah mohamed')
+(29, 'pysics', 'tut', '3 iet/met i 5', 42, 'sarah abouelhasab')
+(29, 'cs', 'lab', '3 iet/met i 6', 59, 'mohamed ashry')
+(29, 'cs', 'lab', '3 iet/met i 7', 58, 'khaled kassem')
+(29, 'cs', 'lab', '3 iet/met i 8', 57, 'carol doos')
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(29, 'emb. sys', 'tut', '7 csen i 10', 41, 'loaa elzahar')
+(29, 'graphics', 'lab', '7 csen i 9', 56, 'mohammed kapiel')
 </t>
   </si>
 </sst>
